--- a/docs/resultados_lotes.xlsx
+++ b/docs/resultados_lotes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="265">
   <si>
     <t>Lote</t>
   </si>
@@ -64,109 +64,472 @@
     <t>E2</t>
   </si>
   <si>
+    <t>J_6-5-146</t>
+  </si>
+  <si>
     <t>J_2-5-133</t>
   </si>
   <si>
     <t>J_6-2-138</t>
   </si>
   <si>
-    <t>J_6-15-110</t>
+    <t>J_2-3-149</t>
+  </si>
+  <si>
+    <t>J_7-2-120</t>
+  </si>
+  <si>
+    <t>J_8-1-58</t>
+  </si>
+  <si>
+    <t>J_8-4-148</t>
+  </si>
+  <si>
+    <t>J_4-3-118</t>
+  </si>
+  <si>
+    <t>J_7-4-29</t>
+  </si>
+  <si>
+    <t>J_7-16-129</t>
   </si>
   <si>
     <t>J_8-17-130</t>
   </si>
   <si>
+    <t>J_7-17-136</t>
+  </si>
+  <si>
+    <t>J_1-11-39</t>
+  </si>
+  <si>
+    <t>J_2-16-44</t>
+  </si>
+  <si>
+    <t>J_3-16-62</t>
+  </si>
+  <si>
+    <t>J_5-18-133</t>
+  </si>
+  <si>
+    <t>J_6-20-78</t>
+  </si>
+  <si>
+    <t>J_7-19-63</t>
+  </si>
+  <si>
+    <t>J_1-20-58</t>
+  </si>
+  <si>
+    <t>J_5-16-82</t>
+  </si>
+  <si>
+    <t>J_2-18-41</t>
+  </si>
+  <si>
     <t>J_2-19-41</t>
   </si>
   <si>
-    <t>J_2-16-44</t>
-  </si>
-  <si>
     <t>J_3-22-74</t>
   </si>
   <si>
+    <t>J_1-23-122</t>
+  </si>
+  <si>
+    <t>J_2-23-28</t>
+  </si>
+  <si>
+    <t>J_1-22-99</t>
+  </si>
+  <si>
+    <t>J_2-26-51</t>
+  </si>
+  <si>
+    <t>J_3-9-27</t>
+  </si>
+  <si>
     <t>J_6-8-118</t>
   </si>
   <si>
+    <t>J_3-22-52</t>
+  </si>
+  <si>
+    <t>J_5-23-104</t>
+  </si>
+  <si>
     <t>J_2-27-35</t>
   </si>
   <si>
+    <t>J_4-22-95</t>
+  </si>
+  <si>
+    <t>J_2-26-145</t>
+  </si>
+  <si>
+    <t>J_1-24-99</t>
+  </si>
+  <si>
+    <t>J_6-24-57</t>
+  </si>
+  <si>
+    <t>J_1-25-109</t>
+  </si>
+  <si>
+    <t>J_1-29-44</t>
+  </si>
+  <si>
+    <t>J_2-31-130</t>
+  </si>
+  <si>
+    <t>J_1-26-87</t>
+  </si>
+  <si>
+    <t>J_4-27-54</t>
+  </si>
+  <si>
+    <t>J_5-30-134</t>
+  </si>
+  <si>
+    <t>J_1-32-146</t>
+  </si>
+  <si>
     <t>J_3-30-99</t>
   </si>
   <si>
-    <t>J_2-31-130</t>
-  </si>
-  <si>
-    <t>J_1-7-97</t>
+    <t>J_6-34-50</t>
+  </si>
+  <si>
+    <t>J_5-6-122</t>
+  </si>
+  <si>
+    <t>J_8-5-27</t>
+  </si>
+  <si>
+    <t>J_1-34-50</t>
+  </si>
+  <si>
+    <t>J_2-34-78</t>
   </si>
   <si>
     <t>J_8-38-138</t>
   </si>
   <si>
+    <t>J_2-35-40</t>
+  </si>
+  <si>
+    <t>J_3-38-111</t>
+  </si>
+  <si>
+    <t>J_7-40-147</t>
+  </si>
+  <si>
+    <t>J_4-36-53</t>
+  </si>
+  <si>
+    <t>J_6-37-100</t>
+  </si>
+  <si>
+    <t>J_2-37-51</t>
+  </si>
+  <si>
+    <t>J_7-41-104</t>
+  </si>
+  <si>
+    <t>J_2-39-34</t>
+  </si>
+  <si>
+    <t>J_2-42-52</t>
+  </si>
+  <si>
+    <t>J_7-43-68</t>
+  </si>
+  <si>
     <t>J_1-38-34</t>
   </si>
   <si>
-    <t>J_7-41-104</t>
-  </si>
-  <si>
-    <t>J_4-3-40</t>
+    <t>J_1-39-111</t>
+  </si>
+  <si>
+    <t>J_6-39-128</t>
+  </si>
+  <si>
+    <t>J_3-44-48</t>
+  </si>
+  <si>
+    <t>J_3-45-67</t>
+  </si>
+  <si>
+    <t>J_8-46-26</t>
+  </si>
+  <si>
+    <t>J_6-10-81</t>
+  </si>
+  <si>
+    <t>J_6-5-66</t>
+  </si>
+  <si>
+    <t>J_2-46-135</t>
+  </si>
+  <si>
+    <t>J_3-48-138</t>
+  </si>
+  <si>
+    <t>J_6-48-79</t>
+  </si>
+  <si>
+    <t>J_8-48-74</t>
+  </si>
+  <si>
+    <t>J_4-45-49</t>
+  </si>
+  <si>
+    <t>J_8-46-97</t>
+  </si>
+  <si>
+    <t>J_3-47-37</t>
+  </si>
+  <si>
+    <t>J_5-48-117</t>
+  </si>
+  <si>
+    <t>J_3-51-138</t>
+  </si>
+  <si>
+    <t>J_3-53-97</t>
   </si>
   <si>
     <t>J_7-50-50</t>
   </si>
   <si>
-    <t>J_3-48-138</t>
+    <t>J_3-52-33</t>
+  </si>
+  <si>
+    <t>J_8-54-115</t>
+  </si>
+  <si>
+    <t>J_3-55-141</t>
+  </si>
+  <si>
+    <t>J_6-55-146</t>
+  </si>
+  <si>
+    <t>J_6-10-88</t>
+  </si>
+  <si>
+    <t>J_7-11-49</t>
+  </si>
+  <si>
+    <t>J_1-54-146</t>
   </si>
   <si>
     <t>J_5-52-35</t>
   </si>
   <si>
+    <t>J_6-55-85</t>
+  </si>
+  <si>
+    <t>J_7-54-31</t>
+  </si>
+  <si>
+    <t>J_4-54-58</t>
+  </si>
+  <si>
+    <t>J_5-55-65</t>
+  </si>
+  <si>
     <t>J_5-56-134</t>
   </si>
   <si>
+    <t>J_1-55-46</t>
+  </si>
+  <si>
     <t>J_6-57-101</t>
   </si>
   <si>
-    <t>J_6-10-81</t>
+    <t>J_5-58-143</t>
+  </si>
+  <si>
+    <t>J_2-59-125</t>
+  </si>
+  <si>
+    <t>J_3-62-30</t>
+  </si>
+  <si>
+    <t>J_7-62-141</t>
+  </si>
+  <si>
+    <t>J_2-65-27</t>
+  </si>
+  <si>
+    <t>J_7-64-122</t>
+  </si>
+  <si>
+    <t>J_3-65-132</t>
+  </si>
+  <si>
+    <t>J_5-7-112</t>
+  </si>
+  <si>
+    <t>J_6-11-43</t>
+  </si>
+  <si>
+    <t>J_1-59-84</t>
+  </si>
+  <si>
+    <t>J_7-67-62</t>
+  </si>
+  <si>
+    <t>J_1-61-100</t>
+  </si>
+  <si>
+    <t>J_8-68-45</t>
+  </si>
+  <si>
+    <t>J_1-67-47</t>
   </si>
   <si>
     <t>J_7-68-97</t>
   </si>
   <si>
+    <t>J_2-66-30</t>
+  </si>
+  <si>
     <t>J_5-67-119</t>
   </si>
   <si>
+    <t>J_3-71-66</t>
+  </si>
+  <si>
+    <t>J_8-71-79</t>
+  </si>
+  <si>
+    <t>J_3-68-115</t>
+  </si>
+  <si>
+    <t>J_6-70-29</t>
+  </si>
+  <si>
+    <t>J_6-69-53</t>
+  </si>
+  <si>
+    <t>J_6-72-98</t>
+  </si>
+  <si>
+    <t>J_3-73-136</t>
+  </si>
+  <si>
     <t>J_1-71-133</t>
   </si>
   <si>
+    <t>J_4-70-86</t>
+  </si>
+  <si>
+    <t>J_5-71-67</t>
+  </si>
+  <si>
+    <t>J_1-10-91</t>
+  </si>
+  <si>
+    <t>J_7-13-60</t>
+  </si>
+  <si>
+    <t>J_4-72-149</t>
+  </si>
+  <si>
     <t>J_1-73-34</t>
   </si>
   <si>
+    <t>J_6-75-117</t>
+  </si>
+  <si>
+    <t>J_4-74-141</t>
+  </si>
+  <si>
     <t>J_2-74-47</t>
   </si>
   <si>
-    <t>J_7-13-60</t>
-  </si>
-  <si>
-    <t>J_6-75-32</t>
+    <t>J_5-75-109</t>
+  </si>
+  <si>
+    <t>J_4-76-63</t>
+  </si>
+  <si>
+    <t>J_7-79-93</t>
+  </si>
+  <si>
+    <t>J_4-77-90</t>
+  </si>
+  <si>
+    <t>J_5-75-34</t>
+  </si>
+  <si>
+    <t>J_5-78-49</t>
+  </si>
+  <si>
+    <t>J_6-79-102</t>
+  </si>
+  <si>
+    <t>J_1-77-142</t>
+  </si>
+  <si>
+    <t>J_2-81-43</t>
+  </si>
+  <si>
+    <t>J_4-79-111</t>
+  </si>
+  <si>
+    <t>J_6-77-146</t>
+  </si>
+  <si>
+    <t>J_1-12-126</t>
+  </si>
+  <si>
+    <t>J_6-13-29</t>
+  </si>
+  <si>
+    <t>J_1-79-92</t>
+  </si>
+  <si>
+    <t>J_4-80-55</t>
+  </si>
+  <si>
+    <t>J_6-82-96</t>
+  </si>
+  <si>
+    <t>J_8-85-55</t>
+  </si>
+  <si>
+    <t>J_6-80-119</t>
   </si>
   <si>
     <t>J_7-78-119</t>
   </si>
   <si>
-    <t>J_1-77-142</t>
+    <t>J_1-83-66</t>
+  </si>
+  <si>
+    <t>J_5-81-74</t>
   </si>
   <si>
     <t>J_1-83-102</t>
   </si>
   <si>
-    <t>J_4-79-111</t>
-  </si>
-  <si>
-    <t>J_4-80-55</t>
-  </si>
-  <si>
-    <t>J_7-16-129</t>
+    <t>J_5-84-50</t>
+  </si>
+  <si>
+    <t>J_6-85-84</t>
+  </si>
+  <si>
+    <t>J_4-85-118</t>
+  </si>
+  <si>
+    <t>J_2-15-120</t>
+  </si>
+  <si>
+    <t>J_4-10-36</t>
+  </si>
+  <si>
+    <t>-1</t>
   </si>
   <si>
     <t>-2</t>
@@ -175,6 +538,21 @@
     <t>-3</t>
   </si>
   <si>
+    <t>-4</t>
+  </si>
+  <si>
+    <t>-5</t>
+  </si>
+  <si>
+    <t>-6</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
@@ -184,69 +562,192 @@
     <t>12</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>14</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>17</t>
   </si>
   <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
     <t>21</t>
   </si>
   <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
     <t>24</t>
   </si>
   <si>
+    <t>25</t>
+  </si>
+  <si>
     <t>26</t>
   </si>
   <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
     <t>32</t>
   </si>
   <si>
+    <t>33</t>
+  </si>
+  <si>
     <t>34</t>
   </si>
   <si>
     <t>35</t>
   </si>
   <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
     <t>43</t>
   </si>
   <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
     <t>48</t>
   </si>
   <si>
     <t>49</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
     <t>53</t>
   </si>
   <si>
     <t>54</t>
   </si>
   <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
     <t>62</t>
   </si>
   <si>
     <t>63</t>
   </si>
   <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
     <t>66</t>
   </si>
   <si>
+    <t>67</t>
+  </si>
+  <si>
     <t>68</t>
   </si>
   <si>
+    <t>69</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
@@ -259,13 +760,52 @@
     <t>72</t>
   </si>
   <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
     <t>78</t>
   </si>
   <si>
     <t>79</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
   </si>
   <si>
     <t>9</t>
@@ -626,7 +1166,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -693,22 +1233,22 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>171</v>
       </c>
       <c r="E2">
-        <v>13.49683037244198</v>
+        <v>13.04666447459139</v>
       </c>
       <c r="F2">
-        <v>9.385413673075403</v>
+        <v>7.72466130693918</v>
       </c>
       <c r="G2">
-        <v>69160</v>
+        <v>75920</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>67615.60000000001</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -717,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>36636.6</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -729,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>1543.88</v>
+        <v>39282.88</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -743,43 +1283,43 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="E3">
-        <v>13.45131805913689</v>
+        <v>13.49683037244198</v>
       </c>
       <c r="F3">
-        <v>14.22326979752541</v>
+        <v>9.385413673075403</v>
       </c>
       <c r="G3">
-        <v>71760</v>
+        <v>69160</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>19695.52</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>16849.56</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>5790.2</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>49119.72</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>36916.88</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>12546.56</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -796,25 +1336,25 @@
         <v>18</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>173</v>
       </c>
       <c r="E4">
-        <v>13.31474671067582</v>
+        <v>13.45131805913689</v>
       </c>
       <c r="F4">
-        <v>9.9755463866077</v>
+        <v>14.22326979752541</v>
       </c>
       <c r="G4">
-        <v>57200</v>
+        <v>71760</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>106.08</v>
+        <v>71760</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -823,19 +1363,19 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>23615.28</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>32448.52</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>1029.08</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -849,25 +1389,25 @@
         <v>19</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>174</v>
       </c>
       <c r="E5">
-        <v>14.02151812227533</v>
+        <v>13.47950311944528</v>
       </c>
       <c r="F5">
-        <v>11.71062203976225</v>
+        <v>8.021706515866953</v>
       </c>
       <c r="G5">
-        <v>67599.48</v>
+        <v>77480</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>40932.84</v>
+        <v>77480</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -876,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>26666.64</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -902,19 +1442,19 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>175</v>
       </c>
       <c r="E6">
-        <v>13.60558877636318</v>
+        <v>13.55921170796885</v>
       </c>
       <c r="F6">
-        <v>9.532948969057585</v>
+        <v>6.126347224775721</v>
       </c>
       <c r="G6">
-        <v>21319.48</v>
+        <v>62400</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -929,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>2173.08</v>
+        <v>62400</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -938,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>19146.4</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -955,25 +1495,25 @@
         <v>21</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>176</v>
       </c>
       <c r="E7">
-        <v>14.63713720611156</v>
+        <v>13.65604046779617</v>
       </c>
       <c r="F7">
-        <v>10.25349322211792</v>
+        <v>8.14431813843421</v>
       </c>
       <c r="G7">
-        <v>22880</v>
+        <v>30160</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>8504.6</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -988,13 +1528,13 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16224</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>6655.48</v>
+        <v>6273.280000000001</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>15381.08</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -1008,25 +1548,25 @@
         <v>22</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>177</v>
       </c>
       <c r="E8">
-        <v>14.0203291797526</v>
+        <v>14.71301758366426</v>
       </c>
       <c r="F8">
-        <v>12.53365805845855</v>
+        <v>14.38691419523884</v>
       </c>
       <c r="G8">
-        <v>38480</v>
+        <v>76960</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>22255.48</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1035,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>76960</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16224</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1061,25 +1601,25 @@
         <v>23</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>178</v>
       </c>
       <c r="E9">
-        <v>13.00506477392782</v>
+        <v>13.10970574760042</v>
       </c>
       <c r="F9">
-        <v>8.747768863363007</v>
+        <v>9.283429299262147</v>
       </c>
       <c r="G9">
         <v>61360</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>19695.52</v>
       </c>
       <c r="I9">
-        <v>61360</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1094,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>41663.96</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1114,25 +1654,25 @@
         <v>24</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>178</v>
       </c>
       <c r="E10">
-        <v>13.85538110071333</v>
+        <v>14.29697275355179</v>
       </c>
       <c r="F10">
-        <v>11.4374338045384</v>
+        <v>4.674991090638217</v>
       </c>
       <c r="G10">
-        <v>18200</v>
+        <v>15080</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>15080</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1150,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>18200</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1167,25 +1707,25 @@
         <v>25</v>
       </c>
       <c r="C11">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>179</v>
       </c>
       <c r="E11">
-        <v>13.5900191764315</v>
+        <v>13.83757905490763</v>
       </c>
       <c r="F11">
-        <v>10.58019124035578</v>
+        <v>11.91102491579942</v>
       </c>
       <c r="G11">
-        <v>51480</v>
+        <v>67080</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>18677.36</v>
+        <v>19251.96</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1194,10 +1734,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6698.12</v>
+        <v>47827.52</v>
       </c>
       <c r="M11">
-        <v>24559.6</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1206,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>1543.88</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1220,16 +1760,16 @@
         <v>26</v>
       </c>
       <c r="C12">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>180</v>
       </c>
       <c r="E12">
-        <v>14.19275368101527</v>
+        <v>14.02151812227533</v>
       </c>
       <c r="F12">
-        <v>9.628593361256021</v>
+        <v>11.71062203976225</v>
       </c>
       <c r="G12">
         <v>67600</v>
@@ -1238,16 +1778,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>30743.44</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>8424.52</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>28676.96</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1256,13 +1796,13 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>5415.28</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>23901.28</v>
       </c>
       <c r="Q12">
-        <v>23015.72</v>
+        <v>15020.72</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1273,34 +1813,34 @@
         <v>27</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>181</v>
       </c>
       <c r="E13">
-        <v>13.41534196608604</v>
+        <v>14.02983409058691</v>
       </c>
       <c r="F13">
-        <v>4.345908167799716</v>
+        <v>10.15643959254586</v>
       </c>
       <c r="G13">
-        <v>50440</v>
+        <v>70720</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>70720</v>
       </c>
       <c r="J13">
-        <v>8424.52</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>42014.96</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -1326,19 +1866,19 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>182</v>
       </c>
       <c r="E14">
-        <v>14.00871210531955</v>
+        <v>14.3638411626003</v>
       </c>
       <c r="F14">
-        <v>10.1607925173846</v>
+        <v>13.03096960241065</v>
       </c>
       <c r="G14">
-        <v>71760</v>
+        <v>20280</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1350,25 +1890,25 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>3808.48</v>
       </c>
       <c r="L14">
-        <v>38349.48</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>16471</v>
       </c>
       <c r="O14">
-        <v>24708.32</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>1029.08</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>7671.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1379,25 +1919,25 @@
         <v>29</v>
       </c>
       <c r="C15">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>182</v>
       </c>
       <c r="E15">
-        <v>13.34745310849029</v>
+        <v>14.50744332856054</v>
       </c>
       <c r="F15">
-        <v>11.24560967012532</v>
+        <v>10.1626410783077</v>
       </c>
       <c r="G15">
-        <v>17680</v>
+        <v>22880</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>22880</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1415,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17680</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1432,34 +1972,34 @@
         <v>30</v>
       </c>
       <c r="C16">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>182</v>
       </c>
       <c r="E16">
-        <v>13.71418926423205</v>
+        <v>14.50297419233165</v>
       </c>
       <c r="F16">
-        <v>9.104130311530479</v>
+        <v>7.544734450009783</v>
       </c>
       <c r="G16">
-        <v>54080</v>
+        <v>32240</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>54080</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>24079.12</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6955.52</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1471,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1204.32</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -1485,34 +2025,34 @@
         <v>31</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>183</v>
       </c>
       <c r="E17">
-        <v>13.20688075726564</v>
+        <v>13.06550684122776</v>
       </c>
       <c r="F17">
-        <v>6.613441686065195</v>
+        <v>12.65456166667615</v>
       </c>
       <c r="G17">
-        <v>20800</v>
+        <v>69160</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3949.92</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>16849.56</v>
+        <v>6670.04</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>5518.24</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>56970.68</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1538,19 +2078,19 @@
         <v>32</v>
       </c>
       <c r="C18">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>184</v>
       </c>
       <c r="E18">
-        <v>13.45817883654042</v>
+        <v>13.4096142291142</v>
       </c>
       <c r="F18">
-        <v>11.0044751217033</v>
+        <v>7.249253093801081</v>
       </c>
       <c r="G18">
-        <v>26000</v>
+        <v>40560</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1565,13 +2105,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1439.88</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>24559.6</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>40560</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1591,19 +2131,19 @@
         <v>33</v>
       </c>
       <c r="C19">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>184</v>
       </c>
       <c r="E19">
-        <v>14.93529798724385</v>
+        <v>14.22034253392691</v>
       </c>
       <c r="F19">
-        <v>12.50697930910139</v>
+        <v>8.393273945805932</v>
       </c>
       <c r="G19">
-        <v>71760</v>
+        <v>32760</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1618,22 +2158,22 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>58318</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13939.64</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1166.36</v>
+        <v>18819.84</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12274.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1644,19 +2184,19 @@
         <v>34</v>
       </c>
       <c r="C20">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>185</v>
       </c>
       <c r="E20">
-        <v>13.10325899991853</v>
+        <v>13.33676326254612</v>
       </c>
       <c r="F20">
-        <v>11.69572859856271</v>
+        <v>8.78415210276013</v>
       </c>
       <c r="G20">
-        <v>18200</v>
+        <v>30160</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1671,13 +2211,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>30160</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2855.84</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1686,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>15343.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1697,19 +2237,19 @@
         <v>35</v>
       </c>
       <c r="C21">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c r="E21">
-        <v>13.12532967244471</v>
+        <v>13.22255327030471</v>
       </c>
       <c r="F21">
-        <v>14.29111406844464</v>
+        <v>9.736784439375766</v>
       </c>
       <c r="G21">
-        <v>69680</v>
+        <v>42640</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1718,10 +2258,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>12038</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>42640</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1730,13 +2270,13 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>45817.2</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>10794.68</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>1029.08</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -1750,25 +2290,25 @@
         <v>36</v>
       </c>
       <c r="C22">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>186</v>
       </c>
       <c r="E22">
-        <v>13.78650996635141</v>
+        <v>14.78897715468523</v>
       </c>
       <c r="F22">
-        <v>13.15913066612812</v>
+        <v>10.21071302120374</v>
       </c>
       <c r="G22">
-        <v>52520</v>
+        <v>21320</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>21320</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1777,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>3102.32</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1786,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>49417.16</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -1803,25 +2343,25 @@
         <v>37</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>186</v>
       </c>
       <c r="E23">
-        <v>13.70152117338475</v>
+        <v>14.72854796003666</v>
       </c>
       <c r="F23">
-        <v>10.94885971943938</v>
+        <v>10.31976626658547</v>
       </c>
       <c r="G23">
-        <v>42120</v>
+        <v>21320</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>3760.12</v>
+        <v>21320</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1845,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>38359.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1856,19 +2396,19 @@
         <v>38</v>
       </c>
       <c r="C24">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>186</v>
       </c>
       <c r="E24">
-        <v>13.84884816686268</v>
+        <v>14.0203291797526</v>
       </c>
       <c r="F24">
-        <v>12.41550172973487</v>
+        <v>12.53365805845855</v>
       </c>
       <c r="G24">
-        <v>50440</v>
+        <v>38480</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1883,22 +2423,22 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>33977.84</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>4215.64</v>
+        <v>28486.12</v>
       </c>
       <c r="O24">
-        <v>12246</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>9993.360000000001</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1909,19 +2449,19 @@
         <v>39</v>
       </c>
       <c r="C25">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>187</v>
       </c>
       <c r="E25">
-        <v>13.05222022370047</v>
+        <v>13.01070091964766</v>
       </c>
       <c r="F25">
-        <v>11.09686959960467</v>
+        <v>6.7061030301516</v>
       </c>
       <c r="G25">
-        <v>61880</v>
+        <v>63440</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1930,25 +2470,25 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4811.56</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>32508.32</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>24559.6</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>27328.6</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>36110.88</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -1962,25 +2502,25 @@
         <v>40</v>
       </c>
       <c r="C26">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>187</v>
       </c>
       <c r="E26">
-        <v>13.00712603823532</v>
+        <v>14.07536363403268</v>
       </c>
       <c r="F26">
-        <v>6.489580317572512</v>
+        <v>7.696828257606459</v>
       </c>
       <c r="G26">
-        <v>69160</v>
+        <v>14560</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>14560</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1992,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>48959.56</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>1787.24</v>
+        <v>0</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -2004,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>18412.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2015,19 +2555,19 @@
         <v>41</v>
       </c>
       <c r="C27">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="E27">
-        <v>13.03575012935134</v>
+        <v>13.68771401042852</v>
       </c>
       <c r="F27">
-        <v>7.784362372430015</v>
+        <v>7.444511145060359</v>
       </c>
       <c r="G27">
-        <v>17680</v>
+        <v>51480</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2039,19 +2579,19 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>6300.320000000001</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>45179.16</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27">
-        <v>17680</v>
+        <v>0</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -2068,31 +2608,31 @@
         <v>42</v>
       </c>
       <c r="C28">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="E28">
-        <v>13.85538110071333</v>
+        <v>13.53154609344419</v>
       </c>
       <c r="F28">
-        <v>11.98428610831789</v>
+        <v>6.849737571795722</v>
       </c>
       <c r="G28">
-        <v>24440</v>
+        <v>26520</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>24440</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>24079.12</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2107,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>2440.36</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -2121,25 +2661,25 @@
         <v>43</v>
       </c>
       <c r="C29">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="E29">
-        <v>13.82069163216977</v>
+        <v>13.22653337600512</v>
       </c>
       <c r="F29">
-        <v>8.726598241544256</v>
+        <v>4.393022845511681</v>
       </c>
       <c r="G29">
-        <v>31200</v>
+        <v>14040</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>27786.2</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -2148,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>3413.28</v>
+        <v>0</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -2163,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>14040</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2174,25 +2714,25 @@
         <v>44</v>
       </c>
       <c r="C30">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="E30">
-        <v>13.30293267828077</v>
+        <v>13.00506477392782</v>
       </c>
       <c r="F30">
-        <v>6.930767647836606</v>
+        <v>8.747768863363007</v>
       </c>
       <c r="G30">
-        <v>16640</v>
+        <v>61360</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>16640</v>
+        <v>61360</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2227,25 +2767,25 @@
         <v>45</v>
       </c>
       <c r="C31">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>79</v>
+        <v>190</v>
       </c>
       <c r="E31">
-        <v>13.57611862744043</v>
+        <v>14.65921246350496</v>
       </c>
       <c r="F31">
-        <v>14.54681932397687</v>
+        <v>11.4914474766051</v>
       </c>
       <c r="G31">
-        <v>61880</v>
+        <v>27040</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>27040</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2263,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="O31">
-        <v>61880</v>
+        <v>0</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -2280,19 +2820,19 @@
         <v>46</v>
       </c>
       <c r="C32">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="E32">
-        <v>13.05725579813199</v>
+        <v>13.1297482228013</v>
       </c>
       <c r="F32">
-        <v>8.385754148206173</v>
+        <v>9.344934413964186</v>
       </c>
       <c r="G32">
-        <v>73840</v>
+        <v>54080</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -2307,10 +2847,10 @@
         <v>0</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>54080</v>
       </c>
       <c r="M32">
-        <v>73840</v>
+        <v>0</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2333,25 +2873,25 @@
         <v>47</v>
       </c>
       <c r="C33">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>81</v>
+        <v>191</v>
       </c>
       <c r="E33">
-        <v>13.05725579813199</v>
+        <v>13.85538110071333</v>
       </c>
       <c r="F33">
-        <v>5.600170086891997</v>
+        <v>11.4374338045384</v>
       </c>
       <c r="G33">
-        <v>53040</v>
+        <v>18200</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>18200</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -2360,19 +2900,19 @@
         <v>0</v>
       </c>
       <c r="L33">
-        <v>23001.16</v>
+        <v>0</v>
       </c>
       <c r="M33">
         <v>0</v>
       </c>
       <c r="N33">
-        <v>14436.76</v>
+        <v>0</v>
       </c>
       <c r="O33">
-        <v>14057.16</v>
+        <v>0</v>
       </c>
       <c r="P33">
-        <v>1543.88</v>
+        <v>0</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -2386,25 +2926,25 @@
         <v>48</v>
       </c>
       <c r="C34">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>82</v>
+        <v>191</v>
       </c>
       <c r="E34">
-        <v>13.26173283258893</v>
+        <v>13.1711066800226</v>
       </c>
       <c r="F34">
-        <v>6.277829039758997</v>
+        <v>9.883301975457771</v>
       </c>
       <c r="G34">
-        <v>57720</v>
+        <v>49400</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>36982.92</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -2419,16 +2959,16 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>3848.52</v>
+        <v>49400</v>
       </c>
       <c r="O34">
         <v>0</v>
       </c>
       <c r="P34">
-        <v>1543.88</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>15343.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2439,25 +2979,25 @@
         <v>49</v>
       </c>
       <c r="C35">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="D35" t="s">
-        <v>83</v>
+        <v>192</v>
       </c>
       <c r="E35">
-        <v>13.3221506455596</v>
+        <v>14.38682149106489</v>
       </c>
       <c r="F35">
-        <v>7.654546192109419</v>
+        <v>10.53828509890295</v>
       </c>
       <c r="G35">
-        <v>28600</v>
+        <v>75400</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>75400</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -2472,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>28600</v>
+        <v>0</v>
       </c>
       <c r="O35">
         <v>0</v>
@@ -2492,49 +3032,6409 @@
         <v>50</v>
       </c>
       <c r="C36">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D36" t="s">
+        <v>193</v>
+      </c>
+      <c r="E36">
+        <v>14.15393813968668</v>
+      </c>
+      <c r="F36">
+        <v>9.25298042502666</v>
+      </c>
+      <c r="G36">
+        <v>51480</v>
+      </c>
+      <c r="H36">
+        <v>9847.76</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>3334.76</v>
+      </c>
+      <c r="K36">
+        <v>2245.88</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>36050.04</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37">
+        <v>24</v>
+      </c>
+      <c r="D37" t="s">
+        <v>193</v>
+      </c>
+      <c r="E37">
+        <v>14.06860996635141</v>
+      </c>
+      <c r="F37">
+        <v>12.00741935011045</v>
+      </c>
+      <c r="G37">
+        <v>29640</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>29640</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38">
+        <v>25</v>
+      </c>
+      <c r="D38" t="s">
+        <v>194</v>
+      </c>
+      <c r="E38">
+        <v>14.14322421451015</v>
+      </c>
+      <c r="F38">
+        <v>14.99086118019012</v>
+      </c>
+      <c r="G38">
+        <v>56680</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>56680</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39">
+        <v>29</v>
+      </c>
+      <c r="D39" t="s">
+        <v>194</v>
+      </c>
+      <c r="E39">
+        <v>13.07161084250095</v>
+      </c>
+      <c r="F39">
+        <v>4.339289305219831</v>
+      </c>
+      <c r="G39">
+        <v>22880</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>22880</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40">
+        <v>31</v>
+      </c>
+      <c r="D40" t="s">
+        <v>195</v>
+      </c>
+      <c r="E40">
+        <v>13.92071286468874</v>
+      </c>
+      <c r="F40">
+        <v>9.444036477021776</v>
+      </c>
+      <c r="G40">
+        <v>67600</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>67600</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41">
+        <v>26</v>
+      </c>
+      <c r="D41" t="s">
+        <v>196</v>
+      </c>
+      <c r="E41">
+        <v>14.25847351665356</v>
+      </c>
+      <c r="F41">
+        <v>10.67973976848271</v>
+      </c>
+      <c r="G41">
+        <v>45240</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>45240</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42">
+        <v>27</v>
+      </c>
+      <c r="D42" t="s">
+        <v>196</v>
+      </c>
+      <c r="E42">
+        <v>13.10502361440849</v>
+      </c>
+      <c r="F42">
+        <v>12.14179904976601</v>
+      </c>
+      <c r="G42">
+        <v>28080</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>4301.96</v>
+      </c>
+      <c r="K42">
+        <v>22678.24</v>
+      </c>
+      <c r="L42">
+        <v>1098.76</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43">
+        <v>30</v>
+      </c>
+      <c r="D43" t="s">
+        <v>197</v>
+      </c>
+      <c r="E43">
+        <v>13.14743716009585</v>
+      </c>
+      <c r="F43">
+        <v>9.487305119647083</v>
+      </c>
+      <c r="G43">
+        <v>69680</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>3009.24</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>66670.24000000001</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44">
+        <v>32</v>
+      </c>
+      <c r="D44" t="s">
+        <v>198</v>
+      </c>
+      <c r="E44">
+        <v>13.40818057539578</v>
+      </c>
+      <c r="F44">
+        <v>6.727614874180744</v>
+      </c>
+      <c r="G44">
+        <v>75920</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>75920</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45">
+        <v>30</v>
+      </c>
+      <c r="D45" t="s">
+        <v>199</v>
+      </c>
+      <c r="E45">
+        <v>14.74144774786007</v>
+      </c>
+      <c r="F45">
+        <v>11.47660899570753</v>
+      </c>
+      <c r="G45">
+        <v>51480</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>51480</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46">
+        <v>34</v>
+      </c>
+      <c r="D46" t="s">
+        <v>199</v>
+      </c>
+      <c r="E46">
+        <v>13.37396477392782</v>
+      </c>
+      <c r="F46">
+        <v>10.4634702129511</v>
+      </c>
+      <c r="G46">
+        <v>26000</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>26000</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>200</v>
+      </c>
+      <c r="E47">
+        <v>13.08562892758552</v>
+      </c>
+      <c r="F47">
+        <v>10.09617610894215</v>
+      </c>
+      <c r="G47">
+        <v>63440</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>63440</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
+        <v>200</v>
+      </c>
+      <c r="E48">
+        <v>15.17227239755471</v>
+      </c>
+      <c r="F48">
+        <v>14.10487634948553</v>
+      </c>
+      <c r="G48">
+        <v>14040</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>14040</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49">
+        <v>34</v>
+      </c>
+      <c r="D49" t="s">
+        <v>201</v>
+      </c>
+      <c r="E49">
+        <v>13.39029275638236</v>
+      </c>
+      <c r="F49">
+        <v>10.90378936458686</v>
+      </c>
+      <c r="G49">
+        <v>26000</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>26000</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50">
+        <v>34</v>
+      </c>
+      <c r="D50" t="s">
+        <v>201</v>
+      </c>
+      <c r="E50">
+        <v>14.39989552203217</v>
+      </c>
+      <c r="F50">
+        <v>9.170224789566683</v>
+      </c>
+      <c r="G50">
+        <v>40560</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>37224.72</v>
+      </c>
+      <c r="J50">
+        <v>3334.76</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51">
+        <v>38</v>
+      </c>
+      <c r="D51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E51">
+        <v>13.58761822776853</v>
+      </c>
+      <c r="F51">
+        <v>9.855364902913736</v>
+      </c>
+      <c r="G51">
+        <v>71760</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>71760</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52">
+        <v>35</v>
+      </c>
+      <c r="D52" t="s">
+        <v>203</v>
+      </c>
+      <c r="E52">
+        <v>14.50310450253022</v>
+      </c>
+      <c r="F52">
+        <v>5.91661191620919</v>
+      </c>
+      <c r="G52">
+        <v>20800</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>20800</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53">
+        <v>38</v>
+      </c>
+      <c r="D53" t="s">
+        <v>203</v>
+      </c>
+      <c r="E53">
+        <v>13.81360313114674</v>
+      </c>
+      <c r="F53">
+        <v>7.685937739532066</v>
+      </c>
+      <c r="G53">
+        <v>57720</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>57720</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54">
+        <v>40</v>
+      </c>
+      <c r="D54" t="s">
+        <v>204</v>
+      </c>
+      <c r="E54">
+        <v>13.41349936686218</v>
+      </c>
+      <c r="F54">
+        <v>5.163201062154652</v>
+      </c>
+      <c r="G54">
+        <v>76440</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>76440</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55">
+        <v>36</v>
+      </c>
+      <c r="D55" t="s">
+        <v>205</v>
+      </c>
+      <c r="E55">
+        <v>13.09155155920716</v>
+      </c>
+      <c r="F55">
+        <v>7.61734455496218</v>
+      </c>
+      <c r="G55">
+        <v>27560</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>27560</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56">
+        <v>37</v>
+      </c>
+      <c r="D56" t="s">
+        <v>205</v>
+      </c>
+      <c r="E56">
+        <v>13.86315741978415</v>
+      </c>
+      <c r="F56">
+        <v>8.323171549848984</v>
+      </c>
+      <c r="G56">
+        <v>52000</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>52000</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57">
+        <v>37</v>
+      </c>
+      <c r="D57" t="s">
+        <v>206</v>
+      </c>
+      <c r="E57">
+        <v>14.73728322826152</v>
+      </c>
+      <c r="F57">
+        <v>11.5042249213363</v>
+      </c>
+      <c r="G57">
+        <v>26520</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>26520</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58">
+        <v>41</v>
+      </c>
+      <c r="D58" t="s">
+        <v>206</v>
+      </c>
+      <c r="E58">
+        <v>13.71418926423205</v>
+      </c>
+      <c r="F58">
+        <v>9.104130311530479</v>
+      </c>
+      <c r="G58">
+        <v>54080</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>54080</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59">
+        <v>39</v>
+      </c>
+      <c r="D59" t="s">
+        <v>207</v>
+      </c>
+      <c r="E59">
+        <v>14.49443067790733</v>
+      </c>
+      <c r="F59">
+        <v>7.247215338953668</v>
+      </c>
+      <c r="G59">
+        <v>17680</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>17680</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60">
+        <v>42</v>
+      </c>
+      <c r="D60" t="s">
+        <v>207</v>
+      </c>
+      <c r="E60">
+        <v>13.86842440541752</v>
+      </c>
+      <c r="F60">
+        <v>7.324872045114887</v>
+      </c>
+      <c r="G60">
+        <v>27040</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>27040</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61">
+        <v>43</v>
+      </c>
+      <c r="D61" t="s">
+        <v>207</v>
+      </c>
+      <c r="E61">
+        <v>13.5535804018633</v>
+      </c>
+      <c r="F61">
+        <v>6.728146064677937</v>
+      </c>
+      <c r="G61">
+        <v>35360</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>35360</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62">
+        <v>38</v>
+      </c>
+      <c r="D62" t="s">
+        <v>208</v>
+      </c>
+      <c r="E62">
+        <v>14.12182045542907</v>
+      </c>
+      <c r="F62">
+        <v>11.89803623077191</v>
+      </c>
+      <c r="G62">
+        <v>17680</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>12546.56</v>
+      </c>
+      <c r="P62">
+        <v>5132.92</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63">
+        <v>39</v>
+      </c>
+      <c r="D63" t="s">
+        <v>208</v>
+      </c>
+      <c r="E63">
+        <v>13.95297818332817</v>
+      </c>
+      <c r="F63">
+        <v>17.08181619990862</v>
+      </c>
+      <c r="G63">
+        <v>57720</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>57720</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64">
+        <v>39</v>
+      </c>
+      <c r="D64" t="s">
+        <v>209</v>
+      </c>
+      <c r="E64">
+        <v>14.21043802440668</v>
+      </c>
+      <c r="F64">
+        <v>10.32536047962497</v>
+      </c>
+      <c r="G64">
+        <v>66560</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>66560</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65">
+        <v>44</v>
+      </c>
+      <c r="D65" t="s">
+        <v>210</v>
+      </c>
+      <c r="E65">
+        <v>14.11733600516099</v>
+      </c>
+      <c r="F65">
+        <v>12.45376439007096</v>
+      </c>
+      <c r="G65">
+        <v>24960</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>24960</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66">
+        <v>45</v>
+      </c>
+      <c r="D66" t="s">
+        <v>210</v>
+      </c>
+      <c r="E66">
+        <v>13.67905051023439</v>
+      </c>
+      <c r="F66">
+        <v>7.712195099090754</v>
+      </c>
+      <c r="G66">
+        <v>34840</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>34840</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>81</v>
+      </c>
+      <c r="C67">
+        <v>46</v>
+      </c>
+      <c r="D67" t="s">
+        <v>210</v>
+      </c>
+      <c r="E67">
+        <v>13.72046309033829</v>
+      </c>
+      <c r="F67">
+        <v>11.54658450490189</v>
+      </c>
+      <c r="G67">
+        <v>13520</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>13520</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68">
+        <v>10</v>
+      </c>
+      <c r="D68" t="s">
+        <v>211</v>
+      </c>
+      <c r="E68">
+        <v>13.02882117338475</v>
+      </c>
+      <c r="F68">
+        <v>10.4113064186005</v>
+      </c>
+      <c r="G68">
+        <v>42120</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>5124.08</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>2398.24</v>
+      </c>
+      <c r="L68">
+        <v>3181.36</v>
+      </c>
+      <c r="M68">
+        <v>9335.559999999999</v>
+      </c>
+      <c r="N68">
+        <v>22079.2</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>83</v>
+      </c>
+      <c r="C69">
+        <v>5</v>
+      </c>
+      <c r="D69" t="s">
+        <v>211</v>
+      </c>
+      <c r="E69">
+        <v>14.26399026469223</v>
+      </c>
+      <c r="F69">
+        <v>8.042198475114697</v>
+      </c>
+      <c r="G69">
+        <v>34320</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>34320</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
         <v>84</v>
       </c>
-      <c r="E36">
-        <v>13.55921170796885</v>
-      </c>
-      <c r="F36">
-        <v>11.67141360864979</v>
-      </c>
-      <c r="G36">
-        <v>67080</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>16849.56</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>26184.6</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <v>1029.08</v>
-      </c>
-      <c r="Q36">
-        <v>23015.72</v>
+      <c r="C70">
+        <v>46</v>
+      </c>
+      <c r="D70" t="s">
+        <v>212</v>
+      </c>
+      <c r="E70">
+        <v>13.84234929973149</v>
+      </c>
+      <c r="F70">
+        <v>9.857048998742954</v>
+      </c>
+      <c r="G70">
+        <v>70200</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>1094.08</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>51082.2</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>18022.68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71">
+        <v>48</v>
+      </c>
+      <c r="D71" t="s">
+        <v>213</v>
+      </c>
+      <c r="E71">
+        <v>13.32329798724385</v>
+      </c>
+      <c r="F71">
+        <v>11.15707315634226</v>
+      </c>
+      <c r="G71">
+        <v>71760</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>71760</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72">
+        <v>48</v>
+      </c>
+      <c r="D72" t="s">
+        <v>214</v>
+      </c>
+      <c r="E72">
+        <v>13.05857240593582</v>
+      </c>
+      <c r="F72">
+        <v>6.267107856856592</v>
+      </c>
+      <c r="G72">
+        <v>41080</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>41080</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>87</v>
+      </c>
+      <c r="C73">
+        <v>48</v>
+      </c>
+      <c r="D73" t="s">
+        <v>214</v>
+      </c>
+      <c r="E73">
+        <v>14.06000026552342</v>
+      </c>
+      <c r="F73">
+        <v>8.514796546817573</v>
+      </c>
+      <c r="G73">
+        <v>38480</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>38480</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74">
+        <v>45</v>
+      </c>
+      <c r="D74" t="s">
+        <v>215</v>
+      </c>
+      <c r="E74">
+        <v>13.0131688480468</v>
+      </c>
+      <c r="F74">
+        <v>6.754331649838051</v>
+      </c>
+      <c r="G74">
+        <v>25480</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>25480</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>89</v>
+      </c>
+      <c r="C75">
+        <v>46</v>
+      </c>
+      <c r="D75" t="s">
+        <v>215</v>
+      </c>
+      <c r="E75">
+        <v>14.97060766197304</v>
+      </c>
+      <c r="F75">
+        <v>12.88967926217039</v>
+      </c>
+      <c r="G75">
+        <v>50440</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>50440</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>90</v>
+      </c>
+      <c r="C76">
+        <v>47</v>
+      </c>
+      <c r="D76" t="s">
+        <v>216</v>
+      </c>
+      <c r="E76">
+        <v>14.5103953141455</v>
+      </c>
+      <c r="F76">
+        <v>10.81887806077603</v>
+      </c>
+      <c r="G76">
+        <v>19240</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>19240</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>91</v>
+      </c>
+      <c r="C77">
+        <v>48</v>
+      </c>
+      <c r="D77" t="s">
+        <v>216</v>
+      </c>
+      <c r="E77">
+        <v>13.05222022370047</v>
+      </c>
+      <c r="F77">
+        <v>5.147045147782118</v>
+      </c>
+      <c r="G77">
+        <v>60840</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>16627.52</v>
+      </c>
+      <c r="N77">
+        <v>44211.96</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>92</v>
+      </c>
+      <c r="C78">
+        <v>51</v>
+      </c>
+      <c r="D78" t="s">
+        <v>217</v>
+      </c>
+      <c r="E78">
+        <v>13.69394107008979</v>
+      </c>
+      <c r="F78">
+        <v>8.427914998933765</v>
+      </c>
+      <c r="G78">
+        <v>71760</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>60086.52</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>11672.96</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>93</v>
+      </c>
+      <c r="C79">
+        <v>53</v>
+      </c>
+      <c r="D79" t="s">
+        <v>218</v>
+      </c>
+      <c r="E79">
+        <v>13.19688596654504</v>
+      </c>
+      <c r="F79">
+        <v>6.418754742408296</v>
+      </c>
+      <c r="G79">
+        <v>50440</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>15784.6</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>28946.84</v>
+      </c>
+      <c r="M79">
+        <v>5707.52</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>94</v>
+      </c>
+      <c r="C80">
+        <v>50</v>
+      </c>
+      <c r="D80" t="s">
+        <v>218</v>
+      </c>
+      <c r="E80">
+        <v>14.16991353041798</v>
+      </c>
+      <c r="F80">
+        <v>11.58644589406094</v>
+      </c>
+      <c r="G80">
+        <v>26000</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>26000</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>95</v>
+      </c>
+      <c r="C81">
+        <v>52</v>
+      </c>
+      <c r="D81" t="s">
+        <v>219</v>
+      </c>
+      <c r="E81">
+        <v>14.00546093899347</v>
+      </c>
+      <c r="F81">
+        <v>9.85574974919386</v>
+      </c>
+      <c r="G81">
+        <v>17160</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>17160</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>96</v>
+      </c>
+      <c r="C82">
+        <v>54</v>
+      </c>
+      <c r="D82" t="s">
+        <v>219</v>
+      </c>
+      <c r="E82">
+        <v>13.65604046779617</v>
+      </c>
+      <c r="F82">
+        <v>5.591040336702279</v>
+      </c>
+      <c r="G82">
+        <v>59800</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>59800</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>97</v>
+      </c>
+      <c r="C83">
+        <v>55</v>
+      </c>
+      <c r="D83" t="s">
+        <v>220</v>
+      </c>
+      <c r="E83">
+        <v>13.20429226094761</v>
+      </c>
+      <c r="F83">
+        <v>6.305582431078832</v>
+      </c>
+      <c r="G83">
+        <v>73320</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>73320</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>98</v>
+      </c>
+      <c r="C84">
+        <v>55</v>
+      </c>
+      <c r="D84" t="s">
+        <v>221</v>
+      </c>
+      <c r="E84">
+        <v>13.02287836106771</v>
+      </c>
+      <c r="F84">
+        <v>6.77700790525255</v>
+      </c>
+      <c r="G84">
+        <v>75920</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>75920</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>99</v>
+      </c>
+      <c r="C85">
+        <v>10</v>
+      </c>
+      <c r="D85" t="s">
+        <v>222</v>
+      </c>
+      <c r="E85">
+        <v>13.25577487602155</v>
+      </c>
+      <c r="F85">
+        <v>9.998378000229081</v>
+      </c>
+      <c r="G85">
+        <v>45760</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>45760</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>100</v>
+      </c>
+      <c r="C86">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s">
+        <v>222</v>
+      </c>
+      <c r="E86">
+        <v>13.83194774880208</v>
+      </c>
+      <c r="F86">
+        <v>5.145322553681666</v>
+      </c>
+      <c r="G86">
+        <v>25480</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>17828.72</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>7650.76</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>101</v>
+      </c>
+      <c r="C87">
+        <v>54</v>
+      </c>
+      <c r="D87" t="s">
+        <v>223</v>
+      </c>
+      <c r="E87">
+        <v>13.34745310849029</v>
+      </c>
+      <c r="F87">
+        <v>12.05006639599462</v>
+      </c>
+      <c r="G87">
+        <v>75920</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>75920</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>102</v>
+      </c>
+      <c r="C88">
+        <v>52</v>
+      </c>
+      <c r="D88" t="s">
+        <v>224</v>
+      </c>
+      <c r="E88">
+        <v>13.21713655093894</v>
+      </c>
+      <c r="F88">
+        <v>11.79737361147223</v>
+      </c>
+      <c r="G88">
+        <v>18200</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>18200</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>103</v>
+      </c>
+      <c r="C89">
+        <v>55</v>
+      </c>
+      <c r="D89" t="s">
+        <v>224</v>
+      </c>
+      <c r="E89">
+        <v>13.61854671067582</v>
+      </c>
+      <c r="F89">
+        <v>10.29656022284543</v>
+      </c>
+      <c r="G89">
+        <v>44200</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>44200</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>104</v>
+      </c>
+      <c r="C90">
+        <v>54</v>
+      </c>
+      <c r="D90" t="s">
+        <v>224</v>
+      </c>
+      <c r="E90">
+        <v>14.29697275355179</v>
+      </c>
+      <c r="F90">
+        <v>7.582032681915951</v>
+      </c>
+      <c r="G90">
+        <v>16120</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>16120</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>105</v>
+      </c>
+      <c r="C91">
+        <v>54</v>
+      </c>
+      <c r="D91" t="s">
+        <v>225</v>
+      </c>
+      <c r="E91">
+        <v>13.01918185714807</v>
+      </c>
+      <c r="F91">
+        <v>12.57762242710137</v>
+      </c>
+      <c r="G91">
+        <v>30160</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>30160</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>106</v>
+      </c>
+      <c r="C92">
+        <v>55</v>
+      </c>
+      <c r="D92" t="s">
+        <v>225</v>
+      </c>
+      <c r="E92">
+        <v>13.09444102540675</v>
+      </c>
+      <c r="F92">
+        <v>10.01172091325535</v>
+      </c>
+      <c r="G92">
+        <v>33800</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>33800</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>107</v>
+      </c>
+      <c r="C93">
+        <v>56</v>
+      </c>
+      <c r="D93" t="s">
+        <v>226</v>
+      </c>
+      <c r="E93">
+        <v>13.12532967244471</v>
+      </c>
+      <c r="F93">
+        <v>14.29111406844464</v>
+      </c>
+      <c r="G93">
+        <v>69680</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>69680</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>108</v>
+      </c>
+      <c r="C94">
+        <v>55</v>
+      </c>
+      <c r="D94" t="s">
+        <v>227</v>
+      </c>
+      <c r="E94">
+        <v>14.20045811510243</v>
+      </c>
+      <c r="F94">
+        <v>6.54280873651636</v>
+      </c>
+      <c r="G94">
+        <v>23920</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>23920</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>109</v>
+      </c>
+      <c r="C95">
+        <v>57</v>
+      </c>
+      <c r="D95" t="s">
+        <v>227</v>
+      </c>
+      <c r="E95">
+        <v>13.78650996635141</v>
+      </c>
+      <c r="F95">
+        <v>13.15913066612812</v>
+      </c>
+      <c r="G95">
+        <v>52520</v>
+      </c>
+      <c r="H95">
+        <v>27334.32</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>25185.16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>110</v>
+      </c>
+      <c r="C96">
+        <v>58</v>
+      </c>
+      <c r="D96" t="s">
+        <v>228</v>
+      </c>
+      <c r="E96">
+        <v>13.02849326584524</v>
+      </c>
+      <c r="F96">
+        <v>8.265075283461666</v>
+      </c>
+      <c r="G96">
+        <v>74360</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>35076.6</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <v>39282.88</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>111</v>
+      </c>
+      <c r="C97">
+        <v>59</v>
+      </c>
+      <c r="D97" t="s">
+        <v>229</v>
+      </c>
+      <c r="E97">
+        <v>14.49876695243756</v>
+      </c>
+      <c r="F97">
+        <v>10.8872101065212</v>
+      </c>
+      <c r="G97">
+        <v>65000</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>65000</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>112</v>
+      </c>
+      <c r="C98">
+        <v>62</v>
+      </c>
+      <c r="D98" t="s">
+        <v>229</v>
+      </c>
+      <c r="E98">
+        <v>13.61963695330088</v>
+      </c>
+      <c r="F98">
+        <v>14.52028399938522</v>
+      </c>
+      <c r="G98">
+        <v>15600</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>15600</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>113</v>
+      </c>
+      <c r="C99">
+        <v>62</v>
+      </c>
+      <c r="D99" t="s">
+        <v>230</v>
+      </c>
+      <c r="E99">
+        <v>14.02983409058691</v>
+      </c>
+      <c r="F99">
+        <v>6.4367016005517</v>
+      </c>
+      <c r="G99">
+        <v>73320</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>34036.6</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+      <c r="P99">
+        <v>39282.88</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>114</v>
+      </c>
+      <c r="C100">
+        <v>65</v>
+      </c>
+      <c r="D100" t="s">
+        <v>231</v>
+      </c>
+      <c r="E100">
+        <v>13.57505577070284</v>
+      </c>
+      <c r="F100">
+        <v>6.606080864279216</v>
+      </c>
+      <c r="G100">
+        <v>14040</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>14040</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>115</v>
+      </c>
+      <c r="C101">
+        <v>64</v>
+      </c>
+      <c r="D101" t="s">
+        <v>231</v>
+      </c>
+      <c r="E101">
+        <v>13.75333645927919</v>
+      </c>
+      <c r="F101">
+        <v>7.825809146437463</v>
+      </c>
+      <c r="G101">
+        <v>63440</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>63440</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <v>0</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>116</v>
+      </c>
+      <c r="C102">
+        <v>65</v>
+      </c>
+      <c r="D102" t="s">
+        <v>232</v>
+      </c>
+      <c r="E102">
+        <v>13.81360313114674</v>
+      </c>
+      <c r="F102">
+        <v>6.981520781694235</v>
+      </c>
+      <c r="G102">
+        <v>68640</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>68640</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+      <c r="P102">
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>117</v>
+      </c>
+      <c r="C103">
+        <v>7</v>
+      </c>
+      <c r="D103" t="s">
+        <v>233</v>
+      </c>
+      <c r="E103">
+        <v>13.18189989737183</v>
+      </c>
+      <c r="F103">
+        <v>9.64150393978246</v>
+      </c>
+      <c r="G103">
+        <v>58240</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>58240</v>
+      </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
+      <c r="P103">
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>118</v>
+      </c>
+      <c r="C104">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s">
+        <v>233</v>
+      </c>
+      <c r="E104">
+        <v>13.27344063341472</v>
+      </c>
+      <c r="F104">
+        <v>8.936471093566178</v>
+      </c>
+      <c r="G104">
+        <v>22360</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>22360</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+      <c r="P104">
+        <v>0</v>
+      </c>
+      <c r="Q104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>119</v>
+      </c>
+      <c r="C105">
+        <v>59</v>
+      </c>
+      <c r="D105" t="s">
+        <v>234</v>
+      </c>
+      <c r="E105">
+        <v>14.34865748913091</v>
+      </c>
+      <c r="F105">
+        <v>6.08696902950612</v>
+      </c>
+      <c r="G105">
+        <v>43680</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>43680</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+      <c r="P105">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>120</v>
+      </c>
+      <c r="C106">
+        <v>67</v>
+      </c>
+      <c r="D106" t="s">
+        <v>234</v>
+      </c>
+      <c r="E106">
+        <v>13.58740074972149</v>
+      </c>
+      <c r="F106">
+        <v>7.117688416582397</v>
+      </c>
+      <c r="G106">
+        <v>32240</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>32240</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+      <c r="P106">
+        <v>0</v>
+      </c>
+      <c r="Q106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>121</v>
+      </c>
+      <c r="C107">
+        <v>61</v>
+      </c>
+      <c r="D107" t="s">
+        <v>235</v>
+      </c>
+      <c r="E107">
+        <v>14.29059120091117</v>
+      </c>
+      <c r="F107">
+        <v>7.934123733481762</v>
+      </c>
+      <c r="G107">
+        <v>52000</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>52000</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+      <c r="P107">
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>122</v>
+      </c>
+      <c r="C108">
+        <v>68</v>
+      </c>
+      <c r="D108" t="s">
+        <v>235</v>
+      </c>
+      <c r="E108">
+        <v>13.57482287804824</v>
+      </c>
+      <c r="F108">
+        <v>12.07066569039473</v>
+      </c>
+      <c r="G108">
+        <v>23400</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>23400</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+      <c r="P108">
+        <v>0</v>
+      </c>
+      <c r="Q108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>123</v>
+      </c>
+      <c r="C109">
+        <v>67</v>
+      </c>
+      <c r="D109" t="s">
+        <v>236</v>
+      </c>
+      <c r="E109">
+        <v>13.0500836572951</v>
+      </c>
+      <c r="F109">
+        <v>8.916320416188917</v>
+      </c>
+      <c r="G109">
+        <v>24440</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>24440</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="P109">
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>124</v>
+      </c>
+      <c r="C110">
+        <v>68</v>
+      </c>
+      <c r="D110" t="s">
+        <v>236</v>
+      </c>
+      <c r="E110">
+        <v>13.84884816686268</v>
+      </c>
+      <c r="F110">
+        <v>12.41550172973487</v>
+      </c>
+      <c r="G110">
+        <v>50440</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>50440</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+      <c r="P110">
+        <v>0</v>
+      </c>
+      <c r="Q110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>125</v>
+      </c>
+      <c r="C111">
+        <v>66</v>
+      </c>
+      <c r="D111" t="s">
+        <v>237</v>
+      </c>
+      <c r="E111">
+        <v>14.51178343090384</v>
+      </c>
+      <c r="F111">
+        <v>9.914867197043584</v>
+      </c>
+      <c r="G111">
+        <v>15600</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>15600</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+      <c r="P111">
+        <v>0</v>
+      </c>
+      <c r="Q111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>126</v>
+      </c>
+      <c r="C112">
+        <v>67</v>
+      </c>
+      <c r="D112" t="s">
+        <v>237</v>
+      </c>
+      <c r="E112">
+        <v>13.05222022370047</v>
+      </c>
+      <c r="F112">
+        <v>11.09686959960467</v>
+      </c>
+      <c r="G112">
+        <v>61880</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>31837.52</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+      <c r="P112">
+        <v>0</v>
+      </c>
+      <c r="Q112">
+        <v>30041.96</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>127</v>
+      </c>
+      <c r="C113">
+        <v>71</v>
+      </c>
+      <c r="D113" t="s">
+        <v>238</v>
+      </c>
+      <c r="E113">
+        <v>13.18208448255395</v>
+      </c>
+      <c r="F113">
+        <v>7.85324890382785</v>
+      </c>
+      <c r="G113">
+        <v>34320</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>34320</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
+      <c r="P113">
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>128</v>
+      </c>
+      <c r="C114">
+        <v>71</v>
+      </c>
+      <c r="D114" t="s">
+        <v>238</v>
+      </c>
+      <c r="E114">
+        <v>13.68177730998672</v>
+      </c>
+      <c r="F114">
+        <v>8.237340500683569</v>
+      </c>
+      <c r="G114">
+        <v>41080</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>41080</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="P114">
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>129</v>
+      </c>
+      <c r="C115">
+        <v>68</v>
+      </c>
+      <c r="D115" t="s">
+        <v>239</v>
+      </c>
+      <c r="E115">
+        <v>14.63712376026303</v>
+      </c>
+      <c r="F115">
+        <v>12.35356092849176</v>
+      </c>
+      <c r="G115">
+        <v>59800</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>59800</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>130</v>
+      </c>
+      <c r="C116">
+        <v>70</v>
+      </c>
+      <c r="D116" t="s">
+        <v>239</v>
+      </c>
+      <c r="E116">
+        <v>13.28523007886258</v>
+      </c>
+      <c r="F116">
+        <v>11.61726130073759</v>
+      </c>
+      <c r="G116">
+        <v>15080</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>15080</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+      <c r="P116">
+        <v>0</v>
+      </c>
+      <c r="Q116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>131</v>
+      </c>
+      <c r="C117">
+        <v>69</v>
+      </c>
+      <c r="D117" t="s">
+        <v>240</v>
+      </c>
+      <c r="E117">
+        <v>13.78650996635141</v>
+      </c>
+      <c r="F117">
+        <v>15.74861784812673</v>
+      </c>
+      <c r="G117">
+        <v>27560</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>27560</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+      <c r="P117">
+        <v>0</v>
+      </c>
+      <c r="Q117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>132</v>
+      </c>
+      <c r="C118">
+        <v>72</v>
+      </c>
+      <c r="D118" t="s">
+        <v>240</v>
+      </c>
+      <c r="E118">
+        <v>13.07645291943599</v>
+      </c>
+      <c r="F118">
+        <v>5.946713527437001</v>
+      </c>
+      <c r="G118">
+        <v>50960</v>
+      </c>
+      <c r="H118">
+        <v>9523.280000000001</v>
+      </c>
+      <c r="I118">
+        <v>34765.64</v>
+      </c>
+      <c r="J118">
+        <v>6670.04</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
+      <c r="P118">
+        <v>0</v>
+      </c>
+      <c r="Q118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>133</v>
+      </c>
+      <c r="C119">
+        <v>73</v>
+      </c>
+      <c r="D119" t="s">
+        <v>241</v>
+      </c>
+      <c r="E119">
+        <v>13.66417483349604</v>
+      </c>
+      <c r="F119">
+        <v>7.242054285529258</v>
+      </c>
+      <c r="G119">
+        <v>70720</v>
+      </c>
+      <c r="H119">
+        <v>231.92</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>70487.56</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119">
+        <v>0</v>
+      </c>
+      <c r="P119">
+        <v>0</v>
+      </c>
+      <c r="Q119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>134</v>
+      </c>
+      <c r="C120">
+        <v>71</v>
+      </c>
+      <c r="D120" t="s">
+        <v>242</v>
+      </c>
+      <c r="E120">
+        <v>13.70557501782716</v>
+      </c>
+      <c r="F120">
+        <v>6.838053972510873</v>
+      </c>
+      <c r="G120">
+        <v>69160</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>69160</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+      <c r="P120">
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>135</v>
+      </c>
+      <c r="C121">
+        <v>70</v>
+      </c>
+      <c r="D121" t="s">
+        <v>243</v>
+      </c>
+      <c r="E121">
+        <v>13.08107521205415</v>
+      </c>
+      <c r="F121">
+        <v>7.421935728910824</v>
+      </c>
+      <c r="G121">
+        <v>44720</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <v>0</v>
+      </c>
+      <c r="P121">
+        <v>44720</v>
+      </c>
+      <c r="Q121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>136</v>
+      </c>
+      <c r="C122">
+        <v>71</v>
+      </c>
+      <c r="D122" t="s">
+        <v>243</v>
+      </c>
+      <c r="E122">
+        <v>13.1656144947945</v>
+      </c>
+      <c r="F122">
+        <v>8.753345037788073</v>
+      </c>
+      <c r="G122">
+        <v>34840</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>34840</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
+      </c>
+      <c r="P122">
+        <v>0</v>
+      </c>
+      <c r="Q122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>137</v>
+      </c>
+      <c r="C123">
+        <v>10</v>
+      </c>
+      <c r="D123" t="s">
+        <v>244</v>
+      </c>
+      <c r="E123">
+        <v>13.69128442603081</v>
+      </c>
+      <c r="F123">
+        <v>14.83166878660188</v>
+      </c>
+      <c r="G123">
+        <v>47320</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>35802.52</v>
+      </c>
+      <c r="L123">
+        <v>11516.96</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123">
+        <v>0</v>
+      </c>
+      <c r="P123">
+        <v>0</v>
+      </c>
+      <c r="Q123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>138</v>
+      </c>
+      <c r="C124">
+        <v>13</v>
+      </c>
+      <c r="D124" t="s">
+        <v>244</v>
+      </c>
+      <c r="E124">
+        <v>13.82069163216977</v>
+      </c>
+      <c r="F124">
+        <v>8.726598241544256</v>
+      </c>
+      <c r="G124">
+        <v>31200</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>31200</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+      <c r="O124">
+        <v>0</v>
+      </c>
+      <c r="P124">
+        <v>0</v>
+      </c>
+      <c r="Q124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>139</v>
+      </c>
+      <c r="C125">
+        <v>72</v>
+      </c>
+      <c r="D125" t="s">
+        <v>245</v>
+      </c>
+      <c r="E125">
+        <v>13.14001779516502</v>
+      </c>
+      <c r="F125">
+        <v>7.449134758012819</v>
+      </c>
+      <c r="G125">
+        <v>77480</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>47437.52</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+      <c r="O125">
+        <v>0</v>
+      </c>
+      <c r="P125">
+        <v>0</v>
+      </c>
+      <c r="Q125">
+        <v>30041.96</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>140</v>
+      </c>
+      <c r="C126">
+        <v>73</v>
+      </c>
+      <c r="D126" t="s">
+        <v>246</v>
+      </c>
+      <c r="E126">
+        <v>13.99232155792277</v>
+      </c>
+      <c r="F126">
+        <v>8.355583710766881</v>
+      </c>
+      <c r="G126">
+        <v>17680</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+      <c r="O126">
+        <v>0</v>
+      </c>
+      <c r="P126">
+        <v>17680</v>
+      </c>
+      <c r="Q126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>141</v>
+      </c>
+      <c r="C127">
+        <v>75</v>
+      </c>
+      <c r="D127" t="s">
+        <v>246</v>
+      </c>
+      <c r="E127">
+        <v>13.58313412807144</v>
+      </c>
+      <c r="F127">
+        <v>12.07518858583386</v>
+      </c>
+      <c r="G127">
+        <v>60840</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>60840</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+      <c r="O127">
+        <v>0</v>
+      </c>
+      <c r="P127">
+        <v>0</v>
+      </c>
+      <c r="Q127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>142</v>
+      </c>
+      <c r="C128">
+        <v>74</v>
+      </c>
+      <c r="D128" t="s">
+        <v>247</v>
+      </c>
+      <c r="E128">
+        <v>13.10970574760042</v>
+      </c>
+      <c r="F128">
+        <v>7.323968405920642</v>
+      </c>
+      <c r="G128">
+        <v>73320</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>73320</v>
+      </c>
+      <c r="O128">
+        <v>0</v>
+      </c>
+      <c r="P128">
+        <v>0</v>
+      </c>
+      <c r="Q128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>143</v>
+      </c>
+      <c r="C129">
+        <v>74</v>
+      </c>
+      <c r="D129" t="s">
+        <v>248</v>
+      </c>
+      <c r="E129">
+        <v>14.74109538642761</v>
+      </c>
+      <c r="F129">
+        <v>12.75038942464442</v>
+      </c>
+      <c r="G129">
+        <v>24440</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>24440</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+      <c r="O129">
+        <v>0</v>
+      </c>
+      <c r="P129">
+        <v>0</v>
+      </c>
+      <c r="Q129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>144</v>
+      </c>
+      <c r="C130">
+        <v>75</v>
+      </c>
+      <c r="D130" t="s">
+        <v>248</v>
+      </c>
+      <c r="E130">
+        <v>13.1656144947945</v>
+      </c>
+      <c r="F130">
+        <v>7.763829486029802</v>
+      </c>
+      <c r="G130">
+        <v>56680</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>56680</v>
+      </c>
+      <c r="O130">
+        <v>0</v>
+      </c>
+      <c r="P130">
+        <v>0</v>
+      </c>
+      <c r="Q130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>145</v>
+      </c>
+      <c r="C131">
+        <v>76</v>
+      </c>
+      <c r="D131" t="s">
+        <v>249</v>
+      </c>
+      <c r="E131">
+        <v>13.03723729226749</v>
+      </c>
+      <c r="F131">
+        <v>5.156844663260864</v>
+      </c>
+      <c r="G131">
+        <v>32760</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>32760</v>
+      </c>
+      <c r="O131">
+        <v>0</v>
+      </c>
+      <c r="P131">
+        <v>0</v>
+      </c>
+      <c r="Q131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>146</v>
+      </c>
+      <c r="C132">
+        <v>79</v>
+      </c>
+      <c r="D132" t="s">
+        <v>249</v>
+      </c>
+      <c r="E132">
+        <v>14.01299854929125</v>
+      </c>
+      <c r="F132">
+        <v>7.049322969261027</v>
+      </c>
+      <c r="G132">
+        <v>48360</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>6670.04</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>41689.44</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+      <c r="O132">
+        <v>0</v>
+      </c>
+      <c r="P132">
+        <v>0</v>
+      </c>
+      <c r="Q132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>147</v>
+      </c>
+      <c r="C133">
+        <v>77</v>
+      </c>
+      <c r="D133" t="s">
+        <v>250</v>
+      </c>
+      <c r="E133">
+        <v>13.07946251282704</v>
+      </c>
+      <c r="F133">
+        <v>10.80598858284115</v>
+      </c>
+      <c r="G133">
+        <v>46800</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>1384.24</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>45415.24</v>
+      </c>
+      <c r="O133">
+        <v>0</v>
+      </c>
+      <c r="P133">
+        <v>0</v>
+      </c>
+      <c r="Q133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>148</v>
+      </c>
+      <c r="C134">
+        <v>75</v>
+      </c>
+      <c r="D134" t="s">
+        <v>250</v>
+      </c>
+      <c r="E134">
+        <v>13.18734010001135</v>
+      </c>
+      <c r="F134">
+        <v>7.719948599680163</v>
+      </c>
+      <c r="G134">
+        <v>17680</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>17680</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+      <c r="O134">
+        <v>0</v>
+      </c>
+      <c r="P134">
+        <v>0</v>
+      </c>
+      <c r="Q134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>149</v>
+      </c>
+      <c r="C135">
+        <v>78</v>
+      </c>
+      <c r="D135" t="s">
+        <v>251</v>
+      </c>
+      <c r="E135">
+        <v>13.14799617192613</v>
+      </c>
+      <c r="F135">
+        <v>5.576120367025722</v>
+      </c>
+      <c r="G135">
+        <v>25480</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>25480</v>
+      </c>
+      <c r="O135">
+        <v>0</v>
+      </c>
+      <c r="P135">
+        <v>0</v>
+      </c>
+      <c r="Q135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>150</v>
+      </c>
+      <c r="C136">
+        <v>79</v>
+      </c>
+      <c r="D136" t="s">
+        <v>251</v>
+      </c>
+      <c r="E136">
+        <v>13.91053185804866</v>
+      </c>
+      <c r="F136">
+        <v>8.727398621786818</v>
+      </c>
+      <c r="G136">
+        <v>53040</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>53040</v>
+      </c>
+      <c r="O136">
+        <v>0</v>
+      </c>
+      <c r="P136">
+        <v>0</v>
+      </c>
+      <c r="Q136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>151</v>
+      </c>
+      <c r="C137">
+        <v>77</v>
+      </c>
+      <c r="D137" t="s">
+        <v>252</v>
+      </c>
+      <c r="E137">
+        <v>14.34786804302995</v>
+      </c>
+      <c r="F137">
+        <v>9.214623334327737</v>
+      </c>
+      <c r="G137">
+        <v>73840</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>73840</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+      <c r="O137">
+        <v>0</v>
+      </c>
+      <c r="P137">
+        <v>0</v>
+      </c>
+      <c r="Q137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>152</v>
+      </c>
+      <c r="C138">
+        <v>81</v>
+      </c>
+      <c r="D138" t="s">
+        <v>253</v>
+      </c>
+      <c r="E138">
+        <v>14.51178343090384</v>
+      </c>
+      <c r="F138">
+        <v>7.161817773599989</v>
+      </c>
+      <c r="G138">
+        <v>22360</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>22360</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+      <c r="O138">
+        <v>0</v>
+      </c>
+      <c r="P138">
+        <v>0</v>
+      </c>
+      <c r="Q138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>153</v>
+      </c>
+      <c r="C139">
+        <v>79</v>
+      </c>
+      <c r="D139" t="s">
+        <v>253</v>
+      </c>
+      <c r="E139">
+        <v>13.18315732238485</v>
+      </c>
+      <c r="F139">
+        <v>6.240633024275946</v>
+      </c>
+      <c r="G139">
+        <v>57720</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>57720</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+      <c r="O139">
+        <v>0</v>
+      </c>
+      <c r="P139">
+        <v>0</v>
+      </c>
+      <c r="Q139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>154</v>
+      </c>
+      <c r="C140">
+        <v>77</v>
+      </c>
+      <c r="D140" t="s">
+        <v>254</v>
+      </c>
+      <c r="E140">
+        <v>14.11567343986078</v>
+      </c>
+      <c r="F140">
+        <v>10.4788576308871</v>
+      </c>
+      <c r="G140">
+        <v>75920</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>75920</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+      <c r="O140">
+        <v>0</v>
+      </c>
+      <c r="P140">
+        <v>0</v>
+      </c>
+      <c r="Q140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>155</v>
+      </c>
+      <c r="C141">
+        <v>12</v>
+      </c>
+      <c r="D141" t="s">
+        <v>255</v>
+      </c>
+      <c r="E141">
+        <v>13.39744520092676</v>
+      </c>
+      <c r="F141">
+        <v>5.882528644925837</v>
+      </c>
+      <c r="G141">
+        <v>65520</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>65520</v>
+      </c>
+      <c r="O141">
+        <v>0</v>
+      </c>
+      <c r="P141">
+        <v>0</v>
+      </c>
+      <c r="Q141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>156</v>
+      </c>
+      <c r="C142">
+        <v>13</v>
+      </c>
+      <c r="D142" t="s">
+        <v>255</v>
+      </c>
+      <c r="E142">
+        <v>13.27344063341472</v>
+      </c>
+      <c r="F142">
+        <v>6.851240913955102</v>
+      </c>
+      <c r="G142">
+        <v>15080</v>
+      </c>
+      <c r="H142">
+        <v>2532.92</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+      <c r="O142">
+        <v>12546.56</v>
+      </c>
+      <c r="P142">
+        <v>0</v>
+      </c>
+      <c r="Q142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>157</v>
+      </c>
+      <c r="C143">
+        <v>79</v>
+      </c>
+      <c r="D143" t="s">
+        <v>256</v>
+      </c>
+      <c r="E143">
+        <v>14.43096213818086</v>
+      </c>
+      <c r="F143">
+        <v>6.049156144846323</v>
+      </c>
+      <c r="G143">
+        <v>47840</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>47840</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+      <c r="O143">
+        <v>0</v>
+      </c>
+      <c r="P143">
+        <v>0</v>
+      </c>
+      <c r="Q143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>158</v>
+      </c>
+      <c r="C144">
+        <v>80</v>
+      </c>
+      <c r="D144" t="s">
+        <v>256</v>
+      </c>
+      <c r="E144">
+        <v>13.3221506455596</v>
+      </c>
+      <c r="F144">
+        <v>7.654546192109419</v>
+      </c>
+      <c r="G144">
+        <v>28600</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>28600</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+      <c r="O144">
+        <v>0</v>
+      </c>
+      <c r="P144">
+        <v>0</v>
+      </c>
+      <c r="Q144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>159</v>
+      </c>
+      <c r="C145">
+        <v>82</v>
+      </c>
+      <c r="D145" t="s">
+        <v>257</v>
+      </c>
+      <c r="E145">
+        <v>14.09804063341472</v>
+      </c>
+      <c r="F145">
+        <v>8.207782043939753</v>
+      </c>
+      <c r="G145">
+        <v>49920</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+      <c r="O145">
+        <v>0</v>
+      </c>
+      <c r="P145">
+        <v>0</v>
+      </c>
+      <c r="Q145">
+        <v>49920</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>160</v>
+      </c>
+      <c r="C146">
+        <v>85</v>
+      </c>
+      <c r="D146" t="s">
+        <v>257</v>
+      </c>
+      <c r="E146">
+        <v>14.81596513115461</v>
+      </c>
+      <c r="F146">
+        <v>5.797892224777587</v>
+      </c>
+      <c r="G146">
+        <v>28600</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>28600</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>0</v>
+      </c>
+      <c r="O146">
+        <v>0</v>
+      </c>
+      <c r="P146">
+        <v>0</v>
+      </c>
+      <c r="Q146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>161</v>
+      </c>
+      <c r="C147">
+        <v>80</v>
+      </c>
+      <c r="D147" t="s">
+        <v>258</v>
+      </c>
+      <c r="E147">
+        <v>14.0860705922011</v>
+      </c>
+      <c r="F147">
+        <v>10.69628142241526</v>
+      </c>
+      <c r="G147">
+        <v>61880</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>61880</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+      <c r="O147">
+        <v>0</v>
+      </c>
+      <c r="P147">
+        <v>0</v>
+      </c>
+      <c r="Q147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>162</v>
+      </c>
+      <c r="C148">
+        <v>78</v>
+      </c>
+      <c r="D148" t="s">
+        <v>259</v>
+      </c>
+      <c r="E148">
+        <v>14.20244515805268</v>
+      </c>
+      <c r="F148">
+        <v>15.21792858050723</v>
+      </c>
+      <c r="G148">
+        <v>61880</v>
+      </c>
+      <c r="H148">
+        <v>9847.76</v>
+      </c>
+      <c r="I148">
+        <v>6968.52</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>0</v>
+      </c>
+      <c r="O148">
+        <v>0</v>
+      </c>
+      <c r="P148">
+        <v>0</v>
+      </c>
+      <c r="Q148">
+        <v>45062.68</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>163</v>
+      </c>
+      <c r="C149">
+        <v>83</v>
+      </c>
+      <c r="D149" t="s">
+        <v>260</v>
+      </c>
+      <c r="E149">
+        <v>14.37008266267653</v>
+      </c>
+      <c r="F149">
+        <v>7.687826637116403</v>
+      </c>
+      <c r="G149">
+        <v>34320</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>34320</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+      <c r="O149">
+        <v>0</v>
+      </c>
+      <c r="P149">
+        <v>0</v>
+      </c>
+      <c r="Q149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>164</v>
+      </c>
+      <c r="C150">
+        <v>81</v>
+      </c>
+      <c r="D150" t="s">
+        <v>260</v>
+      </c>
+      <c r="E150">
+        <v>13.02849326584524</v>
+      </c>
+      <c r="F150">
+        <v>11.12566172469312</v>
+      </c>
+      <c r="G150">
+        <v>38480</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>38480</v>
+      </c>
+      <c r="O150">
+        <v>0</v>
+      </c>
+      <c r="P150">
+        <v>0</v>
+      </c>
+      <c r="Q150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>165</v>
+      </c>
+      <c r="C151">
+        <v>83</v>
+      </c>
+      <c r="D151" t="s">
+        <v>261</v>
+      </c>
+      <c r="E151">
+        <v>14.43897008384628</v>
+      </c>
+      <c r="F151">
+        <v>6.192778145669208</v>
+      </c>
+      <c r="G151">
+        <v>53040</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>53040</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+      <c r="O151">
+        <v>0</v>
+      </c>
+      <c r="P151">
+        <v>0</v>
+      </c>
+      <c r="Q151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>166</v>
+      </c>
+      <c r="C152">
+        <v>84</v>
+      </c>
+      <c r="D152" t="s">
+        <v>261</v>
+      </c>
+      <c r="E152">
+        <v>13.13615944206449</v>
+      </c>
+      <c r="F152">
+        <v>8.562262328645637</v>
+      </c>
+      <c r="G152">
+        <v>26000</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>26000</v>
+      </c>
+      <c r="O152">
+        <v>0</v>
+      </c>
+      <c r="P152">
+        <v>0</v>
+      </c>
+      <c r="Q152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>167</v>
+      </c>
+      <c r="C153">
+        <v>85</v>
+      </c>
+      <c r="D153" t="s">
+        <v>262</v>
+      </c>
+      <c r="E153">
+        <v>14.2559142291142</v>
+      </c>
+      <c r="F153">
+        <v>6.444759160107226</v>
+      </c>
+      <c r="G153">
+        <v>43680</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <v>43680</v>
+      </c>
+      <c r="O153">
+        <v>0</v>
+      </c>
+      <c r="P153">
+        <v>0</v>
+      </c>
+      <c r="Q153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>168</v>
+      </c>
+      <c r="C154">
+        <v>85</v>
+      </c>
+      <c r="D154" t="s">
+        <v>263</v>
+      </c>
+      <c r="E154">
+        <v>13.28317679854132</v>
+      </c>
+      <c r="F154">
+        <v>8.340477054500402</v>
+      </c>
+      <c r="G154">
+        <v>61360</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <v>61360</v>
+      </c>
+      <c r="O154">
+        <v>0</v>
+      </c>
+      <c r="P154">
+        <v>0</v>
+      </c>
+      <c r="Q154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>169</v>
+      </c>
+      <c r="C155">
+        <v>15</v>
+      </c>
+      <c r="D155" t="s">
+        <v>264</v>
+      </c>
+      <c r="E155">
+        <v>13.93381384050642</v>
+      </c>
+      <c r="F155">
+        <v>8.335164505227452</v>
+      </c>
+      <c r="G155">
+        <v>62400</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>26715.52</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <v>0</v>
+      </c>
+      <c r="O155">
+        <v>0</v>
+      </c>
+      <c r="P155">
+        <v>35683.96</v>
+      </c>
+      <c r="Q155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>170</v>
+      </c>
+      <c r="C156">
+        <v>10</v>
+      </c>
+      <c r="D156" t="s">
+        <v>264</v>
+      </c>
+      <c r="E156">
+        <v>13.22542094696226</v>
+      </c>
+      <c r="F156">
+        <v>7.816289597608395</v>
+      </c>
+      <c r="G156">
+        <v>18720</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>2147.08</v>
+      </c>
+      <c r="J156">
+        <v>2367.56</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="N156">
+        <v>0</v>
+      </c>
+      <c r="O156">
+        <v>0</v>
+      </c>
+      <c r="P156">
+        <v>14204.32</v>
+      </c>
+      <c r="Q156">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/resultados_lotes.xlsx
+++ b/docs/resultados_lotes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="287">
   <si>
     <t>Lote</t>
   </si>
@@ -67,7 +67,7 @@
     <t>J_6-5-146</t>
   </si>
   <si>
-    <t>J_2-5-133</t>
+    <t>J_8-4-148</t>
   </si>
   <si>
     <t>J_6-2-138</t>
@@ -82,453 +82,507 @@
     <t>J_8-1-58</t>
   </si>
   <si>
-    <t>J_8-4-148</t>
-  </si>
-  <si>
-    <t>J_4-3-118</t>
+    <t>J_6-2-45</t>
+  </si>
+  <si>
+    <t>J_6-5-110</t>
+  </si>
+  <si>
+    <t>J_1-5-143</t>
+  </si>
+  <si>
+    <t>J_1-10-91</t>
+  </si>
+  <si>
+    <t>J_3-16-62</t>
+  </si>
+  <si>
+    <t>J_2-16-44</t>
+  </si>
+  <si>
+    <t>J_6-15-110</t>
+  </si>
+  <si>
+    <t>J_5-15-66</t>
+  </si>
+  <si>
+    <t>J_6-10-81</t>
+  </si>
+  <si>
+    <t>J_7-17-136</t>
+  </si>
+  <si>
+    <t>J_1-11-39</t>
+  </si>
+  <si>
+    <t>J_3-21-117</t>
+  </si>
+  <si>
+    <t>J_2-18-41</t>
+  </si>
+  <si>
+    <t>J_3-22-52</t>
+  </si>
+  <si>
+    <t>J_7-19-63</t>
+  </si>
+  <si>
+    <t>J_3-22-74</t>
+  </si>
+  <si>
+    <t>J_5-16-82</t>
+  </si>
+  <si>
+    <t>J_5-18-133</t>
+  </si>
+  <si>
+    <t>J_1-23-122</t>
+  </si>
+  <si>
+    <t>J_7-18-29</t>
+  </si>
+  <si>
+    <t>J_1-22-99</t>
+  </si>
+  <si>
+    <t>J_2-26-51</t>
+  </si>
+  <si>
+    <t>J_2-7-70</t>
+  </si>
+  <si>
+    <t>J_3-9-82</t>
+  </si>
+  <si>
+    <t>J_1-20-58</t>
+  </si>
+  <si>
+    <t>J_4-22-95</t>
+  </si>
+  <si>
+    <t>J_2-19-41</t>
+  </si>
+  <si>
+    <t>J_2-27-114</t>
+  </si>
+  <si>
+    <t>J_1-24-99</t>
+  </si>
+  <si>
+    <t>J_6-24-57</t>
+  </si>
+  <si>
+    <t>J_2-26-145</t>
+  </si>
+  <si>
+    <t>J_1-26-87</t>
+  </si>
+  <si>
+    <t>J_2-23-28</t>
+  </si>
+  <si>
+    <t>J_2-27-35</t>
+  </si>
+  <si>
+    <t>J_1-25-109</t>
+  </si>
+  <si>
+    <t>J_1-29-44</t>
+  </si>
+  <si>
+    <t>J_3-30-99</t>
+  </si>
+  <si>
+    <t>J_4-27-54</t>
+  </si>
+  <si>
+    <t>J_1-32-146</t>
+  </si>
+  <si>
+    <t>J_2-35-40</t>
+  </si>
+  <si>
+    <t>J_3-31-115</t>
+  </si>
+  <si>
+    <t>J_2-34-78</t>
+  </si>
+  <si>
+    <t>J_8-34-77</t>
+  </si>
+  <si>
+    <t>J_5-6-122</t>
   </si>
   <si>
     <t>J_7-4-29</t>
   </si>
   <si>
+    <t>J_2-32-103</t>
+  </si>
+  <si>
+    <t>J_2-37-51</t>
+  </si>
+  <si>
+    <t>J_2-31-43</t>
+  </si>
+  <si>
+    <t>J_3-38-111</t>
+  </si>
+  <si>
+    <t>J_1-34-50</t>
+  </si>
+  <si>
+    <t>J_6-34-50</t>
+  </si>
+  <si>
+    <t>J_7-39-56</t>
+  </si>
+  <si>
+    <t>J_5-36-53</t>
+  </si>
+  <si>
+    <t>J_6-37-100</t>
+  </si>
+  <si>
+    <t>J_7-40-147</t>
+  </si>
+  <si>
+    <t>J_1-39-111</t>
+  </si>
+  <si>
+    <t>J_4-36-38</t>
+  </si>
+  <si>
+    <t>J_2-39-34</t>
+  </si>
+  <si>
+    <t>J_4-36-53</t>
+  </si>
+  <si>
+    <t>J_7-43-68</t>
+  </si>
+  <si>
+    <t>J_2-42-52</t>
+  </si>
+  <si>
+    <t>J_7-41-104</t>
+  </si>
+  <si>
+    <t>J_1-38-34</t>
+  </si>
+  <si>
+    <t>J_3-44-48</t>
+  </si>
+  <si>
+    <t>J_5-41-74</t>
+  </si>
+  <si>
+    <t>J_6-39-128</t>
+  </si>
+  <si>
+    <t>J_8-46-26</t>
+  </si>
+  <si>
+    <t>J_4-3-40</t>
+  </si>
+  <si>
+    <t>J_5-7-112</t>
+  </si>
+  <si>
+    <t>J_2-46-135</t>
+  </si>
+  <si>
+    <t>J_3-48-138</t>
+  </si>
+  <si>
+    <t>J_6-48-79</t>
+  </si>
+  <si>
+    <t>J_8-48-74</t>
+  </si>
+  <si>
+    <t>J_4-45-49</t>
+  </si>
+  <si>
+    <t>J_8-46-97</t>
+  </si>
+  <si>
+    <t>J_3-47-37</t>
+  </si>
+  <si>
+    <t>J_5-48-117</t>
+  </si>
+  <si>
+    <t>J_3-51-138</t>
+  </si>
+  <si>
+    <t>J_3-53-97</t>
+  </si>
+  <si>
+    <t>J_6-50-57</t>
+  </si>
+  <si>
+    <t>J_3-52-33</t>
+  </si>
+  <si>
+    <t>J_8-54-115</t>
+  </si>
+  <si>
+    <t>J_3-55-141</t>
+  </si>
+  <si>
+    <t>J_6-55-146</t>
+  </si>
+  <si>
+    <t>J_6-10-88</t>
+  </si>
+  <si>
+    <t>J_6-5-66</t>
+  </si>
+  <si>
+    <t>J_1-55-46</t>
+  </si>
+  <si>
+    <t>J_8-57-109</t>
+  </si>
+  <si>
+    <t>J_1-54-146</t>
+  </si>
+  <si>
+    <t>J_5-55-65</t>
+  </si>
+  <si>
+    <t>J_6-55-85</t>
+  </si>
+  <si>
+    <t>J_6-57-101</t>
+  </si>
+  <si>
+    <t>J_7-50-50</t>
+  </si>
+  <si>
+    <t>J_2-59-125</t>
+  </si>
+  <si>
+    <t>J_7-54-31</t>
+  </si>
+  <si>
+    <t>J_2-60-63</t>
+  </si>
+  <si>
+    <t>J_4-54-58</t>
+  </si>
+  <si>
+    <t>J_5-52-35</t>
+  </si>
+  <si>
+    <t>J_5-58-143</t>
+  </si>
+  <si>
+    <t>J_1-59-84</t>
+  </si>
+  <si>
+    <t>J_7-63-61</t>
+  </si>
+  <si>
+    <t>J_7-62-141</t>
+  </si>
+  <si>
+    <t>J_5-56-134</t>
+  </si>
+  <si>
+    <t>J_6-11-43</t>
+  </si>
+  <si>
+    <t>J_7-11-49</t>
+  </si>
+  <si>
+    <t>J_7-13-60</t>
+  </si>
+  <si>
+    <t>J_3-62-30</t>
+  </si>
+  <si>
+    <t>J_7-64-122</t>
+  </si>
+  <si>
+    <t>J_3-59-37</t>
+  </si>
+  <si>
+    <t>J_3-68-115</t>
+  </si>
+  <si>
+    <t>J_1-61-100</t>
+  </si>
+  <si>
+    <t>J_1-67-47</t>
+  </si>
+  <si>
+    <t>J_2-66-30</t>
+  </si>
+  <si>
+    <t>J_5-67-119</t>
+  </si>
+  <si>
+    <t>J_6-69-53</t>
+  </si>
+  <si>
+    <t>J_7-68-97</t>
+  </si>
+  <si>
+    <t>J_5-68-114</t>
+  </si>
+  <si>
+    <t>J_6-70-29</t>
+  </si>
+  <si>
+    <t>J_5-69-31</t>
+  </si>
+  <si>
+    <t>J_8-68-45</t>
+  </si>
+  <si>
+    <t>J_8-71-79</t>
+  </si>
+  <si>
+    <t>J_1-71-133</t>
+  </si>
+  <si>
+    <t>J_3-73-136</t>
+  </si>
+  <si>
+    <t>J_4-70-86</t>
+  </si>
+  <si>
+    <t>J_5-71-67</t>
+  </si>
+  <si>
+    <t>J_1-12-126</t>
+  </si>
+  <si>
+    <t>J_3-9-27</t>
+  </si>
+  <si>
+    <t>J_4-72-149</t>
+  </si>
+  <si>
+    <t>J_1-73-34</t>
+  </si>
+  <si>
+    <t>J_6-75-117</t>
+  </si>
+  <si>
+    <t>J_7-67-62</t>
+  </si>
+  <si>
+    <t>J_7-79-93</t>
+  </si>
+  <si>
+    <t>J_4-74-141</t>
+  </si>
+  <si>
+    <t>J_2-74-47</t>
+  </si>
+  <si>
+    <t>J_5-75-109</t>
+  </si>
+  <si>
+    <t>J_3-71-66</t>
+  </si>
+  <si>
+    <t>J_4-77-90</t>
+  </si>
+  <si>
+    <t>J_4-76-63</t>
+  </si>
+  <si>
+    <t>J_4-77-92</t>
+  </si>
+  <si>
+    <t>J_4-79-111</t>
+  </si>
+  <si>
+    <t>J_5-75-41</t>
+  </si>
+  <si>
+    <t>J_5-75-34</t>
+  </si>
+  <si>
+    <t>J_6-80-119</t>
+  </si>
+  <si>
+    <t>J_6-75-32</t>
+  </si>
+  <si>
+    <t>J_8-76-123</t>
+  </si>
+  <si>
+    <t>J_2-15-120</t>
+  </si>
+  <si>
+    <t>J_4-10-36</t>
+  </si>
+  <si>
+    <t>J_1-77-142</t>
+  </si>
+  <si>
+    <t>J_5-78-49</t>
+  </si>
+  <si>
+    <t>J_6-79-102</t>
+  </si>
+  <si>
+    <t>J_6-77-146</t>
+  </si>
+  <si>
+    <t>J_5-81-74</t>
+  </si>
+  <si>
+    <t>J_8-78-69</t>
+  </si>
+  <si>
+    <t>J_1-79-92</t>
+  </si>
+  <si>
+    <t>J_4-80-55</t>
+  </si>
+  <si>
+    <t>J_7-78-119</t>
+  </si>
+  <si>
+    <t>J_6-81-130</t>
+  </si>
+  <si>
+    <t>J_5-84-50</t>
+  </si>
+  <si>
+    <t>J_6-82-96</t>
+  </si>
+  <si>
+    <t>J_1-83-102</t>
+  </si>
+  <si>
+    <t>J_2-81-43</t>
+  </si>
+  <si>
+    <t>J_4-85-118</t>
+  </si>
+  <si>
     <t>J_7-16-129</t>
   </si>
   <si>
-    <t>J_8-17-130</t>
-  </si>
-  <si>
-    <t>J_7-17-136</t>
-  </si>
-  <si>
-    <t>J_1-11-39</t>
-  </si>
-  <si>
-    <t>J_2-16-44</t>
-  </si>
-  <si>
-    <t>J_3-16-62</t>
-  </si>
-  <si>
-    <t>J_5-18-133</t>
-  </si>
-  <si>
-    <t>J_6-20-78</t>
-  </si>
-  <si>
-    <t>J_7-19-63</t>
-  </si>
-  <si>
-    <t>J_1-20-58</t>
-  </si>
-  <si>
-    <t>J_5-16-82</t>
-  </si>
-  <si>
-    <t>J_2-18-41</t>
-  </si>
-  <si>
-    <t>J_2-19-41</t>
-  </si>
-  <si>
-    <t>J_3-22-74</t>
-  </si>
-  <si>
-    <t>J_1-23-122</t>
-  </si>
-  <si>
-    <t>J_2-23-28</t>
-  </si>
-  <si>
-    <t>J_1-22-99</t>
-  </si>
-  <si>
-    <t>J_2-26-51</t>
-  </si>
-  <si>
-    <t>J_3-9-27</t>
-  </si>
-  <si>
-    <t>J_6-8-118</t>
-  </si>
-  <si>
-    <t>J_3-22-52</t>
-  </si>
-  <si>
-    <t>J_5-23-104</t>
-  </si>
-  <si>
-    <t>J_2-27-35</t>
-  </si>
-  <si>
-    <t>J_4-22-95</t>
-  </si>
-  <si>
-    <t>J_2-26-145</t>
-  </si>
-  <si>
-    <t>J_1-24-99</t>
-  </si>
-  <si>
-    <t>J_6-24-57</t>
-  </si>
-  <si>
-    <t>J_1-25-109</t>
-  </si>
-  <si>
-    <t>J_1-29-44</t>
-  </si>
-  <si>
-    <t>J_2-31-130</t>
-  </si>
-  <si>
-    <t>J_1-26-87</t>
-  </si>
-  <si>
-    <t>J_4-27-54</t>
-  </si>
-  <si>
-    <t>J_5-30-134</t>
-  </si>
-  <si>
-    <t>J_1-32-146</t>
-  </si>
-  <si>
-    <t>J_3-30-99</t>
-  </si>
-  <si>
-    <t>J_6-34-50</t>
-  </si>
-  <si>
-    <t>J_5-6-122</t>
-  </si>
-  <si>
     <t>J_8-5-27</t>
   </si>
   <si>
-    <t>J_1-34-50</t>
-  </si>
-  <si>
-    <t>J_2-34-78</t>
-  </si>
-  <si>
-    <t>J_8-38-138</t>
-  </si>
-  <si>
-    <t>J_2-35-40</t>
-  </si>
-  <si>
-    <t>J_3-38-111</t>
-  </si>
-  <si>
-    <t>J_7-40-147</t>
-  </si>
-  <si>
-    <t>J_4-36-53</t>
-  </si>
-  <si>
-    <t>J_6-37-100</t>
-  </si>
-  <si>
-    <t>J_2-37-51</t>
-  </si>
-  <si>
-    <t>J_7-41-104</t>
-  </si>
-  <si>
-    <t>J_2-39-34</t>
-  </si>
-  <si>
-    <t>J_2-42-52</t>
-  </si>
-  <si>
-    <t>J_7-43-68</t>
-  </si>
-  <si>
-    <t>J_1-38-34</t>
-  </si>
-  <si>
-    <t>J_1-39-111</t>
-  </si>
-  <si>
-    <t>J_6-39-128</t>
-  </si>
-  <si>
-    <t>J_3-44-48</t>
-  </si>
-  <si>
-    <t>J_3-45-67</t>
-  </si>
-  <si>
-    <t>J_8-46-26</t>
-  </si>
-  <si>
-    <t>J_6-10-81</t>
-  </si>
-  <si>
-    <t>J_6-5-66</t>
-  </si>
-  <si>
-    <t>J_2-46-135</t>
-  </si>
-  <si>
-    <t>J_3-48-138</t>
-  </si>
-  <si>
-    <t>J_6-48-79</t>
-  </si>
-  <si>
-    <t>J_8-48-74</t>
-  </si>
-  <si>
-    <t>J_4-45-49</t>
-  </si>
-  <si>
-    <t>J_8-46-97</t>
-  </si>
-  <si>
-    <t>J_3-47-37</t>
-  </si>
-  <si>
-    <t>J_5-48-117</t>
-  </si>
-  <si>
-    <t>J_3-51-138</t>
-  </si>
-  <si>
-    <t>J_3-53-97</t>
-  </si>
-  <si>
-    <t>J_7-50-50</t>
-  </si>
-  <si>
-    <t>J_3-52-33</t>
-  </si>
-  <si>
-    <t>J_8-54-115</t>
-  </si>
-  <si>
-    <t>J_3-55-141</t>
-  </si>
-  <si>
-    <t>J_6-55-146</t>
-  </si>
-  <si>
-    <t>J_6-10-88</t>
-  </si>
-  <si>
-    <t>J_7-11-49</t>
-  </si>
-  <si>
-    <t>J_1-54-146</t>
-  </si>
-  <si>
-    <t>J_5-52-35</t>
-  </si>
-  <si>
-    <t>J_6-55-85</t>
-  </si>
-  <si>
-    <t>J_7-54-31</t>
-  </si>
-  <si>
-    <t>J_4-54-58</t>
-  </si>
-  <si>
-    <t>J_5-55-65</t>
-  </si>
-  <si>
-    <t>J_5-56-134</t>
-  </si>
-  <si>
-    <t>J_1-55-46</t>
-  </si>
-  <si>
-    <t>J_6-57-101</t>
-  </si>
-  <si>
-    <t>J_5-58-143</t>
-  </si>
-  <si>
-    <t>J_2-59-125</t>
-  </si>
-  <si>
-    <t>J_3-62-30</t>
-  </si>
-  <si>
-    <t>J_7-62-141</t>
-  </si>
-  <si>
-    <t>J_2-65-27</t>
-  </si>
-  <si>
-    <t>J_7-64-122</t>
-  </si>
-  <si>
-    <t>J_3-65-132</t>
-  </si>
-  <si>
-    <t>J_5-7-112</t>
-  </si>
-  <si>
-    <t>J_6-11-43</t>
-  </si>
-  <si>
-    <t>J_1-59-84</t>
-  </si>
-  <si>
-    <t>J_7-67-62</t>
-  </si>
-  <si>
-    <t>J_1-61-100</t>
-  </si>
-  <si>
-    <t>J_8-68-45</t>
-  </si>
-  <si>
-    <t>J_1-67-47</t>
-  </si>
-  <si>
-    <t>J_7-68-97</t>
-  </si>
-  <si>
-    <t>J_2-66-30</t>
-  </si>
-  <si>
-    <t>J_5-67-119</t>
-  </si>
-  <si>
-    <t>J_3-71-66</t>
-  </si>
-  <si>
-    <t>J_8-71-79</t>
-  </si>
-  <si>
-    <t>J_3-68-115</t>
-  </si>
-  <si>
-    <t>J_6-70-29</t>
-  </si>
-  <si>
-    <t>J_6-69-53</t>
-  </si>
-  <si>
-    <t>J_6-72-98</t>
-  </si>
-  <si>
-    <t>J_3-73-136</t>
-  </si>
-  <si>
-    <t>J_1-71-133</t>
-  </si>
-  <si>
-    <t>J_4-70-86</t>
-  </si>
-  <si>
-    <t>J_5-71-67</t>
-  </si>
-  <si>
-    <t>J_1-10-91</t>
-  </si>
-  <si>
-    <t>J_7-13-60</t>
-  </si>
-  <si>
-    <t>J_4-72-149</t>
-  </si>
-  <si>
-    <t>J_1-73-34</t>
-  </si>
-  <si>
-    <t>J_6-75-117</t>
-  </si>
-  <si>
-    <t>J_4-74-141</t>
-  </si>
-  <si>
-    <t>J_2-74-47</t>
-  </si>
-  <si>
-    <t>J_5-75-109</t>
-  </si>
-  <si>
-    <t>J_4-76-63</t>
-  </si>
-  <si>
-    <t>J_7-79-93</t>
-  </si>
-  <si>
-    <t>J_4-77-90</t>
-  </si>
-  <si>
-    <t>J_5-75-34</t>
-  </si>
-  <si>
-    <t>J_5-78-49</t>
-  </si>
-  <si>
-    <t>J_6-79-102</t>
-  </si>
-  <si>
-    <t>J_1-77-142</t>
-  </si>
-  <si>
-    <t>J_2-81-43</t>
-  </si>
-  <si>
-    <t>J_4-79-111</t>
-  </si>
-  <si>
-    <t>J_6-77-146</t>
-  </si>
-  <si>
-    <t>J_1-12-126</t>
-  </si>
-  <si>
-    <t>J_6-13-29</t>
-  </si>
-  <si>
-    <t>J_1-79-92</t>
-  </si>
-  <si>
-    <t>J_4-80-55</t>
-  </si>
-  <si>
-    <t>J_6-82-96</t>
+    <t>J_1-83-66</t>
+  </si>
+  <si>
+    <t>J_6-85-84</t>
   </si>
   <si>
     <t>J_8-85-55</t>
   </si>
   <si>
-    <t>J_6-80-119</t>
-  </si>
-  <si>
-    <t>J_7-78-119</t>
-  </si>
-  <si>
-    <t>J_1-83-66</t>
-  </si>
-  <si>
-    <t>J_5-81-74</t>
-  </si>
-  <si>
-    <t>J_1-83-102</t>
-  </si>
-  <si>
-    <t>J_5-84-50</t>
-  </si>
-  <si>
-    <t>J_6-85-84</t>
-  </si>
-  <si>
-    <t>J_4-85-118</t>
-  </si>
-  <si>
-    <t>J_2-15-120</t>
-  </si>
-  <si>
-    <t>J_4-10-36</t>
-  </si>
-  <si>
     <t>-1</t>
   </si>
   <si>
@@ -808,7 +862,19 @@
     <t>87</t>
   </si>
   <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
     <t>9</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
   </si>
 </sst>
 </file>
@@ -1166,7 +1232,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q156"/>
+  <dimension ref="A1:Q174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1233,7 +1299,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="E2">
         <v>13.04666447459139</v>
@@ -1248,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>75920</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1257,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>36636.6</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -1269,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>39282.88</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -1283,25 +1349,25 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="E3">
-        <v>13.49683037244198</v>
+        <v>14.03860942039895</v>
       </c>
       <c r="F3">
-        <v>9.385413673075403</v>
+        <v>13.72745380091162</v>
       </c>
       <c r="G3">
-        <v>69160</v>
+        <v>76960</v>
       </c>
       <c r="H3">
-        <v>19695.52</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>23681.84</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1310,22 +1376,22 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>31189.6</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1661.92</v>
       </c>
       <c r="N3">
-        <v>36916.88</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>12546.56</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>20425.6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1339,7 +1405,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="E4">
         <v>13.45131805913689</v>
@@ -1354,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
         <v>71760</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -1392,7 +1458,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="E5">
         <v>13.47950311944528</v>
@@ -1407,22 +1473,22 @@
         <v>0</v>
       </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
         <v>77480</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1445,7 +1511,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="E6">
         <v>13.55921170796885</v>
@@ -1460,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>47922.16</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1469,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>62400</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1484,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>14477.32</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1498,7 +1564,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="E7">
         <v>13.65604046779617</v>
@@ -1513,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>8504.6</v>
+        <v>23179</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1531,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>6273.280000000001</v>
+        <v>1879.28</v>
       </c>
       <c r="P7">
-        <v>15381.08</v>
+        <v>5100.68</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -1548,19 +1614,19 @@
         <v>22</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="E8">
-        <v>14.71301758366426</v>
+        <v>13.98364959386927</v>
       </c>
       <c r="F8">
-        <v>14.38691419523884</v>
+        <v>8.23492217799456</v>
       </c>
       <c r="G8">
-        <v>76960</v>
+        <v>23400</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1572,10 +1638,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>23400</v>
       </c>
       <c r="L8">
-        <v>76960</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1601,25 +1667,25 @@
         <v>23</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="E9">
-        <v>13.10970574760042</v>
+        <v>13.31474671067582</v>
       </c>
       <c r="F9">
-        <v>9.283429299262147</v>
+        <v>7.924113607853038</v>
       </c>
       <c r="G9">
-        <v>61360</v>
+        <v>57200</v>
       </c>
       <c r="H9">
-        <v>19695.52</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>18464.68</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1628,13 +1694,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>38734.8</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>41663.96</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1654,25 +1720,25 @@
         <v>24</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="E10">
-        <v>14.29697275355179</v>
+        <v>13.41534196608604</v>
       </c>
       <c r="F10">
-        <v>4.674991090638217</v>
+        <v>5.171733880770418</v>
       </c>
       <c r="G10">
-        <v>15080</v>
+        <v>74360</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15080</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1681,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>74360</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -1707,43 +1773,43 @@
         <v>25</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="E11">
-        <v>13.83757905490763</v>
+        <v>14.28344769133693</v>
       </c>
       <c r="F11">
-        <v>11.91102491579942</v>
+        <v>15.47315494270821</v>
       </c>
       <c r="G11">
-        <v>67080</v>
+        <v>47320</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>4319.64</v>
       </c>
       <c r="I11">
-        <v>19251.96</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>2060.24</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>6872.84</v>
       </c>
       <c r="L11">
-        <v>47827.52</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>30306.64</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>3759.08</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -1760,49 +1826,49 @@
         <v>26</v>
       </c>
       <c r="C12">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="E12">
-        <v>14.02151812227533</v>
+        <v>13.63446806988267</v>
       </c>
       <c r="F12">
-        <v>11.71062203976225</v>
+        <v>7.092920361727815</v>
       </c>
       <c r="G12">
-        <v>67600</v>
+        <v>32240</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>18289.96</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>505.44</v>
       </c>
       <c r="L12">
-        <v>28676.96</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5722.6</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>23901.28</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>15020.72</v>
+        <v>7720.96</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1813,25 +1879,25 @@
         <v>27</v>
       </c>
       <c r="C13">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="E13">
-        <v>14.02983409058691</v>
+        <v>14.10570863468299</v>
       </c>
       <c r="F13">
-        <v>10.15643959254586</v>
+        <v>9.881221023090674</v>
       </c>
       <c r="G13">
-        <v>70720</v>
+        <v>22880</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>6322.16</v>
       </c>
       <c r="I13">
-        <v>70720</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1855,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>16557.32</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1866,19 +1932,19 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="E14">
-        <v>14.3638411626003</v>
+        <v>13.61854671067582</v>
       </c>
       <c r="F14">
-        <v>13.03096960241065</v>
+        <v>10.20315649877164</v>
       </c>
       <c r="G14">
-        <v>20280</v>
+        <v>57200</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1890,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3808.48</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1899,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16471</v>
+        <v>57200</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1919,28 +1985,28 @@
         <v>29</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="E15">
-        <v>14.50744332856054</v>
+        <v>13.02849326584524</v>
       </c>
       <c r="F15">
-        <v>10.1626410783077</v>
+        <v>7.162798217378592</v>
       </c>
       <c r="G15">
-        <v>22880</v>
+        <v>34320</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>22880</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4121</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1952,13 +2018,13 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>21977.28</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>8220.68</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -1972,34 +2038,34 @@
         <v>30</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="E16">
-        <v>14.50297419233165</v>
+        <v>14.15722117338475</v>
       </c>
       <c r="F16">
-        <v>7.544734450009783</v>
+        <v>11.31300872968508</v>
       </c>
       <c r="G16">
-        <v>32240</v>
+        <v>42120</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>13300.04</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4121</v>
       </c>
       <c r="K16">
-        <v>24079.12</v>
+        <v>6788.6</v>
       </c>
       <c r="L16">
-        <v>6955.52</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -2008,13 +2074,13 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>3759.08</v>
       </c>
       <c r="P16">
-        <v>1204.32</v>
+        <v>1980.68</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>12168.52</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -2025,37 +2091,37 @@
         <v>31</v>
       </c>
       <c r="C17">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="E17">
-        <v>13.06550684122776</v>
+        <v>14.2259565395665</v>
       </c>
       <c r="F17">
-        <v>12.65456166667615</v>
+        <v>10.29841602597638</v>
       </c>
       <c r="G17">
-        <v>69160</v>
+        <v>70720</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>34360.04</v>
       </c>
       <c r="J17">
-        <v>6670.04</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>5518.24</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>56970.68</v>
+        <v>6729.84</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>29629.6</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2078,19 +2144,19 @@
         <v>32</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="E18">
-        <v>13.4096142291142</v>
+        <v>14.31829014219214</v>
       </c>
       <c r="F18">
-        <v>7.249253093801081</v>
+        <v>12.9896454220902</v>
       </c>
       <c r="G18">
-        <v>40560</v>
+        <v>20280</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2108,10 +2174,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>20280</v>
       </c>
       <c r="N18">
-        <v>40560</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -2131,19 +2197,19 @@
         <v>33</v>
       </c>
       <c r="C19">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="E19">
-        <v>14.22034253392691</v>
+        <v>13.40566843726919</v>
       </c>
       <c r="F19">
-        <v>8.393273945805932</v>
+        <v>5.373236190150353</v>
       </c>
       <c r="G19">
-        <v>32760</v>
+        <v>60840</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2158,16 +2224,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>60840</v>
       </c>
       <c r="M19">
-        <v>13939.64</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18819.84</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -2184,19 +2250,19 @@
         <v>34</v>
       </c>
       <c r="C20">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E20">
-        <v>13.33676326254612</v>
+        <v>14.57703837917503</v>
       </c>
       <c r="F20">
-        <v>8.78415210276013</v>
+        <v>10.06438471247994</v>
       </c>
       <c r="G20">
-        <v>30160</v>
+        <v>21320</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2211,13 +2277,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>30160</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>21320</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -2237,37 +2303,37 @@
         <v>35</v>
       </c>
       <c r="C21">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E21">
-        <v>13.22255327030471</v>
+        <v>13.21170225942333</v>
       </c>
       <c r="F21">
-        <v>9.736784439375766</v>
+        <v>10.35673525905144</v>
       </c>
       <c r="G21">
-        <v>42640</v>
+        <v>27040</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>7770.88</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>42640</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>19268.6</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2290,25 +2356,25 @@
         <v>36</v>
       </c>
       <c r="C22">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="E22">
-        <v>14.78897715468523</v>
+        <v>14.22034253392691</v>
       </c>
       <c r="F22">
-        <v>10.21071302120374</v>
+        <v>8.393273945805932</v>
       </c>
       <c r="G22">
-        <v>21320</v>
+        <v>32760</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>21320</v>
+        <v>32759.48</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2343,25 +2409,25 @@
         <v>37</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="E23">
-        <v>14.72854796003666</v>
+        <v>13.67161081240566</v>
       </c>
       <c r="F23">
-        <v>10.31976626658547</v>
+        <v>12.22191667785371</v>
       </c>
       <c r="G23">
-        <v>21320</v>
+        <v>38480</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>21320</v>
+        <v>38480</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2396,19 +2462,19 @@
         <v>38</v>
       </c>
       <c r="C24">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="E24">
-        <v>14.0203291797526</v>
+        <v>13.22255327030471</v>
       </c>
       <c r="F24">
-        <v>12.53365805845855</v>
+        <v>9.736784439375766</v>
       </c>
       <c r="G24">
-        <v>38480</v>
+        <v>42640</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2429,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>28486.12</v>
+        <v>42640</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -2438,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9993.360000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2449,19 +2515,19 @@
         <v>39</v>
       </c>
       <c r="C25">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="E25">
-        <v>13.01070091964766</v>
+        <v>13.27902724939102</v>
       </c>
       <c r="F25">
-        <v>6.7061030301516</v>
+        <v>12.86136628627727</v>
       </c>
       <c r="G25">
-        <v>63440</v>
+        <v>69160</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2479,16 +2545,16 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>69160</v>
       </c>
       <c r="N25">
-        <v>27328.6</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>36110.88</v>
+        <v>0</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -2505,22 +2571,22 @@
         <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="E26">
-        <v>14.07536363403268</v>
+        <v>13.01070091964766</v>
       </c>
       <c r="F26">
-        <v>7.696828257606459</v>
+        <v>6.7061030301516</v>
       </c>
       <c r="G26">
-        <v>14560</v>
+        <v>63440</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>14560</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2532,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>63440</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2555,19 +2621,19 @@
         <v>41</v>
       </c>
       <c r="C27">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="E27">
-        <v>13.68771401042852</v>
+        <v>14.52640792296293</v>
       </c>
       <c r="F27">
-        <v>7.444511145060359</v>
+        <v>9.962760404175128</v>
       </c>
       <c r="G27">
-        <v>51480</v>
+        <v>15080</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2576,16 +2642,16 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>4121</v>
       </c>
       <c r="K27">
-        <v>6300.320000000001</v>
+        <v>0</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>45179.16</v>
+        <v>10958.48</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2608,19 +2674,19 @@
         <v>42</v>
       </c>
       <c r="C28">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="E28">
-        <v>13.53154609344419</v>
+        <v>13.68771401042852</v>
       </c>
       <c r="F28">
-        <v>6.849737571795722</v>
+        <v>7.444511145060359</v>
       </c>
       <c r="G28">
-        <v>26520</v>
+        <v>51480</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2632,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>24079.12</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2641,13 +2707,13 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>51480</v>
       </c>
       <c r="O28">
         <v>0</v>
       </c>
       <c r="P28">
-        <v>2440.36</v>
+        <v>0</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -2661,25 +2727,25 @@
         <v>43</v>
       </c>
       <c r="C29">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="E29">
-        <v>13.22653337600512</v>
+        <v>13.53154609344419</v>
       </c>
       <c r="F29">
-        <v>4.393022845511681</v>
+        <v>6.849737571795722</v>
       </c>
       <c r="G29">
-        <v>14040</v>
+        <v>26520</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>26520</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -2703,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>14040</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2714,25 +2780,25 @@
         <v>44</v>
       </c>
       <c r="C30">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="E30">
-        <v>13.00506477392782</v>
+        <v>14.0840272601563</v>
       </c>
       <c r="F30">
-        <v>8.747768863363007</v>
+        <v>5.574627745976066</v>
       </c>
       <c r="G30">
-        <v>61360</v>
+        <v>36400</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>61360</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2747,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>36400</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -2767,25 +2833,25 @@
         <v>45</v>
       </c>
       <c r="C31">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="E31">
-        <v>14.65921246350496</v>
+        <v>13.23395449781897</v>
       </c>
       <c r="F31">
-        <v>11.4914474766051</v>
+        <v>8.129385588732381</v>
       </c>
       <c r="G31">
-        <v>27040</v>
+        <v>42640</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>27040</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2794,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>42640</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -2820,19 +2886,19 @@
         <v>46</v>
       </c>
       <c r="C32">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="E32">
-        <v>13.1297482228013</v>
+        <v>14.24778367070938</v>
       </c>
       <c r="F32">
-        <v>9.344934413964186</v>
+        <v>9.384188384164213</v>
       </c>
       <c r="G32">
-        <v>54080</v>
+        <v>30160</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -2844,10 +2910,10 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>5578.04</v>
       </c>
       <c r="L32">
-        <v>54080</v>
+        <v>0</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -2862,7 +2928,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>24581.44</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2873,25 +2939,25 @@
         <v>47</v>
       </c>
       <c r="C33">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="E33">
-        <v>13.85538110071333</v>
+        <v>13.03723729226749</v>
       </c>
       <c r="F33">
-        <v>11.4374338045384</v>
+        <v>9.782849400241741</v>
       </c>
       <c r="G33">
-        <v>18200</v>
+        <v>49400</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>18200</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -2906,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>49400</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -2926,31 +2992,31 @@
         <v>48</v>
       </c>
       <c r="C34">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="E34">
-        <v>13.1711066800226</v>
+        <v>14.77283367432237</v>
       </c>
       <c r="F34">
-        <v>9.883301975457771</v>
+        <v>10.35079568113586</v>
       </c>
       <c r="G34">
-        <v>49400</v>
+        <v>21320</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>869.96</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>2783.56</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>17665.44</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -2959,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>49400</v>
+        <v>0</v>
       </c>
       <c r="O34">
         <v>0</v>
@@ -2979,25 +3045,25 @@
         <v>49</v>
       </c>
       <c r="C35">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D35" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="E35">
-        <v>14.38682149106489</v>
+        <v>13.8945455666212</v>
       </c>
       <c r="F35">
-        <v>10.53828509890295</v>
+        <v>8.584401159224676</v>
       </c>
       <c r="G35">
-        <v>75400</v>
+        <v>59280</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35">
-        <v>75400</v>
+        <v>59280</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -3035,31 +3101,31 @@
         <v>24</v>
       </c>
       <c r="D36" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="E36">
-        <v>14.15393813968668</v>
+        <v>13.95655038458464</v>
       </c>
       <c r="F36">
-        <v>9.25298042502666</v>
+        <v>9.123940364509654</v>
       </c>
       <c r="G36">
         <v>51480</v>
       </c>
       <c r="H36">
-        <v>9847.76</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>3334.76</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>2245.88</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>51480</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -3074,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>36050.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -3088,22 +3154,22 @@
         <v>24</v>
       </c>
       <c r="D37" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="E37">
-        <v>14.06860996635141</v>
+        <v>13.96010996635141</v>
       </c>
       <c r="F37">
-        <v>12.00741935011045</v>
+        <v>11.91481567408255</v>
       </c>
       <c r="G37">
         <v>29640</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>3979.04</v>
       </c>
       <c r="I37">
-        <v>29640</v>
+        <v>6097.52</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -3118,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>19562.92</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -3138,25 +3204,25 @@
         <v>52</v>
       </c>
       <c r="C38">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D38" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="E38">
-        <v>14.14322421451015</v>
+        <v>14.56396434820775</v>
       </c>
       <c r="F38">
-        <v>14.99086118019012</v>
+        <v>10.66804148275501</v>
       </c>
       <c r="G38">
-        <v>56680</v>
+        <v>75400</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>75400</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -3165,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <v>56680</v>
+        <v>0</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -3191,19 +3257,19 @@
         <v>53</v>
       </c>
       <c r="C39">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D39" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="E39">
-        <v>13.07161084250095</v>
+        <v>13.92443270032703</v>
       </c>
       <c r="F39">
-        <v>4.339289305219831</v>
+        <v>10.42953984446895</v>
       </c>
       <c r="G39">
-        <v>22880</v>
+        <v>45240</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -3221,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>22880</v>
+        <v>45240</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -3244,25 +3310,25 @@
         <v>54</v>
       </c>
       <c r="C40">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D40" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="E40">
-        <v>13.92071286468874</v>
+        <v>14.71117996056329</v>
       </c>
       <c r="F40">
-        <v>9.444036477021776</v>
+        <v>8.044511571226559</v>
       </c>
       <c r="G40">
-        <v>67600</v>
+        <v>14560</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40">
-        <v>67600</v>
+        <v>14560</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -3297,19 +3363,19 @@
         <v>55</v>
       </c>
       <c r="C41">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D41" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="E41">
-        <v>14.25847351665356</v>
+        <v>14.52915661091741</v>
       </c>
       <c r="F41">
-        <v>10.67973976848271</v>
+        <v>11.99362657477418</v>
       </c>
       <c r="G41">
-        <v>45240</v>
+        <v>18200</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -3327,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>45240</v>
+        <v>0</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -3339,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>18200</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -3350,19 +3416,19 @@
         <v>56</v>
       </c>
       <c r="C42">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="E42">
-        <v>13.10502361440849</v>
+        <v>14.27987727573464</v>
       </c>
       <c r="F42">
-        <v>12.14179904976601</v>
+        <v>15.13570418342573</v>
       </c>
       <c r="G42">
-        <v>28080</v>
+        <v>56680</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -3371,16 +3437,16 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>4301.96</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>22678.24</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>1098.76</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>56680</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -3403,19 +3469,19 @@
         <v>57</v>
       </c>
       <c r="C43">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D43" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="E43">
-        <v>13.14743716009585</v>
+        <v>13.45120267923565</v>
       </c>
       <c r="F43">
-        <v>9.487305119647083</v>
+        <v>4.465299696543298</v>
       </c>
       <c r="G43">
-        <v>69680</v>
+        <v>22880</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -3427,16 +3493,16 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>22879.48</v>
       </c>
       <c r="L43">
-        <v>3009.24</v>
+        <v>0</v>
       </c>
       <c r="M43">
         <v>0</v>
       </c>
       <c r="N43">
-        <v>66670.24000000001</v>
+        <v>0</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -3456,19 +3522,19 @@
         <v>58</v>
       </c>
       <c r="C44">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D44" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="E44">
-        <v>13.40818057539578</v>
+        <v>14.22823958459476</v>
       </c>
       <c r="F44">
-        <v>6.727614874180744</v>
+        <v>11.07706279617932</v>
       </c>
       <c r="G44">
-        <v>75920</v>
+        <v>51480</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -3483,10 +3549,10 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>51480</v>
       </c>
       <c r="M44">
-        <v>75920</v>
+        <v>0</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3509,25 +3575,25 @@
         <v>59</v>
       </c>
       <c r="C45">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D45" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="E45">
-        <v>14.74144774786007</v>
+        <v>13.10502361440849</v>
       </c>
       <c r="F45">
-        <v>11.47660899570753</v>
+        <v>12.14179904976601</v>
       </c>
       <c r="G45">
-        <v>51480</v>
+        <v>28080</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>28079.48</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -3542,7 +3608,7 @@
         <v>0</v>
       </c>
       <c r="N45">
-        <v>51480</v>
+        <v>0</v>
       </c>
       <c r="O45">
         <v>0</v>
@@ -3562,25 +3628,25 @@
         <v>60</v>
       </c>
       <c r="C46">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D46" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="E46">
-        <v>13.37396477392782</v>
+        <v>13.02858873866109</v>
       </c>
       <c r="F46">
-        <v>10.4634702129511</v>
+        <v>6.537152963813868</v>
       </c>
       <c r="G46">
-        <v>26000</v>
+        <v>75920</v>
       </c>
       <c r="H46">
         <v>0</v>
       </c>
       <c r="I46">
-        <v>26000</v>
+        <v>0</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -3589,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>75920</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -3615,25 +3681,25 @@
         <v>61</v>
       </c>
       <c r="C47">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D47" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="E47">
-        <v>13.08562892758552</v>
+        <v>13.50983919640777</v>
       </c>
       <c r="F47">
-        <v>10.09617610894215</v>
+        <v>5.511404510778442</v>
       </c>
       <c r="G47">
-        <v>63440</v>
+        <v>20800</v>
       </c>
       <c r="H47">
         <v>0</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>20800</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -3648,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="N47">
-        <v>63440</v>
+        <v>0</v>
       </c>
       <c r="O47">
         <v>0</v>
@@ -3668,25 +3734,25 @@
         <v>62</v>
       </c>
       <c r="C48">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="D48" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="E48">
-        <v>15.17227239755471</v>
+        <v>14.4437386089751</v>
       </c>
       <c r="F48">
-        <v>14.10487634948553</v>
+        <v>7.226853344043545</v>
       </c>
       <c r="G48">
-        <v>14040</v>
+        <v>59800</v>
       </c>
       <c r="H48">
         <v>0</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>59800</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -3695,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="L48">
-        <v>14040</v>
+        <v>0</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -3724,22 +3790,22 @@
         <v>34</v>
       </c>
       <c r="D49" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="E49">
-        <v>13.39029275638236</v>
+        <v>14.17530368529748</v>
       </c>
       <c r="F49">
-        <v>10.90378936458686</v>
+        <v>9.027198916524229</v>
       </c>
       <c r="G49">
-        <v>26000</v>
+        <v>40560</v>
       </c>
       <c r="H49">
         <v>0</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>40560</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -3748,7 +3814,7 @@
         <v>0</v>
       </c>
       <c r="L49">
-        <v>26000</v>
+        <v>0</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -3777,25 +3843,25 @@
         <v>34</v>
       </c>
       <c r="D50" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="E50">
-        <v>14.39989552203217</v>
+        <v>14.4251676124622</v>
       </c>
       <c r="F50">
-        <v>9.170224789566683</v>
+        <v>6.501886598163384</v>
       </c>
       <c r="G50">
-        <v>40560</v>
+        <v>40040</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
       <c r="I50">
-        <v>37224.72</v>
+        <v>40040</v>
       </c>
       <c r="J50">
-        <v>3334.76</v>
+        <v>0</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -3827,25 +3893,25 @@
         <v>65</v>
       </c>
       <c r="C51">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="E51">
-        <v>13.58761822776853</v>
+        <v>13.08562892758552</v>
       </c>
       <c r="F51">
-        <v>9.855364902913736</v>
+        <v>10.09617610894215</v>
       </c>
       <c r="G51">
-        <v>71760</v>
+        <v>63440</v>
       </c>
       <c r="H51">
         <v>0</v>
       </c>
       <c r="I51">
-        <v>71760</v>
+        <v>0</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -3857,10 +3923,10 @@
         <v>0</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>16668.6</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <v>46770.88</v>
       </c>
       <c r="O51">
         <v>0</v>
@@ -3880,19 +3946,19 @@
         <v>66</v>
       </c>
       <c r="C52">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="E52">
-        <v>14.50310450253022</v>
+        <v>14.48360540661301</v>
       </c>
       <c r="F52">
-        <v>5.91661191620919</v>
+        <v>4.736018414766441</v>
       </c>
       <c r="G52">
-        <v>20800</v>
+        <v>15080</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -3919,10 +3985,10 @@
         <v>0</v>
       </c>
       <c r="P52">
-        <v>20800</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>15080</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3933,25 +3999,25 @@
         <v>67</v>
       </c>
       <c r="C53">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D53" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="E53">
-        <v>13.81360313114674</v>
+        <v>14.69365822575877</v>
       </c>
       <c r="F53">
-        <v>7.685937739532066</v>
+        <v>6.164070010481168</v>
       </c>
       <c r="G53">
-        <v>57720</v>
+        <v>53560</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>53560</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -3972,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="P53">
-        <v>57720</v>
+        <v>0</v>
       </c>
       <c r="Q53">
         <v>0</v>
@@ -3986,25 +4052,25 @@
         <v>68</v>
       </c>
       <c r="C54">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D54" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="E54">
-        <v>13.41349936686218</v>
+        <v>13.61432404458805</v>
       </c>
       <c r="F54">
-        <v>5.163201062154652</v>
+        <v>10.62761999854527</v>
       </c>
       <c r="G54">
-        <v>76440</v>
+        <v>26520</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>76440</v>
+        <v>0</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -4028,7 +4094,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>26520</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -4039,25 +4105,25 @@
         <v>69</v>
       </c>
       <c r="C55">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D55" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="E55">
-        <v>13.09155155920716</v>
+        <v>14.84558877636319</v>
       </c>
       <c r="F55">
-        <v>7.61734455496218</v>
+        <v>8.378970011129015</v>
       </c>
       <c r="G55">
-        <v>27560</v>
+        <v>22360</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
       <c r="I55">
-        <v>27560</v>
+        <v>0</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -4072,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="N55">
-        <v>0</v>
+        <v>22360</v>
       </c>
       <c r="O55">
         <v>0</v>
@@ -4092,25 +4158,25 @@
         <v>70</v>
       </c>
       <c r="C56">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D56" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="E56">
-        <v>13.86315741978415</v>
+        <v>13.40566843726919</v>
       </c>
       <c r="F56">
-        <v>8.323171549848984</v>
+        <v>7.458961430080381</v>
       </c>
       <c r="G56">
-        <v>52000</v>
+        <v>57720</v>
       </c>
       <c r="H56">
         <v>0</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>57720</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -4125,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="N56">
-        <v>52000</v>
+        <v>0</v>
       </c>
       <c r="O56">
         <v>0</v>
@@ -4145,25 +4211,25 @@
         <v>71</v>
       </c>
       <c r="C57">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D57" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="E57">
-        <v>14.73728322826152</v>
+        <v>13.96727234821909</v>
       </c>
       <c r="F57">
-        <v>11.5042249213363</v>
+        <v>11.373627033674</v>
       </c>
       <c r="G57">
-        <v>26520</v>
+        <v>26000</v>
       </c>
       <c r="H57">
         <v>0</v>
       </c>
       <c r="I57">
-        <v>26520</v>
+        <v>0</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -4178,7 +4244,7 @@
         <v>0</v>
       </c>
       <c r="N57">
-        <v>0</v>
+        <v>26000</v>
       </c>
       <c r="O57">
         <v>0</v>
@@ -4198,19 +4264,19 @@
         <v>72</v>
       </c>
       <c r="C58">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D58" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="E58">
-        <v>13.71418926423205</v>
+        <v>14.09006477392782</v>
       </c>
       <c r="F58">
-        <v>9.104130311530479</v>
+        <v>11.02372972807271</v>
       </c>
       <c r="G58">
-        <v>54080</v>
+        <v>26000</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -4225,13 +4291,13 @@
         <v>0</v>
       </c>
       <c r="L58">
-        <v>54080</v>
+        <v>0</v>
       </c>
       <c r="M58">
         <v>0</v>
       </c>
       <c r="N58">
-        <v>0</v>
+        <v>26000</v>
       </c>
       <c r="O58">
         <v>0</v>
@@ -4254,22 +4320,22 @@
         <v>39</v>
       </c>
       <c r="D59" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="E59">
-        <v>14.49443067790733</v>
+        <v>13.53669947303913</v>
       </c>
       <c r="F59">
-        <v>7.247215338953668</v>
+        <v>7.921995648247199</v>
       </c>
       <c r="G59">
-        <v>17680</v>
+        <v>29120</v>
       </c>
       <c r="H59">
         <v>0</v>
       </c>
       <c r="I59">
-        <v>17680</v>
+        <v>0</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -4281,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="M59">
-        <v>0</v>
+        <v>29120</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -4304,19 +4370,19 @@
         <v>74</v>
       </c>
       <c r="C60">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D60" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="E60">
-        <v>13.86842440541752</v>
+        <v>13.04165645185205</v>
       </c>
       <c r="F60">
-        <v>7.324872045114887</v>
+        <v>5.274012583598435</v>
       </c>
       <c r="G60">
-        <v>27040</v>
+        <v>27560</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -4337,7 +4403,7 @@
         <v>0</v>
       </c>
       <c r="N60">
-        <v>0</v>
+        <v>27560</v>
       </c>
       <c r="O60">
         <v>0</v>
@@ -4346,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>27040</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -4357,19 +4423,19 @@
         <v>75</v>
       </c>
       <c r="C61">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D61" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="E61">
-        <v>13.5535804018633</v>
+        <v>13.62445741978415</v>
       </c>
       <c r="F61">
-        <v>6.728146064677937</v>
+        <v>8.179860687194157</v>
       </c>
       <c r="G61">
-        <v>35360</v>
+        <v>52000</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -4384,7 +4450,7 @@
         <v>0</v>
       </c>
       <c r="L61">
-        <v>35360</v>
+        <v>52000</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -4410,19 +4476,19 @@
         <v>76</v>
       </c>
       <c r="C62">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D62" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="E62">
-        <v>14.12182045542907</v>
+        <v>13.69186671380096</v>
       </c>
       <c r="F62">
-        <v>11.89803623077191</v>
+        <v>5.270351816933395</v>
       </c>
       <c r="G62">
-        <v>17680</v>
+        <v>76440</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -4437,7 +4503,7 @@
         <v>0</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>76440</v>
       </c>
       <c r="M62">
         <v>0</v>
@@ -4446,10 +4512,10 @@
         <v>0</v>
       </c>
       <c r="O62">
-        <v>12546.56</v>
+        <v>0</v>
       </c>
       <c r="P62">
-        <v>5132.92</v>
+        <v>0</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -4466,13 +4532,13 @@
         <v>39</v>
       </c>
       <c r="D63" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="E63">
-        <v>13.95297818332817</v>
+        <v>13.37599859149144</v>
       </c>
       <c r="F63">
-        <v>17.08181619990862</v>
+        <v>16.37545378685548</v>
       </c>
       <c r="G63">
         <v>57720</v>
@@ -4493,10 +4559,10 @@
         <v>0</v>
       </c>
       <c r="M63">
-        <v>0</v>
+        <v>57720</v>
       </c>
       <c r="N63">
-        <v>57720</v>
+        <v>0</v>
       </c>
       <c r="O63">
         <v>0</v>
@@ -4516,19 +4582,19 @@
         <v>78</v>
       </c>
       <c r="C64">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D64" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="E64">
-        <v>14.21043802440668</v>
+        <v>13.16508546577031</v>
       </c>
       <c r="F64">
-        <v>10.32536047962497</v>
+        <v>6.092565875169092</v>
       </c>
       <c r="G64">
-        <v>66560</v>
+        <v>19760</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -4549,13 +4615,13 @@
         <v>0</v>
       </c>
       <c r="N64">
-        <v>66560</v>
+        <v>0</v>
       </c>
       <c r="O64">
         <v>0</v>
       </c>
       <c r="P64">
-        <v>0</v>
+        <v>19760</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -4569,25 +4635,25 @@
         <v>79</v>
       </c>
       <c r="C65">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D65" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="E65">
-        <v>14.11733600516099</v>
+        <v>14.49443067790733</v>
       </c>
       <c r="F65">
-        <v>12.45376439007096</v>
+        <v>7.247215338953668</v>
       </c>
       <c r="G65">
-        <v>24960</v>
+        <v>17680</v>
       </c>
       <c r="H65">
         <v>0</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>17680</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -4599,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="M65">
-        <v>24960</v>
+        <v>0</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -4622,25 +4688,25 @@
         <v>80</v>
       </c>
       <c r="C66">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D66" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="E66">
-        <v>13.67905051023439</v>
+        <v>13.30399645716634</v>
       </c>
       <c r="F66">
-        <v>7.712195099090754</v>
+        <v>7.740956029078156</v>
       </c>
       <c r="G66">
-        <v>34840</v>
+        <v>27560</v>
       </c>
       <c r="H66">
         <v>0</v>
       </c>
       <c r="I66">
-        <v>34840</v>
+        <v>27560</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -4675,19 +4741,19 @@
         <v>81</v>
       </c>
       <c r="C67">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D67" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="E67">
-        <v>13.72046309033829</v>
+        <v>13.5535804018633</v>
       </c>
       <c r="F67">
-        <v>11.54658450490189</v>
+        <v>6.728146064677937</v>
       </c>
       <c r="G67">
-        <v>13520</v>
+        <v>35360</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -4702,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="L67">
-        <v>13520</v>
+        <v>35360</v>
       </c>
       <c r="M67">
         <v>0</v>
@@ -4728,40 +4794,40 @@
         <v>82</v>
       </c>
       <c r="C68">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="D68" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="E68">
-        <v>13.02882117338475</v>
+        <v>14.14046522174405</v>
       </c>
       <c r="F68">
-        <v>10.4113064186005</v>
+        <v>7.468555574864816</v>
       </c>
       <c r="G68">
-        <v>42120</v>
+        <v>27040</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68">
-        <v>5124.08</v>
+        <v>27040</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
       <c r="K68">
-        <v>2398.24</v>
+        <v>0</v>
       </c>
       <c r="L68">
-        <v>3181.36</v>
+        <v>0</v>
       </c>
       <c r="M68">
-        <v>9335.559999999999</v>
+        <v>0</v>
       </c>
       <c r="N68">
-        <v>22079.2</v>
+        <v>0</v>
       </c>
       <c r="O68">
         <v>0</v>
@@ -4781,19 +4847,19 @@
         <v>83</v>
       </c>
       <c r="C69">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="D69" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="E69">
-        <v>14.26399026469223</v>
+        <v>14.14755661117083</v>
       </c>
       <c r="F69">
-        <v>8.042198475114697</v>
+        <v>9.391820143082017</v>
       </c>
       <c r="G69">
-        <v>34320</v>
+        <v>54080</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -4808,10 +4874,10 @@
         <v>0</v>
       </c>
       <c r="L69">
-        <v>0</v>
+        <v>54080</v>
       </c>
       <c r="M69">
-        <v>34320</v>
+        <v>0</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4834,25 +4900,25 @@
         <v>84</v>
       </c>
       <c r="C70">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D70" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="E70">
-        <v>13.84234929973149</v>
+        <v>14.25847351665356</v>
       </c>
       <c r="F70">
-        <v>9.857048998742954</v>
+        <v>12.01317032970954</v>
       </c>
       <c r="G70">
-        <v>70200</v>
+        <v>17680</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
       <c r="I70">
-        <v>1094.08</v>
+        <v>0</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -4864,10 +4930,10 @@
         <v>0</v>
       </c>
       <c r="M70">
-        <v>0</v>
+        <v>17680</v>
       </c>
       <c r="N70">
-        <v>51082.2</v>
+        <v>0</v>
       </c>
       <c r="O70">
         <v>0</v>
@@ -4876,7 +4942,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>18022.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -4887,19 +4953,19 @@
         <v>85</v>
       </c>
       <c r="C71">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D71" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="E71">
-        <v>13.32329798724385</v>
+        <v>13.76861763781405</v>
       </c>
       <c r="F71">
-        <v>11.15707315634226</v>
+        <v>12.14613861819436</v>
       </c>
       <c r="G71">
-        <v>71760</v>
+        <v>24960</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -4914,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="L71">
-        <v>71760</v>
+        <v>0</v>
       </c>
       <c r="M71">
         <v>0</v>
@@ -4929,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>0</v>
+        <v>24959.48</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -4940,19 +5006,19 @@
         <v>86</v>
       </c>
       <c r="C72">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D72" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="E72">
-        <v>13.05857240593582</v>
+        <v>13.05922785511339</v>
       </c>
       <c r="F72">
-        <v>6.267107856856592</v>
+        <v>5.163957540692709</v>
       </c>
       <c r="G72">
-        <v>41080</v>
+        <v>38480</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -4973,7 +5039,7 @@
         <v>0</v>
       </c>
       <c r="N72">
-        <v>41080</v>
+        <v>38480</v>
       </c>
       <c r="O72">
         <v>0</v>
@@ -4993,19 +5059,19 @@
         <v>87</v>
       </c>
       <c r="C73">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D73" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="E73">
-        <v>14.06000026552342</v>
+        <v>14.25383802440668</v>
       </c>
       <c r="F73">
-        <v>8.514796546817573</v>
+        <v>10.35689509129888</v>
       </c>
       <c r="G73">
-        <v>38480</v>
+        <v>66560</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -5020,10 +5086,10 @@
         <v>0</v>
       </c>
       <c r="L73">
-        <v>38480</v>
+        <v>0</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>66560</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -5046,19 +5112,19 @@
         <v>88</v>
       </c>
       <c r="C74">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D74" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="E74">
-        <v>13.0131688480468</v>
+        <v>13.72046309033829</v>
       </c>
       <c r="F74">
-        <v>6.754331649838051</v>
+        <v>11.54658450490189</v>
       </c>
       <c r="G74">
-        <v>25480</v>
+        <v>13520</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -5070,10 +5136,10 @@
         <v>0</v>
       </c>
       <c r="K74">
-        <v>25480</v>
+        <v>0</v>
       </c>
       <c r="L74">
-        <v>0</v>
+        <v>13520</v>
       </c>
       <c r="M74">
         <v>0</v>
@@ -5099,19 +5165,19 @@
         <v>89</v>
       </c>
       <c r="C75">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="D75" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="E75">
-        <v>14.97060766197304</v>
+        <v>13.20688075726564</v>
       </c>
       <c r="F75">
-        <v>12.88967926217039</v>
+        <v>6.613441686065195</v>
       </c>
       <c r="G75">
-        <v>50440</v>
+        <v>20800</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -5126,7 +5192,7 @@
         <v>0</v>
       </c>
       <c r="L75">
-        <v>50440</v>
+        <v>0</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -5141,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>0</v>
+        <v>20800</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -5152,19 +5218,19 @@
         <v>90</v>
       </c>
       <c r="C76">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="E76">
-        <v>14.5103953141455</v>
+        <v>13.06802234635142</v>
       </c>
       <c r="F76">
-        <v>10.81887806077603</v>
+        <v>9.558211632500187</v>
       </c>
       <c r="G76">
-        <v>19240</v>
+        <v>58240</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -5179,13 +5245,13 @@
         <v>0</v>
       </c>
       <c r="L76">
-        <v>19240</v>
+        <v>0</v>
       </c>
       <c r="M76">
         <v>0</v>
       </c>
       <c r="N76">
-        <v>0</v>
+        <v>58240</v>
       </c>
       <c r="O76">
         <v>0</v>
@@ -5205,25 +5271,25 @@
         <v>91</v>
       </c>
       <c r="C77">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D77" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="E77">
-        <v>13.05222022370047</v>
+        <v>13.84234929973149</v>
       </c>
       <c r="F77">
-        <v>5.147045147782118</v>
+        <v>9.857048998742954</v>
       </c>
       <c r="G77">
-        <v>60840</v>
+        <v>70200</v>
       </c>
       <c r="H77">
         <v>0</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>70200</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -5235,10 +5301,10 @@
         <v>0</v>
       </c>
       <c r="M77">
-        <v>16627.52</v>
+        <v>0</v>
       </c>
       <c r="N77">
-        <v>44211.96</v>
+        <v>0</v>
       </c>
       <c r="O77">
         <v>0</v>
@@ -5258,16 +5324,16 @@
         <v>92</v>
       </c>
       <c r="C78">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D78" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="E78">
-        <v>13.69394107008979</v>
+        <v>13.32329798724385</v>
       </c>
       <c r="F78">
-        <v>8.427914998933765</v>
+        <v>11.15707315634226</v>
       </c>
       <c r="G78">
         <v>71760</v>
@@ -5285,13 +5351,13 @@
         <v>0</v>
       </c>
       <c r="L78">
-        <v>60086.52</v>
+        <v>71760</v>
       </c>
       <c r="M78">
         <v>0</v>
       </c>
       <c r="N78">
-        <v>11672.96</v>
+        <v>0</v>
       </c>
       <c r="O78">
         <v>0</v>
@@ -5311,25 +5377,25 @@
         <v>93</v>
       </c>
       <c r="C79">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D79" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="E79">
-        <v>13.19688596654504</v>
+        <v>13.05857240593582</v>
       </c>
       <c r="F79">
-        <v>6.418754742408296</v>
+        <v>6.267107856856592</v>
       </c>
       <c r="G79">
-        <v>50440</v>
+        <v>41080</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79">
-        <v>15784.6</v>
+        <v>41080</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -5338,10 +5404,10 @@
         <v>0</v>
       </c>
       <c r="L79">
-        <v>28946.84</v>
+        <v>0</v>
       </c>
       <c r="M79">
-        <v>5707.52</v>
+        <v>0</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -5364,25 +5430,25 @@
         <v>94</v>
       </c>
       <c r="C80">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D80" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="E80">
-        <v>14.16991353041798</v>
+        <v>14.06000026552342</v>
       </c>
       <c r="F80">
-        <v>11.58644589406094</v>
+        <v>8.514796546817573</v>
       </c>
       <c r="G80">
-        <v>26000</v>
+        <v>38480</v>
       </c>
       <c r="H80">
         <v>0</v>
       </c>
       <c r="I80">
-        <v>26000</v>
+        <v>38480</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -5417,25 +5483,25 @@
         <v>95</v>
       </c>
       <c r="C81">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D81" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="E81">
-        <v>14.00546093899347</v>
+        <v>13.0131688480468</v>
       </c>
       <c r="F81">
-        <v>9.85574974919386</v>
+        <v>6.754331649838051</v>
       </c>
       <c r="G81">
-        <v>17160</v>
+        <v>25480</v>
       </c>
       <c r="H81">
         <v>0</v>
       </c>
       <c r="I81">
-        <v>17160</v>
+        <v>11116.56</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -5450,7 +5516,7 @@
         <v>0</v>
       </c>
       <c r="N81">
-        <v>0</v>
+        <v>14362.92</v>
       </c>
       <c r="O81">
         <v>0</v>
@@ -5470,25 +5536,25 @@
         <v>96</v>
       </c>
       <c r="C82">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D82" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="E82">
-        <v>13.65604046779617</v>
+        <v>14.97060766197304</v>
       </c>
       <c r="F82">
-        <v>5.591040336702279</v>
+        <v>12.88967926217039</v>
       </c>
       <c r="G82">
-        <v>59800</v>
+        <v>50440</v>
       </c>
       <c r="H82">
         <v>0</v>
       </c>
       <c r="I82">
-        <v>59800</v>
+        <v>0</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -5497,7 +5563,7 @@
         <v>0</v>
       </c>
       <c r="L82">
-        <v>0</v>
+        <v>50440</v>
       </c>
       <c r="M82">
         <v>0</v>
@@ -5523,19 +5589,19 @@
         <v>97</v>
       </c>
       <c r="C83">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D83" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="E83">
-        <v>13.20429226094761</v>
+        <v>14.5103953141455</v>
       </c>
       <c r="F83">
-        <v>6.305582431078832</v>
+        <v>10.81887806077603</v>
       </c>
       <c r="G83">
-        <v>73320</v>
+        <v>19240</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -5550,10 +5616,10 @@
         <v>0</v>
       </c>
       <c r="L83">
-        <v>0</v>
+        <v>19240</v>
       </c>
       <c r="M83">
-        <v>73320</v>
+        <v>0</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -5576,25 +5642,25 @@
         <v>98</v>
       </c>
       <c r="C84">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D84" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="E84">
-        <v>13.02287836106771</v>
+        <v>13.05222022370047</v>
       </c>
       <c r="F84">
-        <v>6.77700790525255</v>
+        <v>5.147045147782118</v>
       </c>
       <c r="G84">
-        <v>75920</v>
+        <v>60840</v>
       </c>
       <c r="H84">
         <v>0</v>
       </c>
       <c r="I84">
-        <v>75920</v>
+        <v>0</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -5603,7 +5669,7 @@
         <v>0</v>
       </c>
       <c r="L84">
-        <v>0</v>
+        <v>60840</v>
       </c>
       <c r="M84">
         <v>0</v>
@@ -5629,19 +5695,19 @@
         <v>99</v>
       </c>
       <c r="C85">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="D85" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="E85">
-        <v>13.25577487602155</v>
+        <v>13.69394107008979</v>
       </c>
       <c r="F85">
-        <v>9.998378000229081</v>
+        <v>8.427914998933765</v>
       </c>
       <c r="G85">
-        <v>45760</v>
+        <v>71760</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -5653,7 +5719,7 @@
         <v>0</v>
       </c>
       <c r="K85">
-        <v>45760</v>
+        <v>0</v>
       </c>
       <c r="L85">
         <v>0</v>
@@ -5662,7 +5728,7 @@
         <v>0</v>
       </c>
       <c r="N85">
-        <v>0</v>
+        <v>71760</v>
       </c>
       <c r="O85">
         <v>0</v>
@@ -5682,25 +5748,25 @@
         <v>100</v>
       </c>
       <c r="C86">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="D86" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="E86">
-        <v>13.83194774880208</v>
+        <v>13.19688596654504</v>
       </c>
       <c r="F86">
-        <v>5.145322553681666</v>
+        <v>6.418754742408296</v>
       </c>
       <c r="G86">
-        <v>25480</v>
+        <v>50440</v>
       </c>
       <c r="H86">
         <v>0</v>
       </c>
       <c r="I86">
-        <v>17828.72</v>
+        <v>0</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -5709,13 +5775,13 @@
         <v>0</v>
       </c>
       <c r="L86">
-        <v>0</v>
+        <v>23389.6</v>
       </c>
       <c r="M86">
-        <v>7650.76</v>
+        <v>0</v>
       </c>
       <c r="N86">
-        <v>0</v>
+        <v>27049.88</v>
       </c>
       <c r="O86">
         <v>0</v>
@@ -5735,19 +5801,19 @@
         <v>101</v>
       </c>
       <c r="C87">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D87" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="E87">
-        <v>13.34745310849029</v>
+        <v>13.65404793549331</v>
       </c>
       <c r="F87">
-        <v>12.05006639599462</v>
+        <v>5.234048812866454</v>
       </c>
       <c r="G87">
-        <v>75920</v>
+        <v>29640</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -5762,10 +5828,10 @@
         <v>0</v>
       </c>
       <c r="L87">
-        <v>75920</v>
+        <v>0</v>
       </c>
       <c r="M87">
-        <v>0</v>
+        <v>29640</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -5791,16 +5857,16 @@
         <v>52</v>
       </c>
       <c r="D88" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="E88">
-        <v>13.21713655093894</v>
+        <v>14.00546093899347</v>
       </c>
       <c r="F88">
-        <v>11.79737361147223</v>
+        <v>9.85574974919386</v>
       </c>
       <c r="G88">
-        <v>18200</v>
+        <v>17160</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -5812,7 +5878,7 @@
         <v>0</v>
       </c>
       <c r="K88">
-        <v>0</v>
+        <v>17160</v>
       </c>
       <c r="L88">
         <v>0</v>
@@ -5821,7 +5887,7 @@
         <v>0</v>
       </c>
       <c r="N88">
-        <v>18200</v>
+        <v>0</v>
       </c>
       <c r="O88">
         <v>0</v>
@@ -5841,19 +5907,19 @@
         <v>103</v>
       </c>
       <c r="C89">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D89" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="E89">
-        <v>13.61854671067582</v>
+        <v>13.65604046779617</v>
       </c>
       <c r="F89">
-        <v>10.29656022284543</v>
+        <v>5.591040336702279</v>
       </c>
       <c r="G89">
-        <v>44200</v>
+        <v>59800</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -5868,7 +5934,7 @@
         <v>0</v>
       </c>
       <c r="L89">
-        <v>44200</v>
+        <v>59800</v>
       </c>
       <c r="M89">
         <v>0</v>
@@ -5894,19 +5960,19 @@
         <v>104</v>
       </c>
       <c r="C90">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D90" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="E90">
-        <v>14.29697275355179</v>
+        <v>13.20429226094761</v>
       </c>
       <c r="F90">
-        <v>7.582032681915951</v>
+        <v>6.305582431078832</v>
       </c>
       <c r="G90">
-        <v>16120</v>
+        <v>73320</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -5924,7 +5990,7 @@
         <v>0</v>
       </c>
       <c r="M90">
-        <v>16120</v>
+        <v>73320</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -5947,25 +6013,25 @@
         <v>105</v>
       </c>
       <c r="C91">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D91" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="E91">
-        <v>13.01918185714807</v>
+        <v>13.02287836106771</v>
       </c>
       <c r="F91">
-        <v>12.57762242710137</v>
+        <v>6.77700790525255</v>
       </c>
       <c r="G91">
-        <v>30160</v>
+        <v>75920</v>
       </c>
       <c r="H91">
         <v>0</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>75920</v>
       </c>
       <c r="J91">
         <v>0</v>
@@ -5980,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="N91">
-        <v>30160</v>
+        <v>0</v>
       </c>
       <c r="O91">
         <v>0</v>
@@ -6000,19 +6066,19 @@
         <v>106</v>
       </c>
       <c r="C92">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="E92">
-        <v>13.09444102540675</v>
+        <v>13.25577487602155</v>
       </c>
       <c r="F92">
-        <v>10.01172091325535</v>
+        <v>9.998378000229081</v>
       </c>
       <c r="G92">
-        <v>33800</v>
+        <v>45760</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -6024,16 +6090,16 @@
         <v>0</v>
       </c>
       <c r="K92">
-        <v>0</v>
+        <v>5142.28</v>
       </c>
       <c r="L92">
         <v>0</v>
       </c>
       <c r="M92">
-        <v>0</v>
+        <v>40617.2</v>
       </c>
       <c r="N92">
-        <v>33800</v>
+        <v>0</v>
       </c>
       <c r="O92">
         <v>0</v>
@@ -6053,19 +6119,19 @@
         <v>107</v>
       </c>
       <c r="C93">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="D93" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="E93">
-        <v>13.12532967244471</v>
+        <v>14.30739026469223</v>
       </c>
       <c r="F93">
-        <v>14.29111406844464</v>
+        <v>8.0666678842592</v>
       </c>
       <c r="G93">
-        <v>69680</v>
+        <v>34320</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -6083,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="M93">
-        <v>69680</v>
+        <v>34320</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -6109,13 +6175,13 @@
         <v>55</v>
       </c>
       <c r="D94" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="E94">
-        <v>14.20045811510243</v>
+        <v>13.04649893142896</v>
       </c>
       <c r="F94">
-        <v>6.54280873651636</v>
+        <v>6.011126295899013</v>
       </c>
       <c r="G94">
         <v>23920</v>
@@ -6162,22 +6228,22 @@
         <v>57</v>
       </c>
       <c r="D95" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="E95">
-        <v>13.78650996635141</v>
+        <v>13.71615989272942</v>
       </c>
       <c r="F95">
-        <v>13.15913066612812</v>
+        <v>10.38196053197429</v>
       </c>
       <c r="G95">
-        <v>52520</v>
+        <v>56680</v>
       </c>
       <c r="H95">
-        <v>27334.32</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>56680</v>
       </c>
       <c r="J95">
         <v>0</v>
@@ -6201,7 +6267,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>25185.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:17">
@@ -6212,19 +6278,19 @@
         <v>110</v>
       </c>
       <c r="C96">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D96" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="E96">
-        <v>13.02849326584524</v>
+        <v>13.66631025134743</v>
       </c>
       <c r="F96">
-        <v>8.265075283461666</v>
+        <v>12.33793028366182</v>
       </c>
       <c r="G96">
-        <v>74360</v>
+        <v>75920</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -6242,16 +6308,16 @@
         <v>0</v>
       </c>
       <c r="M96">
-        <v>0</v>
+        <v>75920</v>
       </c>
       <c r="N96">
-        <v>35076.6</v>
+        <v>0</v>
       </c>
       <c r="O96">
         <v>0</v>
       </c>
       <c r="P96">
-        <v>39282.88</v>
+        <v>0</v>
       </c>
       <c r="Q96">
         <v>0</v>
@@ -6265,19 +6331,19 @@
         <v>111</v>
       </c>
       <c r="C97">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D97" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="E97">
-        <v>14.49876695243756</v>
+        <v>13.09444102540675</v>
       </c>
       <c r="F97">
-        <v>10.8872101065212</v>
+        <v>10.01172091325535</v>
       </c>
       <c r="G97">
-        <v>65000</v>
+        <v>33800</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -6298,7 +6364,7 @@
         <v>0</v>
       </c>
       <c r="N97">
-        <v>65000</v>
+        <v>33800</v>
       </c>
       <c r="O97">
         <v>0</v>
@@ -6318,19 +6384,19 @@
         <v>112</v>
       </c>
       <c r="C98">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D98" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="E98">
-        <v>13.61963695330088</v>
+        <v>13.85724671067582</v>
       </c>
       <c r="F98">
-        <v>14.52028399938522</v>
+        <v>10.4770338796466</v>
       </c>
       <c r="G98">
-        <v>15600</v>
+        <v>44200</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -6351,7 +6417,7 @@
         <v>0</v>
       </c>
       <c r="N98">
-        <v>15600</v>
+        <v>44200</v>
       </c>
       <c r="O98">
         <v>0</v>
@@ -6371,19 +6437,19 @@
         <v>113</v>
       </c>
       <c r="C99">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D99" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="E99">
-        <v>14.02983409058691</v>
+        <v>13.54780996635141</v>
       </c>
       <c r="F99">
-        <v>6.4367016005517</v>
+        <v>12.9312931280078</v>
       </c>
       <c r="G99">
-        <v>73320</v>
+        <v>52520</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -6401,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="M99">
-        <v>34036.6</v>
+        <v>52520</v>
       </c>
       <c r="N99">
         <v>0</v>
@@ -6410,7 +6476,7 @@
         <v>0</v>
       </c>
       <c r="P99">
-        <v>39282.88</v>
+        <v>0</v>
       </c>
       <c r="Q99">
         <v>0</v>
@@ -6424,19 +6490,19 @@
         <v>114</v>
       </c>
       <c r="C100">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D100" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="E100">
-        <v>13.57505577070284</v>
+        <v>14.39134210184655</v>
       </c>
       <c r="F100">
-        <v>6.606080864279216</v>
+        <v>11.76750346768332</v>
       </c>
       <c r="G100">
-        <v>14040</v>
+        <v>26000</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -6454,10 +6520,10 @@
         <v>0</v>
       </c>
       <c r="M100">
-        <v>0</v>
+        <v>26000</v>
       </c>
       <c r="N100">
-        <v>14040</v>
+        <v>0</v>
       </c>
       <c r="O100">
         <v>0</v>
@@ -6477,25 +6543,25 @@
         <v>115</v>
       </c>
       <c r="C101">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D101" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="E101">
-        <v>13.75333645927919</v>
+        <v>14.09703225856001</v>
       </c>
       <c r="F101">
-        <v>7.825809146437463</v>
+        <v>10.58554514192995</v>
       </c>
       <c r="G101">
-        <v>63440</v>
+        <v>65000</v>
       </c>
       <c r="H101">
         <v>0</v>
       </c>
       <c r="I101">
-        <v>63440</v>
+        <v>65000</v>
       </c>
       <c r="J101">
         <v>0</v>
@@ -6530,25 +6596,25 @@
         <v>116</v>
       </c>
       <c r="C102">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D102" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="E102">
-        <v>13.81360313114674</v>
+        <v>14.51523805967423</v>
       </c>
       <c r="F102">
-        <v>6.981520781694235</v>
+        <v>7.697784086977394</v>
       </c>
       <c r="G102">
-        <v>68640</v>
+        <v>16120</v>
       </c>
       <c r="H102">
         <v>0</v>
       </c>
       <c r="I102">
-        <v>68640</v>
+        <v>0</v>
       </c>
       <c r="J102">
         <v>0</v>
@@ -6560,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="M102">
-        <v>0</v>
+        <v>16120</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -6583,25 +6649,25 @@
         <v>117</v>
       </c>
       <c r="C103">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="D103" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="E103">
-        <v>13.18189989737183</v>
+        <v>14.07536363403268</v>
       </c>
       <c r="F103">
-        <v>9.64150393978246</v>
+        <v>6.598704756908376</v>
       </c>
       <c r="G103">
-        <v>58240</v>
+        <v>32760</v>
       </c>
       <c r="H103">
         <v>0</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>32760</v>
       </c>
       <c r="J103">
         <v>0</v>
@@ -6616,7 +6682,7 @@
         <v>0</v>
       </c>
       <c r="N103">
-        <v>58240</v>
+        <v>0</v>
       </c>
       <c r="O103">
         <v>0</v>
@@ -6636,25 +6702,25 @@
         <v>118</v>
       </c>
       <c r="C104">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D104" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="E104">
-        <v>13.27344063341472</v>
+        <v>13.25490838776031</v>
       </c>
       <c r="F104">
-        <v>8.936471093566178</v>
+        <v>12.80535404116308</v>
       </c>
       <c r="G104">
-        <v>22360</v>
+        <v>30160</v>
       </c>
       <c r="H104">
         <v>0</v>
       </c>
       <c r="I104">
-        <v>22360</v>
+        <v>0</v>
       </c>
       <c r="J104">
         <v>0</v>
@@ -6669,7 +6735,7 @@
         <v>0</v>
       </c>
       <c r="N104">
-        <v>0</v>
+        <v>30160</v>
       </c>
       <c r="O104">
         <v>0</v>
@@ -6689,19 +6755,19 @@
         <v>119</v>
       </c>
       <c r="C105">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D105" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="E105">
-        <v>14.34865748913091</v>
+        <v>13.10325899991853</v>
       </c>
       <c r="F105">
-        <v>6.08696902950612</v>
+        <v>11.69572859856271</v>
       </c>
       <c r="G105">
-        <v>43680</v>
+        <v>18200</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -6716,7 +6782,7 @@
         <v>0</v>
       </c>
       <c r="L105">
-        <v>43680</v>
+        <v>18200</v>
       </c>
       <c r="M105">
         <v>0</v>
@@ -6742,22 +6808,22 @@
         <v>120</v>
       </c>
       <c r="C106">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D106" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="E106">
-        <v>13.58740074972149</v>
+        <v>13.09966673523299</v>
       </c>
       <c r="F106">
-        <v>7.117688416582397</v>
+        <v>8.310226635246686</v>
       </c>
       <c r="G106">
-        <v>32240</v>
+        <v>74360</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2486.12</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -6766,16 +6832,16 @@
         <v>0</v>
       </c>
       <c r="K106">
-        <v>0</v>
+        <v>14010.88</v>
       </c>
       <c r="L106">
         <v>0</v>
       </c>
       <c r="M106">
-        <v>32240</v>
+        <v>0</v>
       </c>
       <c r="N106">
-        <v>0</v>
+        <v>17010.24</v>
       </c>
       <c r="O106">
         <v>0</v>
@@ -6784,7 +6850,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>0</v>
+        <v>40851.2</v>
       </c>
     </row>
     <row r="107" spans="1:17">
@@ -6795,19 +6861,19 @@
         <v>121</v>
       </c>
       <c r="C107">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D107" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="E107">
-        <v>14.29059120091117</v>
+        <v>13.93869830545744</v>
       </c>
       <c r="F107">
-        <v>7.934123733481762</v>
+        <v>5.913056671763084</v>
       </c>
       <c r="G107">
-        <v>52000</v>
+        <v>43680</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -6825,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="M107">
-        <v>52000</v>
+        <v>43680</v>
       </c>
       <c r="N107">
         <v>0</v>
@@ -6848,25 +6914,25 @@
         <v>122</v>
       </c>
       <c r="C108">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D108" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="E108">
-        <v>13.57482287804824</v>
+        <v>13.67514732372689</v>
       </c>
       <c r="F108">
-        <v>12.07066569039473</v>
+        <v>5.40223231389791</v>
       </c>
       <c r="G108">
-        <v>23400</v>
+        <v>31720</v>
       </c>
       <c r="H108">
         <v>0</v>
       </c>
       <c r="I108">
-        <v>23400</v>
+        <v>0</v>
       </c>
       <c r="J108">
         <v>0</v>
@@ -6890,7 +6956,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>0</v>
+        <v>31720</v>
       </c>
     </row>
     <row r="109" spans="1:17">
@@ -6901,25 +6967,25 @@
         <v>123</v>
       </c>
       <c r="C109">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D109" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="E109">
-        <v>13.0500836572951</v>
+        <v>14.2259565395665</v>
       </c>
       <c r="F109">
-        <v>8.916320416188917</v>
+        <v>6.526679976140478</v>
       </c>
       <c r="G109">
-        <v>24440</v>
+        <v>73320</v>
       </c>
       <c r="H109">
         <v>0</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>73320</v>
       </c>
       <c r="J109">
         <v>0</v>
@@ -6931,7 +6997,7 @@
         <v>0</v>
       </c>
       <c r="M109">
-        <v>24440</v>
+        <v>0</v>
       </c>
       <c r="N109">
         <v>0</v>
@@ -6954,19 +7020,19 @@
         <v>124</v>
       </c>
       <c r="C110">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D110" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="E110">
-        <v>13.84884816686268</v>
+        <v>13.12532967244471</v>
       </c>
       <c r="F110">
-        <v>12.41550172973487</v>
+        <v>14.29111406844464</v>
       </c>
       <c r="G110">
-        <v>50440</v>
+        <v>69680</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -6981,13 +7047,13 @@
         <v>0</v>
       </c>
       <c r="L110">
-        <v>50440</v>
+        <v>0</v>
       </c>
       <c r="M110">
         <v>0</v>
       </c>
       <c r="N110">
-        <v>0</v>
+        <v>69680</v>
       </c>
       <c r="O110">
         <v>0</v>
@@ -7007,25 +7073,25 @@
         <v>125</v>
       </c>
       <c r="C111">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="D111" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="E111">
-        <v>14.51178343090384</v>
+        <v>13.27344063341472</v>
       </c>
       <c r="F111">
-        <v>9.914867197043584</v>
+        <v>8.936471093566178</v>
       </c>
       <c r="G111">
-        <v>15600</v>
+        <v>22360</v>
       </c>
       <c r="H111">
         <v>0</v>
       </c>
       <c r="I111">
-        <v>15600</v>
+        <v>0</v>
       </c>
       <c r="J111">
         <v>0</v>
@@ -7049,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>0</v>
+        <v>22360</v>
       </c>
     </row>
     <row r="112" spans="1:17">
@@ -7060,22 +7126,22 @@
         <v>126</v>
       </c>
       <c r="C112">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="D112" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="E112">
-        <v>13.05222022370047</v>
+        <v>14.06919264676126</v>
       </c>
       <c r="F112">
-        <v>11.09686959960467</v>
+        <v>5.233574876954144</v>
       </c>
       <c r="G112">
-        <v>61880</v>
+        <v>25479.48</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>4319.64</v>
       </c>
       <c r="I112">
         <v>0</v>
@@ -7087,7 +7153,7 @@
         <v>0</v>
       </c>
       <c r="L112">
-        <v>31837.52</v>
+        <v>13019.76</v>
       </c>
       <c r="M112">
         <v>0</v>
@@ -7096,13 +7162,13 @@
         <v>0</v>
       </c>
       <c r="O112">
-        <v>0</v>
+        <v>5638.88</v>
       </c>
       <c r="P112">
-        <v>0</v>
+        <v>2500.68</v>
       </c>
       <c r="Q112">
-        <v>30041.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:17">
@@ -7113,19 +7179,19 @@
         <v>127</v>
       </c>
       <c r="C113">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="D113" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="E113">
-        <v>13.18208448255395</v>
+        <v>13.54232428523099</v>
       </c>
       <c r="F113">
-        <v>7.85324890382785</v>
+        <v>8.550832797603308</v>
       </c>
       <c r="G113">
-        <v>34320</v>
+        <v>31200</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -7140,7 +7206,7 @@
         <v>0</v>
       </c>
       <c r="L113">
-        <v>34320</v>
+        <v>0</v>
       </c>
       <c r="M113">
         <v>0</v>
@@ -7152,7 +7218,7 @@
         <v>0</v>
       </c>
       <c r="P113">
-        <v>0</v>
+        <v>31200</v>
       </c>
       <c r="Q113">
         <v>0</v>
@@ -7166,19 +7232,19 @@
         <v>128</v>
       </c>
       <c r="C114">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D114" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="E114">
-        <v>13.68177730998672</v>
+        <v>14.65921246350496</v>
       </c>
       <c r="F114">
-        <v>8.237340500683569</v>
+        <v>15.62860514617691</v>
       </c>
       <c r="G114">
-        <v>41080</v>
+        <v>15600</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -7193,7 +7259,7 @@
         <v>0</v>
       </c>
       <c r="L114">
-        <v>41080</v>
+        <v>15600</v>
       </c>
       <c r="M114">
         <v>0</v>
@@ -7219,25 +7285,25 @@
         <v>129</v>
       </c>
       <c r="C115">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D115" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="E115">
-        <v>14.63712376026303</v>
+        <v>14.18670380621796</v>
       </c>
       <c r="F115">
-        <v>12.35356092849176</v>
+        <v>8.072400230534198</v>
       </c>
       <c r="G115">
-        <v>59800</v>
+        <v>63440</v>
       </c>
       <c r="H115">
         <v>0</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>63440</v>
       </c>
       <c r="J115">
         <v>0</v>
@@ -7252,7 +7318,7 @@
         <v>0</v>
       </c>
       <c r="N115">
-        <v>59800</v>
+        <v>0</v>
       </c>
       <c r="O115">
         <v>0</v>
@@ -7272,19 +7338,19 @@
         <v>130</v>
       </c>
       <c r="C116">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D116" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="E116">
-        <v>13.28523007886258</v>
+        <v>14.93028276495974</v>
       </c>
       <c r="F116">
-        <v>11.61726130073759</v>
+        <v>5.906109505946601</v>
       </c>
       <c r="G116">
-        <v>15080</v>
+        <v>19240</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -7302,10 +7368,10 @@
         <v>0</v>
       </c>
       <c r="M116">
-        <v>0</v>
+        <v>19240</v>
       </c>
       <c r="N116">
-        <v>15080</v>
+        <v>0</v>
       </c>
       <c r="O116">
         <v>0</v>
@@ -7325,19 +7391,19 @@
         <v>131</v>
       </c>
       <c r="C117">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D117" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="E117">
-        <v>13.78650996635141</v>
+        <v>13.3606829439365</v>
       </c>
       <c r="F117">
-        <v>15.74861784812673</v>
+        <v>11.27625983748696</v>
       </c>
       <c r="G117">
-        <v>27560</v>
+        <v>59800</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -7355,10 +7421,10 @@
         <v>0</v>
       </c>
       <c r="M117">
-        <v>27560</v>
+        <v>0</v>
       </c>
       <c r="N117">
-        <v>0</v>
+        <v>59800</v>
       </c>
       <c r="O117">
         <v>0</v>
@@ -7378,34 +7444,34 @@
         <v>132</v>
       </c>
       <c r="C118">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D118" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="E118">
-        <v>13.07645291943599</v>
+        <v>14.36650956825811</v>
       </c>
       <c r="F118">
-        <v>5.946713527437001</v>
+        <v>7.976273544620165</v>
       </c>
       <c r="G118">
-        <v>50960</v>
+        <v>52000</v>
       </c>
       <c r="H118">
-        <v>9523.280000000001</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>34765.64</v>
+        <v>0</v>
       </c>
       <c r="J118">
-        <v>6670.04</v>
+        <v>0</v>
       </c>
       <c r="K118">
         <v>0</v>
       </c>
       <c r="L118">
-        <v>0</v>
+        <v>52000</v>
       </c>
       <c r="M118">
         <v>0</v>
@@ -7431,22 +7497,22 @@
         <v>133</v>
       </c>
       <c r="C119">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D119" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="E119">
-        <v>13.66417483349604</v>
+        <v>13.0500836572951</v>
       </c>
       <c r="F119">
-        <v>7.242054285529258</v>
+        <v>8.916320416188917</v>
       </c>
       <c r="G119">
-        <v>70720</v>
+        <v>24440</v>
       </c>
       <c r="H119">
-        <v>231.92</v>
+        <v>0</v>
       </c>
       <c r="I119">
         <v>0</v>
@@ -7458,7 +7524,7 @@
         <v>0</v>
       </c>
       <c r="L119">
-        <v>70487.56</v>
+        <v>0</v>
       </c>
       <c r="M119">
         <v>0</v>
@@ -7473,7 +7539,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>0</v>
+        <v>24440</v>
       </c>
     </row>
     <row r="120" spans="1:17">
@@ -7484,25 +7550,25 @@
         <v>134</v>
       </c>
       <c r="C120">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D120" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="E120">
-        <v>13.70557501782716</v>
+        <v>14.51178343090384</v>
       </c>
       <c r="F120">
-        <v>6.838053972510873</v>
+        <v>9.914867197043584</v>
       </c>
       <c r="G120">
-        <v>69160</v>
+        <v>15600</v>
       </c>
       <c r="H120">
         <v>0</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>15600</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -7514,7 +7580,7 @@
         <v>0</v>
       </c>
       <c r="M120">
-        <v>69160</v>
+        <v>0</v>
       </c>
       <c r="N120">
         <v>0</v>
@@ -7537,19 +7603,19 @@
         <v>135</v>
       </c>
       <c r="C121">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D121" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="E121">
-        <v>13.08107521205415</v>
+        <v>13.05222022370047</v>
       </c>
       <c r="F121">
-        <v>7.421935728910824</v>
+        <v>11.09686959960467</v>
       </c>
       <c r="G121">
-        <v>44720</v>
+        <v>61880</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -7570,13 +7636,13 @@
         <v>0</v>
       </c>
       <c r="N121">
-        <v>0</v>
+        <v>61880</v>
       </c>
       <c r="O121">
         <v>0</v>
       </c>
       <c r="P121">
-        <v>44720</v>
+        <v>0</v>
       </c>
       <c r="Q121">
         <v>0</v>
@@ -7590,19 +7656,19 @@
         <v>136</v>
       </c>
       <c r="C122">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D122" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="E122">
-        <v>13.1656144947945</v>
+        <v>13.24400996635141</v>
       </c>
       <c r="F122">
-        <v>8.753345037788073</v>
+        <v>15.12890878445064</v>
       </c>
       <c r="G122">
-        <v>34840</v>
+        <v>27560</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -7623,7 +7689,7 @@
         <v>0</v>
       </c>
       <c r="N122">
-        <v>34840</v>
+        <v>27560</v>
       </c>
       <c r="O122">
         <v>0</v>
@@ -7643,34 +7709,34 @@
         <v>137</v>
       </c>
       <c r="C123">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="D123" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="E123">
-        <v>13.69128442603081</v>
+        <v>14.28221551380145</v>
       </c>
       <c r="F123">
-        <v>14.83166878660188</v>
+        <v>12.80401584879376</v>
       </c>
       <c r="G123">
-        <v>47320</v>
+        <v>50440</v>
       </c>
       <c r="H123">
         <v>0</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>50440</v>
       </c>
       <c r="J123">
         <v>0</v>
       </c>
       <c r="K123">
-        <v>35802.52</v>
+        <v>0</v>
       </c>
       <c r="L123">
-        <v>11516.96</v>
+        <v>0</v>
       </c>
       <c r="M123">
         <v>0</v>
@@ -7696,25 +7762,25 @@
         <v>138</v>
       </c>
       <c r="C124">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="D124" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="E124">
-        <v>13.82069163216977</v>
+        <v>13.15186308084332</v>
       </c>
       <c r="F124">
-        <v>8.726598241544256</v>
+        <v>7.113083504823448</v>
       </c>
       <c r="G124">
-        <v>31200</v>
+        <v>59280</v>
       </c>
       <c r="H124">
         <v>0</v>
       </c>
       <c r="I124">
-        <v>31200</v>
+        <v>0</v>
       </c>
       <c r="J124">
         <v>0</v>
@@ -7723,7 +7789,7 @@
         <v>0</v>
       </c>
       <c r="L124">
-        <v>0</v>
+        <v>59280</v>
       </c>
       <c r="M124">
         <v>0</v>
@@ -7749,25 +7815,25 @@
         <v>139</v>
       </c>
       <c r="C125">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D125" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="E125">
-        <v>13.14001779516502</v>
+        <v>13.28523007886258</v>
       </c>
       <c r="F125">
-        <v>7.449134758012819</v>
+        <v>11.61726130073759</v>
       </c>
       <c r="G125">
-        <v>77480</v>
+        <v>15080</v>
       </c>
       <c r="H125">
         <v>0</v>
       </c>
       <c r="I125">
-        <v>47437.52</v>
+        <v>0</v>
       </c>
       <c r="J125">
         <v>0</v>
@@ -7788,10 +7854,10 @@
         <v>0</v>
       </c>
       <c r="P125">
-        <v>0</v>
+        <v>15080</v>
       </c>
       <c r="Q125">
-        <v>30041.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:17">
@@ -7802,19 +7868,19 @@
         <v>140</v>
       </c>
       <c r="C126">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D126" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="E126">
-        <v>13.99232155792277</v>
+        <v>13.02849326584524</v>
       </c>
       <c r="F126">
-        <v>8.355583710766881</v>
+        <v>8.519342179049172</v>
       </c>
       <c r="G126">
-        <v>17680</v>
+        <v>16120</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -7829,7 +7895,7 @@
         <v>0</v>
       </c>
       <c r="L126">
-        <v>0</v>
+        <v>16120</v>
       </c>
       <c r="M126">
         <v>0</v>
@@ -7841,7 +7907,7 @@
         <v>0</v>
       </c>
       <c r="P126">
-        <v>17680</v>
+        <v>0</v>
       </c>
       <c r="Q126">
         <v>0</v>
@@ -7855,19 +7921,19 @@
         <v>141</v>
       </c>
       <c r="C127">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D127" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="E127">
-        <v>13.58313412807144</v>
+        <v>15.1210269596809</v>
       </c>
       <c r="F127">
-        <v>12.07518858583386</v>
+        <v>13.44554274965217</v>
       </c>
       <c r="G127">
-        <v>60840</v>
+        <v>23400</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -7882,10 +7948,10 @@
         <v>0</v>
       </c>
       <c r="L127">
-        <v>0</v>
+        <v>23400</v>
       </c>
       <c r="M127">
-        <v>60840</v>
+        <v>0</v>
       </c>
       <c r="N127">
         <v>0</v>
@@ -7908,19 +7974,19 @@
         <v>142</v>
       </c>
       <c r="C128">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D128" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="E128">
-        <v>13.10970574760042</v>
+        <v>14.46803853447652</v>
       </c>
       <c r="F128">
-        <v>7.323968405920642</v>
+        <v>8.710722085682715</v>
       </c>
       <c r="G128">
-        <v>73320</v>
+        <v>41080</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -7935,13 +8001,13 @@
         <v>0</v>
       </c>
       <c r="L128">
-        <v>0</v>
+        <v>41080</v>
       </c>
       <c r="M128">
         <v>0</v>
       </c>
       <c r="N128">
-        <v>73320</v>
+        <v>0</v>
       </c>
       <c r="O128">
         <v>0</v>
@@ -7961,25 +8027,25 @@
         <v>143</v>
       </c>
       <c r="C129">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D129" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="E129">
-        <v>14.74109538642761</v>
+        <v>13.38671787497002</v>
       </c>
       <c r="F129">
-        <v>12.75038942464442</v>
+        <v>6.678968173517275</v>
       </c>
       <c r="G129">
-        <v>24440</v>
+        <v>69160</v>
       </c>
       <c r="H129">
         <v>0</v>
       </c>
       <c r="I129">
-        <v>24440</v>
+        <v>0</v>
       </c>
       <c r="J129">
         <v>0</v>
@@ -7988,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="L129">
-        <v>0</v>
+        <v>20171.32</v>
       </c>
       <c r="M129">
-        <v>0</v>
+        <v>48988.16</v>
       </c>
       <c r="N129">
         <v>0</v>
@@ -8014,19 +8080,19 @@
         <v>144</v>
       </c>
       <c r="C130">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D130" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="E130">
-        <v>13.1656144947945</v>
+        <v>14.01289320084298</v>
       </c>
       <c r="F130">
-        <v>7.763829486029802</v>
+        <v>7.426876082488185</v>
       </c>
       <c r="G130">
-        <v>56680</v>
+        <v>70720</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -8047,13 +8113,13 @@
         <v>0</v>
       </c>
       <c r="N130">
-        <v>56680</v>
+        <v>20168.2</v>
       </c>
       <c r="O130">
         <v>0</v>
       </c>
       <c r="P130">
-        <v>0</v>
+        <v>50551.28</v>
       </c>
       <c r="Q130">
         <v>0</v>
@@ -8067,19 +8133,19 @@
         <v>145</v>
       </c>
       <c r="C131">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D131" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="E131">
-        <v>13.03723729226749</v>
+        <v>13.08107521205415</v>
       </c>
       <c r="F131">
-        <v>5.156844663260864</v>
+        <v>7.421935728910824</v>
       </c>
       <c r="G131">
-        <v>32760</v>
+        <v>44720</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -8100,7 +8166,7 @@
         <v>0</v>
       </c>
       <c r="N131">
-        <v>32760</v>
+        <v>44720</v>
       </c>
       <c r="O131">
         <v>0</v>
@@ -8120,19 +8186,19 @@
         <v>146</v>
       </c>
       <c r="C132">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D132" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="E132">
-        <v>14.01299854929125</v>
+        <v>13.1656144947945</v>
       </c>
       <c r="F132">
-        <v>7.049322969261027</v>
+        <v>8.753345037788073</v>
       </c>
       <c r="G132">
-        <v>48360</v>
+        <v>34840</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -8141,19 +8207,19 @@
         <v>0</v>
       </c>
       <c r="J132">
-        <v>6670.04</v>
+        <v>0</v>
       </c>
       <c r="K132">
         <v>0</v>
       </c>
       <c r="L132">
-        <v>41689.44</v>
+        <v>0</v>
       </c>
       <c r="M132">
         <v>0</v>
       </c>
       <c r="N132">
-        <v>0</v>
+        <v>34840</v>
       </c>
       <c r="O132">
         <v>0</v>
@@ -8173,19 +8239,19 @@
         <v>147</v>
       </c>
       <c r="C133">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="D133" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="E133">
-        <v>13.07946251282704</v>
+        <v>13.01785336419206</v>
       </c>
       <c r="F133">
-        <v>10.80598858284115</v>
+        <v>5.715858073075512</v>
       </c>
       <c r="G133">
-        <v>46800</v>
+        <v>65520</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -8200,13 +8266,13 @@
         <v>0</v>
       </c>
       <c r="L133">
-        <v>1384.24</v>
+        <v>11538.28</v>
       </c>
       <c r="M133">
         <v>0</v>
       </c>
       <c r="N133">
-        <v>45415.24</v>
+        <v>53981.2</v>
       </c>
       <c r="O133">
         <v>0</v>
@@ -8226,19 +8292,19 @@
         <v>148</v>
       </c>
       <c r="C134">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="E134">
-        <v>13.18734010001135</v>
+        <v>14.67404358008675</v>
       </c>
       <c r="F134">
-        <v>7.719948599680163</v>
+        <v>4.873794731452555</v>
       </c>
       <c r="G134">
-        <v>17680</v>
+        <v>14040</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -8253,10 +8319,10 @@
         <v>0</v>
       </c>
       <c r="L134">
-        <v>0</v>
+        <v>14040</v>
       </c>
       <c r="M134">
-        <v>17680</v>
+        <v>0</v>
       </c>
       <c r="N134">
         <v>0</v>
@@ -8279,19 +8345,19 @@
         <v>149</v>
       </c>
       <c r="C135">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D135" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="E135">
-        <v>13.14799617192613</v>
+        <v>13.14001779516502</v>
       </c>
       <c r="F135">
-        <v>5.576120367025722</v>
+        <v>7.449134758012819</v>
       </c>
       <c r="G135">
-        <v>25480</v>
+        <v>77480</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -8312,7 +8378,7 @@
         <v>0</v>
       </c>
       <c r="N135">
-        <v>25480</v>
+        <v>77480</v>
       </c>
       <c r="O135">
         <v>0</v>
@@ -8332,19 +8398,19 @@
         <v>150</v>
       </c>
       <c r="C136">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D136" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="E136">
-        <v>13.91053185804866</v>
+        <v>13.99232155792277</v>
       </c>
       <c r="F136">
-        <v>8.727398621786818</v>
+        <v>8.355583710766881</v>
       </c>
       <c r="G136">
-        <v>53040</v>
+        <v>17680</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -8362,10 +8428,10 @@
         <v>0</v>
       </c>
       <c r="M136">
-        <v>0</v>
+        <v>17680</v>
       </c>
       <c r="N136">
-        <v>53040</v>
+        <v>0</v>
       </c>
       <c r="O136">
         <v>0</v>
@@ -8385,19 +8451,19 @@
         <v>151</v>
       </c>
       <c r="C137">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D137" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E137">
-        <v>14.34786804302995</v>
+        <v>13.58313412807144</v>
       </c>
       <c r="F137">
-        <v>9.214623334327737</v>
+        <v>12.07518858583386</v>
       </c>
       <c r="G137">
-        <v>73840</v>
+        <v>60840</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -8415,10 +8481,10 @@
         <v>0</v>
       </c>
       <c r="M137">
-        <v>73840</v>
+        <v>0</v>
       </c>
       <c r="N137">
-        <v>0</v>
+        <v>60840</v>
       </c>
       <c r="O137">
         <v>0</v>
@@ -8438,25 +8504,25 @@
         <v>152</v>
       </c>
       <c r="C138">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D138" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="E138">
-        <v>14.51178343090384</v>
+        <v>14.21372728033373</v>
       </c>
       <c r="F138">
-        <v>7.161817773599989</v>
+        <v>7.445786275330577</v>
       </c>
       <c r="G138">
-        <v>22360</v>
+        <v>32240</v>
       </c>
       <c r="H138">
         <v>0</v>
       </c>
       <c r="I138">
-        <v>22360</v>
+        <v>0</v>
       </c>
       <c r="J138">
         <v>0</v>
@@ -8465,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="L138">
-        <v>0</v>
+        <v>32240</v>
       </c>
       <c r="M138">
         <v>0</v>
@@ -8494,22 +8560,22 @@
         <v>79</v>
       </c>
       <c r="D139" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="E139">
-        <v>13.18315732238485</v>
+        <v>13.49738630439329</v>
       </c>
       <c r="F139">
-        <v>6.240633024275946</v>
+        <v>6.789941136856908</v>
       </c>
       <c r="G139">
-        <v>57720</v>
+        <v>48360</v>
       </c>
       <c r="H139">
         <v>0</v>
       </c>
       <c r="I139">
-        <v>57720</v>
+        <v>0</v>
       </c>
       <c r="J139">
         <v>0</v>
@@ -8518,7 +8584,7 @@
         <v>0</v>
       </c>
       <c r="L139">
-        <v>0</v>
+        <v>48360</v>
       </c>
       <c r="M139">
         <v>0</v>
@@ -8544,19 +8610,19 @@
         <v>154</v>
       </c>
       <c r="C140">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D140" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="E140">
-        <v>14.11567343986078</v>
+        <v>13.24357513535552</v>
       </c>
       <c r="F140">
-        <v>10.4788576308871</v>
+        <v>7.398756901201535</v>
       </c>
       <c r="G140">
-        <v>75920</v>
+        <v>73320</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -8574,10 +8640,10 @@
         <v>0</v>
       </c>
       <c r="M140">
-        <v>75920</v>
+        <v>0</v>
       </c>
       <c r="N140">
-        <v>0</v>
+        <v>73320</v>
       </c>
       <c r="O140">
         <v>0</v>
@@ -8597,25 +8663,25 @@
         <v>155</v>
       </c>
       <c r="C141">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="D141" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="E141">
-        <v>13.39744520092676</v>
+        <v>14.77589130479496</v>
       </c>
       <c r="F141">
-        <v>5.882528644925837</v>
+        <v>12.78048634064296</v>
       </c>
       <c r="G141">
-        <v>65520</v>
+        <v>24440</v>
       </c>
       <c r="H141">
         <v>0</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>24440</v>
       </c>
       <c r="J141">
         <v>0</v>
@@ -8630,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="N141">
-        <v>65520</v>
+        <v>0</v>
       </c>
       <c r="O141">
         <v>0</v>
@@ -8650,22 +8716,22 @@
         <v>156</v>
       </c>
       <c r="C142">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="D142" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="E142">
-        <v>13.27344063341472</v>
+        <v>13.20831857642716</v>
       </c>
       <c r="F142">
-        <v>6.851240913955102</v>
+        <v>7.78901229905266</v>
       </c>
       <c r="G142">
-        <v>15080</v>
+        <v>56680</v>
       </c>
       <c r="H142">
-        <v>2532.92</v>
+        <v>0</v>
       </c>
       <c r="I142">
         <v>0</v>
@@ -8683,10 +8749,10 @@
         <v>0</v>
       </c>
       <c r="N142">
-        <v>0</v>
+        <v>56680</v>
       </c>
       <c r="O142">
-        <v>12546.56</v>
+        <v>0</v>
       </c>
       <c r="P142">
         <v>0</v>
@@ -8703,19 +8769,19 @@
         <v>157</v>
       </c>
       <c r="C143">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D143" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="E143">
-        <v>14.43096213818086</v>
+        <v>14.41246815602333</v>
       </c>
       <c r="F143">
-        <v>6.049156144846323</v>
+        <v>8.586252037569645</v>
       </c>
       <c r="G143">
-        <v>47840</v>
+        <v>34320</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -8730,7 +8796,7 @@
         <v>0</v>
       </c>
       <c r="L143">
-        <v>47840</v>
+        <v>34320</v>
       </c>
       <c r="M143">
         <v>0</v>
@@ -8756,25 +8822,25 @@
         <v>158</v>
       </c>
       <c r="C144">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D144" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="E144">
-        <v>13.3221506455596</v>
+        <v>13.07946251282704</v>
       </c>
       <c r="F144">
-        <v>7.654546192109419</v>
+        <v>10.80598858284115</v>
       </c>
       <c r="G144">
-        <v>28600</v>
+        <v>46800</v>
       </c>
       <c r="H144">
         <v>0</v>
       </c>
       <c r="I144">
-        <v>28600</v>
+        <v>0</v>
       </c>
       <c r="J144">
         <v>0</v>
@@ -8789,7 +8855,7 @@
         <v>0</v>
       </c>
       <c r="N144">
-        <v>0</v>
+        <v>46800</v>
       </c>
       <c r="O144">
         <v>0</v>
@@ -8809,19 +8875,19 @@
         <v>159</v>
       </c>
       <c r="C145">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D145" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="E145">
-        <v>14.09804063341472</v>
+        <v>13.24968219022668</v>
       </c>
       <c r="F145">
-        <v>8.207782043939753</v>
+        <v>5.240876679685662</v>
       </c>
       <c r="G145">
-        <v>49920</v>
+        <v>32760</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -8842,7 +8908,7 @@
         <v>0</v>
       </c>
       <c r="N145">
-        <v>0</v>
+        <v>32760</v>
       </c>
       <c r="O145">
         <v>0</v>
@@ -8851,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>49920</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:17">
@@ -8862,25 +8928,25 @@
         <v>160</v>
       </c>
       <c r="C146">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D146" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="E146">
-        <v>14.81596513115461</v>
+        <v>13.08705823114741</v>
       </c>
       <c r="F146">
-        <v>5.797892224777587</v>
+        <v>7.082004785830965</v>
       </c>
       <c r="G146">
-        <v>28600</v>
+        <v>47840</v>
       </c>
       <c r="H146">
         <v>0</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>47840</v>
       </c>
       <c r="J146">
         <v>0</v>
@@ -8889,7 +8955,7 @@
         <v>0</v>
       </c>
       <c r="L146">
-        <v>28600</v>
+        <v>0</v>
       </c>
       <c r="M146">
         <v>0</v>
@@ -8915,25 +8981,25 @@
         <v>161</v>
       </c>
       <c r="C147">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D147" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="E147">
-        <v>14.0860705922011</v>
+        <v>13.04928793462975</v>
       </c>
       <c r="F147">
-        <v>10.69628142241526</v>
+        <v>6.177262034934452</v>
       </c>
       <c r="G147">
-        <v>61880</v>
+        <v>57720</v>
       </c>
       <c r="H147">
         <v>0</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>41435.68</v>
       </c>
       <c r="J147">
         <v>0</v>
@@ -8942,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="L147">
-        <v>61880</v>
+        <v>0</v>
       </c>
       <c r="M147">
         <v>0</v>
@@ -8957,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>0</v>
+        <v>16283.8</v>
       </c>
     </row>
     <row r="148" spans="1:17">
@@ -8968,31 +9034,31 @@
         <v>162</v>
       </c>
       <c r="C148">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D148" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="E148">
-        <v>14.20244515805268</v>
+        <v>13.19208606408054</v>
       </c>
       <c r="F148">
-        <v>15.21792858050723</v>
+        <v>4.845964742999374</v>
       </c>
       <c r="G148">
-        <v>61880</v>
+        <v>21320</v>
       </c>
       <c r="H148">
-        <v>9847.76</v>
+        <v>0</v>
       </c>
       <c r="I148">
-        <v>6968.52</v>
+        <v>0</v>
       </c>
       <c r="J148">
         <v>0</v>
       </c>
       <c r="K148">
-        <v>0</v>
+        <v>21320</v>
       </c>
       <c r="L148">
         <v>0</v>
@@ -9010,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>45062.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:17">
@@ -9021,19 +9087,19 @@
         <v>163</v>
       </c>
       <c r="C149">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D149" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="E149">
-        <v>14.37008266267653</v>
+        <v>13.05922785511339</v>
       </c>
       <c r="F149">
-        <v>7.687826637116403</v>
+        <v>7.644950917198233</v>
       </c>
       <c r="G149">
-        <v>34320</v>
+        <v>17680</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -9051,10 +9117,10 @@
         <v>0</v>
       </c>
       <c r="M149">
-        <v>34320</v>
+        <v>0</v>
       </c>
       <c r="N149">
-        <v>0</v>
+        <v>17680</v>
       </c>
       <c r="O149">
         <v>0</v>
@@ -9074,19 +9140,19 @@
         <v>164</v>
       </c>
       <c r="C150">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D150" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="E150">
-        <v>13.02849326584524</v>
+        <v>14.0426705922011</v>
       </c>
       <c r="F150">
-        <v>11.12566172469312</v>
+        <v>10.66332555933802</v>
       </c>
       <c r="G150">
-        <v>38480</v>
+        <v>61880</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -9107,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N150">
-        <v>38480</v>
+        <v>61880</v>
       </c>
       <c r="O150">
         <v>0</v>
@@ -9127,19 +9193,19 @@
         <v>165</v>
       </c>
       <c r="C151">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D151" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="E151">
-        <v>14.43897008384628</v>
+        <v>13.69353267828077</v>
       </c>
       <c r="F151">
-        <v>6.192778145669208</v>
+        <v>7.134268477970465</v>
       </c>
       <c r="G151">
-        <v>53040</v>
+        <v>16640</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -9157,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="M151">
-        <v>53040</v>
+        <v>0</v>
       </c>
       <c r="N151">
         <v>0</v>
@@ -9166,7 +9232,7 @@
         <v>0</v>
       </c>
       <c r="P151">
-        <v>0</v>
+        <v>16640</v>
       </c>
       <c r="Q151">
         <v>0</v>
@@ -9180,19 +9246,19 @@
         <v>166</v>
       </c>
       <c r="C152">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D152" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="E152">
-        <v>13.13615944206449</v>
+        <v>15.2861306123589</v>
       </c>
       <c r="F152">
-        <v>8.562262328645637</v>
+        <v>8.336087027727855</v>
       </c>
       <c r="G152">
-        <v>26000</v>
+        <v>63960</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -9207,13 +9273,13 @@
         <v>0</v>
       </c>
       <c r="L152">
-        <v>0</v>
+        <v>63960</v>
       </c>
       <c r="M152">
         <v>0</v>
       </c>
       <c r="N152">
-        <v>26000</v>
+        <v>0</v>
       </c>
       <c r="O152">
         <v>0</v>
@@ -9233,28 +9299,28 @@
         <v>167</v>
       </c>
       <c r="C153">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="D153" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="E153">
-        <v>14.2559142291142</v>
+        <v>13.61432404458805</v>
       </c>
       <c r="F153">
-        <v>6.444759160107226</v>
+        <v>8.144046693750765</v>
       </c>
       <c r="G153">
-        <v>43680</v>
+        <v>62400</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1446.64</v>
       </c>
       <c r="I153">
         <v>0</v>
       </c>
       <c r="J153">
-        <v>0</v>
+        <v>2060.24</v>
       </c>
       <c r="K153">
         <v>0</v>
@@ -9266,13 +9332,13 @@
         <v>0</v>
       </c>
       <c r="N153">
-        <v>43680</v>
+        <v>4581.2</v>
       </c>
       <c r="O153">
-        <v>0</v>
+        <v>3759.08</v>
       </c>
       <c r="P153">
-        <v>0</v>
+        <v>50551.28</v>
       </c>
       <c r="Q153">
         <v>0</v>
@@ -9286,28 +9352,28 @@
         <v>168</v>
       </c>
       <c r="C154">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="E154">
-        <v>13.28317679854132</v>
+        <v>13.09155155920716</v>
       </c>
       <c r="F154">
-        <v>8.340477054500402</v>
+        <v>7.737172123227457</v>
       </c>
       <c r="G154">
-        <v>61360</v>
+        <v>18720</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>8639.800000000001</v>
       </c>
       <c r="I154">
         <v>0</v>
       </c>
       <c r="J154">
-        <v>0</v>
+        <v>4121</v>
       </c>
       <c r="K154">
         <v>0</v>
@@ -9319,16 +9385,16 @@
         <v>0</v>
       </c>
       <c r="N154">
-        <v>61360</v>
+        <v>0</v>
       </c>
       <c r="O154">
         <v>0</v>
       </c>
       <c r="P154">
-        <v>0</v>
+        <v>2191.28</v>
       </c>
       <c r="Q154">
-        <v>0</v>
+        <v>3767.4</v>
       </c>
     </row>
     <row r="155" spans="1:17">
@@ -9339,25 +9405,25 @@
         <v>169</v>
       </c>
       <c r="C155">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="D155" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="E155">
-        <v>13.93381384050642</v>
+        <v>14.39341906343811</v>
       </c>
       <c r="F155">
-        <v>8.335164505227452</v>
+        <v>9.243877540896733</v>
       </c>
       <c r="G155">
-        <v>62400</v>
+        <v>73840</v>
       </c>
       <c r="H155">
         <v>0</v>
       </c>
       <c r="I155">
-        <v>26715.52</v>
+        <v>0</v>
       </c>
       <c r="J155">
         <v>0</v>
@@ -9369,7 +9435,7 @@
         <v>0</v>
       </c>
       <c r="M155">
-        <v>0</v>
+        <v>23288.2</v>
       </c>
       <c r="N155">
         <v>0</v>
@@ -9378,7 +9444,7 @@
         <v>0</v>
       </c>
       <c r="P155">
-        <v>35683.96</v>
+        <v>50551.28</v>
       </c>
       <c r="Q155">
         <v>0</v>
@@ -9392,28 +9458,28 @@
         <v>170</v>
       </c>
       <c r="C156">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="D156" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="E156">
-        <v>13.22542094696226</v>
+        <v>13.07682270253837</v>
       </c>
       <c r="F156">
-        <v>7.816289597608395</v>
+        <v>5.545935399898005</v>
       </c>
       <c r="G156">
-        <v>18720</v>
+        <v>25480</v>
       </c>
       <c r="H156">
         <v>0</v>
       </c>
       <c r="I156">
-        <v>2147.08</v>
+        <v>0</v>
       </c>
       <c r="J156">
-        <v>2367.56</v>
+        <v>0</v>
       </c>
       <c r="K156">
         <v>0</v>
@@ -9431,9 +9497,963 @@
         <v>0</v>
       </c>
       <c r="P156">
-        <v>14204.32</v>
+        <v>25480</v>
       </c>
       <c r="Q156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>171</v>
+      </c>
+      <c r="C157">
+        <v>79</v>
+      </c>
+      <c r="D157" t="s">
+        <v>275</v>
+      </c>
+      <c r="E157">
+        <v>14.12753185804866</v>
+      </c>
+      <c r="F157">
+        <v>8.863543344379288</v>
+      </c>
+      <c r="G157">
+        <v>53040</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>53040</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157">
+        <v>0</v>
+      </c>
+      <c r="O157">
+        <v>0</v>
+      </c>
+      <c r="P157">
+        <v>0</v>
+      </c>
+      <c r="Q157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>172</v>
+      </c>
+      <c r="C158">
+        <v>77</v>
+      </c>
+      <c r="D158" t="s">
+        <v>276</v>
+      </c>
+      <c r="E158">
+        <v>13.46467343986078</v>
+      </c>
+      <c r="F158">
+        <v>9.995583747655719</v>
+      </c>
+      <c r="G158">
+        <v>75920</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>75920</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158">
+        <v>0</v>
+      </c>
+      <c r="O158">
+        <v>0</v>
+      </c>
+      <c r="P158">
+        <v>0</v>
+      </c>
+      <c r="Q158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>173</v>
+      </c>
+      <c r="C159">
+        <v>81</v>
+      </c>
+      <c r="D159" t="s">
+        <v>277</v>
+      </c>
+      <c r="E159">
+        <v>13.09966673523299</v>
+      </c>
+      <c r="F159">
+        <v>11.1864401990741</v>
+      </c>
+      <c r="G159">
+        <v>38480</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>12214.8</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>26264.68</v>
+      </c>
+      <c r="O159">
+        <v>0</v>
+      </c>
+      <c r="P159">
+        <v>0</v>
+      </c>
+      <c r="Q159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>174</v>
+      </c>
+      <c r="C160">
+        <v>78</v>
+      </c>
+      <c r="D160" t="s">
+        <v>277</v>
+      </c>
+      <c r="E160">
+        <v>14.98804382612614</v>
+      </c>
+      <c r="F160">
+        <v>5.674849282317872</v>
+      </c>
+      <c r="G160">
+        <v>35880</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>35880</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <v>0</v>
+      </c>
+      <c r="O160">
+        <v>0</v>
+      </c>
+      <c r="P160">
+        <v>0</v>
+      </c>
+      <c r="Q160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>175</v>
+      </c>
+      <c r="C161">
+        <v>79</v>
+      </c>
+      <c r="D161" t="s">
+        <v>278</v>
+      </c>
+      <c r="E161">
+        <v>14.12728866879311</v>
+      </c>
+      <c r="F161">
+        <v>5.921862606426348</v>
+      </c>
+      <c r="G161">
+        <v>47840</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>47840</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <v>0</v>
+      </c>
+      <c r="O161">
+        <v>0</v>
+      </c>
+      <c r="P161">
+        <v>0</v>
+      </c>
+      <c r="Q161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>176</v>
+      </c>
+      <c r="C162">
+        <v>80</v>
+      </c>
+      <c r="D162" t="s">
+        <v>278</v>
+      </c>
+      <c r="E162">
+        <v>13.08351391086572</v>
+      </c>
+      <c r="F162">
+        <v>7.517432001056694</v>
+      </c>
+      <c r="G162">
+        <v>28600</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <v>0</v>
+      </c>
+      <c r="O162">
+        <v>0</v>
+      </c>
+      <c r="P162">
+        <v>28600</v>
+      </c>
+      <c r="Q162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>177</v>
+      </c>
+      <c r="C163">
+        <v>78</v>
+      </c>
+      <c r="D163" t="s">
+        <v>279</v>
+      </c>
+      <c r="E163">
+        <v>13.73111862744043</v>
+      </c>
+      <c r="F163">
+        <v>14.71290191776468</v>
+      </c>
+      <c r="G163">
+        <v>61880</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>61880</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163">
+        <v>0</v>
+      </c>
+      <c r="O163">
+        <v>0</v>
+      </c>
+      <c r="P163">
+        <v>0</v>
+      </c>
+      <c r="Q163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>178</v>
+      </c>
+      <c r="C164">
+        <v>81</v>
+      </c>
+      <c r="D164" t="s">
+        <v>280</v>
+      </c>
+      <c r="E164">
+        <v>13.46467343986078</v>
+      </c>
+      <c r="F164">
+        <v>6.608718043824331</v>
+      </c>
+      <c r="G164">
+        <v>67600</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>0</v>
+      </c>
+      <c r="O164">
+        <v>0</v>
+      </c>
+      <c r="P164">
+        <v>0</v>
+      </c>
+      <c r="Q164">
+        <v>67600</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>179</v>
+      </c>
+      <c r="C165">
+        <v>84</v>
+      </c>
+      <c r="D165" t="s">
+        <v>281</v>
+      </c>
+      <c r="E165">
+        <v>13.02228189104408</v>
+      </c>
+      <c r="F165">
+        <v>8.48803595605319</v>
+      </c>
+      <c r="G165">
+        <v>26000</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165">
+        <v>26000</v>
+      </c>
+      <c r="N165">
+        <v>0</v>
+      </c>
+      <c r="O165">
+        <v>0</v>
+      </c>
+      <c r="P165">
+        <v>0</v>
+      </c>
+      <c r="Q165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>180</v>
+      </c>
+      <c r="C166">
+        <v>82</v>
+      </c>
+      <c r="D166" t="s">
+        <v>281</v>
+      </c>
+      <c r="E166">
+        <v>13.38194063341472</v>
+      </c>
+      <c r="F166">
+        <v>7.790873561796896</v>
+      </c>
+      <c r="G166">
+        <v>49920</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>49920</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <v>0</v>
+      </c>
+      <c r="O166">
+        <v>0</v>
+      </c>
+      <c r="P166">
+        <v>0</v>
+      </c>
+      <c r="Q166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>181</v>
+      </c>
+      <c r="C167">
+        <v>83</v>
+      </c>
+      <c r="D167" t="s">
+        <v>282</v>
+      </c>
+      <c r="E167">
+        <v>14.12011294098913</v>
+      </c>
+      <c r="F167">
+        <v>6.056022439797545</v>
+      </c>
+      <c r="G167">
+        <v>53040</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167">
+        <v>53040</v>
+      </c>
+      <c r="O167">
+        <v>0</v>
+      </c>
+      <c r="P167">
+        <v>0</v>
+      </c>
+      <c r="Q167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>182</v>
+      </c>
+      <c r="C168">
+        <v>81</v>
+      </c>
+      <c r="D168" t="s">
+        <v>282</v>
+      </c>
+      <c r="E168">
+        <v>13.67351812478139</v>
+      </c>
+      <c r="F168">
+        <v>6.748119250812284</v>
+      </c>
+      <c r="G168">
+        <v>22360</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <v>22360</v>
+      </c>
+      <c r="O168">
+        <v>0</v>
+      </c>
+      <c r="P168">
+        <v>0</v>
+      </c>
+      <c r="Q168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>183</v>
+      </c>
+      <c r="C169">
+        <v>85</v>
+      </c>
+      <c r="D169" t="s">
+        <v>283</v>
+      </c>
+      <c r="E169">
+        <v>13.05327067609234</v>
+      </c>
+      <c r="F169">
+        <v>8.196119513525305</v>
+      </c>
+      <c r="G169">
+        <v>61360</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169">
+        <v>26028.6</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>35330.88</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+      <c r="M169">
+        <v>0</v>
+      </c>
+      <c r="N169">
+        <v>0</v>
+      </c>
+      <c r="O169">
+        <v>0</v>
+      </c>
+      <c r="P169">
+        <v>0</v>
+      </c>
+      <c r="Q169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>184</v>
+      </c>
+      <c r="C170">
+        <v>16</v>
+      </c>
+      <c r="D170" t="s">
+        <v>284</v>
+      </c>
+      <c r="E170">
+        <v>13.55921170796885</v>
+      </c>
+      <c r="F170">
+        <v>11.67141360864979</v>
+      </c>
+      <c r="G170">
+        <v>67080</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>67080</v>
+      </c>
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170">
+        <v>0</v>
+      </c>
+      <c r="O170">
+        <v>0</v>
+      </c>
+      <c r="P170">
+        <v>0</v>
+      </c>
+      <c r="Q170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>185</v>
+      </c>
+      <c r="C171">
+        <v>5</v>
+      </c>
+      <c r="D171" t="s">
+        <v>284</v>
+      </c>
+      <c r="E171">
+        <v>15.18214178530981</v>
+      </c>
+      <c r="F171">
+        <v>14.11405140845385</v>
+      </c>
+      <c r="G171">
+        <v>14040</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>14040</v>
+      </c>
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171">
+        <v>0</v>
+      </c>
+      <c r="O171">
+        <v>0</v>
+      </c>
+      <c r="P171">
+        <v>0</v>
+      </c>
+      <c r="Q171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>186</v>
+      </c>
+      <c r="C172">
+        <v>83</v>
+      </c>
+      <c r="D172" t="s">
+        <v>285</v>
+      </c>
+      <c r="E172">
+        <v>13.55016429532959</v>
+      </c>
+      <c r="F172">
+        <v>7.24917987267415</v>
+      </c>
+      <c r="G172">
+        <v>34320</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <v>34320</v>
+      </c>
+      <c r="N172">
+        <v>0</v>
+      </c>
+      <c r="O172">
+        <v>0</v>
+      </c>
+      <c r="P172">
+        <v>0</v>
+      </c>
+      <c r="Q172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>187</v>
+      </c>
+      <c r="C173">
+        <v>85</v>
+      </c>
+      <c r="D173" t="s">
+        <v>285</v>
+      </c>
+      <c r="E173">
+        <v>13.5181142291142</v>
+      </c>
+      <c r="F173">
+        <v>6.111217359005737</v>
+      </c>
+      <c r="G173">
+        <v>43680</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <v>43680</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
+      <c r="M173">
+        <v>0</v>
+      </c>
+      <c r="N173">
+        <v>0</v>
+      </c>
+      <c r="O173">
+        <v>0</v>
+      </c>
+      <c r="P173">
+        <v>0</v>
+      </c>
+      <c r="Q173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>188</v>
+      </c>
+      <c r="C174">
+        <v>85</v>
+      </c>
+      <c r="D174" t="s">
+        <v>286</v>
+      </c>
+      <c r="E174">
+        <v>14.83241411074645</v>
+      </c>
+      <c r="F174">
+        <v>5.804329160207496</v>
+      </c>
+      <c r="G174">
+        <v>28600</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>0</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174">
+        <v>0</v>
+      </c>
+      <c r="O174">
+        <v>0</v>
+      </c>
+      <c r="P174">
+        <v>28600</v>
+      </c>
+      <c r="Q174">
         <v>0</v>
       </c>
     </row>
